--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jus3\Documents\Projects\state-policy-simulator\build_calibration\States\LA\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38483CC7-12F5-4D51-83F4-E2640ADD5B80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160F25B9-D203-4372-995F-A580868745BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="770" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,54 +18,50 @@
     <sheet name="Other Values" sheetId="18" r:id="rId3"/>
     <sheet name="Calculations" sheetId="26" r:id="rId4"/>
     <sheet name="Extrapolations" sheetId="24" r:id="rId5"/>
-    <sheet name="BHNVFEAL-LDVs-psgr" sheetId="2" r:id="rId6"/>
-    <sheet name="BHNVFEAL-LDVs-frgt" sheetId="5" r:id="rId7"/>
-    <sheet name="BHNVFEAL-HDVs-psgr" sheetId="6" r:id="rId8"/>
-    <sheet name="BHNVFEAL-HDVs-frgt" sheetId="7" r:id="rId9"/>
-    <sheet name="BHNVFEAL-aircraft-psgr" sheetId="8" r:id="rId10"/>
-    <sheet name="BHNVFEAL-aircraft-frgt" sheetId="9" r:id="rId11"/>
-    <sheet name="BHNVFEAL-rail-psgr" sheetId="10" r:id="rId12"/>
-    <sheet name="BHNVFEAL-rail-frgt" sheetId="11" r:id="rId13"/>
-    <sheet name="BHNVFEAL-ships-psgr" sheetId="12" r:id="rId14"/>
-    <sheet name="BHNVFEAL-ships-frgt" sheetId="13" r:id="rId15"/>
-    <sheet name="BHNVFEAL-motorbikes-psgr" sheetId="14" r:id="rId16"/>
-    <sheet name="BHNVFEAL-motorbikes-frgt" sheetId="15" r:id="rId17"/>
+    <sheet name="SYFAFE (for NG vehicles)" sheetId="27" r:id="rId6"/>
+    <sheet name="BHNVFEAL-LDVs-psgr" sheetId="2" r:id="rId7"/>
+    <sheet name="BHNVFEAL-LDVs-frgt" sheetId="5" r:id="rId8"/>
+    <sheet name="BHNVFEAL-HDVs-psgr" sheetId="6" r:id="rId9"/>
+    <sheet name="BHNVFEAL-HDVs-frgt" sheetId="7" r:id="rId10"/>
+    <sheet name="BHNVFEAL-aircraft-psgr" sheetId="8" r:id="rId11"/>
+    <sheet name="BHNVFEAL-aircraft-frgt" sheetId="9" r:id="rId12"/>
+    <sheet name="BHNVFEAL-rail-psgr" sheetId="10" r:id="rId13"/>
+    <sheet name="BHNVFEAL-rail-frgt" sheetId="11" r:id="rId14"/>
+    <sheet name="BHNVFEAL-ships-psgr" sheetId="12" r:id="rId15"/>
+    <sheet name="BHNVFEAL-ships-frgt" sheetId="13" r:id="rId16"/>
+    <sheet name="BHNVFEAL-motorbikes-psgr" sheetId="14" r:id="rId17"/>
+    <sheet name="BHNVFEAL-motorbikes-frgt" sheetId="15" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
+    <definedName name="billion">[2]About!$A$108</definedName>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_Tons">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="s">[3]About!$A$109</definedName>
     <definedName name="Sum_T2">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_TTM">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
+    <definedName name="trillion">[2]About!$A$109</definedName>
+    <definedName name="trillions">[3]About!$A$109</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -80,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="99">
   <si>
     <t>Sources:</t>
   </si>
@@ -366,12 +362,24 @@
   <si>
     <t>psgr - electric</t>
   </si>
+  <si>
+    <t>Fuel Economy (passenger*miles/BTU)</t>
+  </si>
+  <si>
+    <t>PASSENGER</t>
+  </si>
+  <si>
+    <t>FREIGHT</t>
+  </si>
+  <si>
+    <t>Fuel Economy (freight ton*miles/BTU)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
@@ -379,6 +387,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -647,7 +656,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +805,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,7 +1298,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1325,6 +1352,16 @@
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7488,6 +7525,111 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="AEO 7"/>
+      <sheetName val="AEO 35"/>
+      <sheetName val="AEO 43"/>
+      <sheetName val="AEO 46"/>
+      <sheetName val="AEO 49"/>
+      <sheetName val="AEO 36"/>
+      <sheetName val="AEO 47"/>
+      <sheetName val="AEO 48"/>
+      <sheetName val="NTS 1-40"/>
+      <sheetName val="NRBS 40"/>
+      <sheetName val="Calculations Etc"/>
+      <sheetName val="Calibration Adjustments"/>
+      <sheetName val="SYFAFE-psgr"/>
+      <sheetName val="SYFAFE-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="108">
+          <cell r="A108">
+            <v>1000000000</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>1000000000000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="AEO 7"/>
+      <sheetName val="AEO 35"/>
+      <sheetName val="AEO 43"/>
+      <sheetName val="AEO 46"/>
+      <sheetName val="AEO 49"/>
+      <sheetName val="AEO 36"/>
+      <sheetName val="AEO 47"/>
+      <sheetName val="AEO 48"/>
+      <sheetName val="NTS 1-40"/>
+      <sheetName val="NRBS 40"/>
+      <sheetName val="Calculations Etc"/>
+      <sheetName val="Calibration Adjustments"/>
+      <sheetName val="SEDS Transport"/>
+      <sheetName val="SYVbT"/>
+      <sheetName val="BAADTbVT"/>
+      <sheetName val="SYFAFE-psgr"/>
+      <sheetName val="SYFAFE-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="109">
+          <cell r="A109">
+            <v>1000000000000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7813,10 +7955,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="107.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8037,6 +8179,1042 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AI8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="A1" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
+      <c r="G1">
+        <v>2025</v>
+      </c>
+      <c r="H1">
+        <v>2026</v>
+      </c>
+      <c r="I1">
+        <v>2027</v>
+      </c>
+      <c r="J1">
+        <v>2028</v>
+      </c>
+      <c r="K1">
+        <v>2029</v>
+      </c>
+      <c r="L1">
+        <v>2030</v>
+      </c>
+      <c r="M1">
+        <v>2031</v>
+      </c>
+      <c r="N1">
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
+      </c>
+      <c r="P1">
+        <v>2034</v>
+      </c>
+      <c r="Q1">
+        <v>2035</v>
+      </c>
+      <c r="R1">
+        <v>2036</v>
+      </c>
+      <c r="S1">
+        <v>2037</v>
+      </c>
+      <c r="T1">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
+      </c>
+      <c r="V1">
+        <v>2040</v>
+      </c>
+      <c r="W1">
+        <v>2041</v>
+      </c>
+      <c r="X1">
+        <v>2042</v>
+      </c>
+      <c r="Y1">
+        <v>2043</v>
+      </c>
+      <c r="Z1">
+        <v>2044</v>
+      </c>
+      <c r="AA1">
+        <v>2045</v>
+      </c>
+      <c r="AB1">
+        <v>2046</v>
+      </c>
+      <c r="AC1">
+        <v>2047</v>
+      </c>
+      <c r="AD1">
+        <v>2048</v>
+      </c>
+      <c r="AE1">
+        <v>2049</v>
+      </c>
+      <c r="AF1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <f>B$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="C2" s="4">
+        <f>C$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <f>D$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="E2" s="4">
+        <f>E$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <f>F$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="G2" s="4">
+        <f>G$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <f>H$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="I2" s="4">
+        <f>I$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="J2" s="4">
+        <f>J$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="K2" s="4">
+        <f>K$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f>L$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <f>M$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5314798398092687E-3</v>
+      </c>
+      <c r="N2" s="4">
+        <f>N$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5551487355221342E-3</v>
+      </c>
+      <c r="O2" s="4">
+        <f>O$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5788176312350002E-3</v>
+      </c>
+      <c r="P2" s="4">
+        <f>P$5/(1-'Other Values'!$B$3)</f>
+        <v>2.6024865269478658E-3</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>Q$5/(1-'Other Values'!$B$3)</f>
+        <v>2.6261554226607313E-3</v>
+      </c>
+      <c r="R2" s="4">
+        <f>R$5/(1-'Other Values'!$B$3)</f>
+        <v>2.6498243183735969E-3</v>
+      </c>
+      <c r="S2" s="4">
+        <f>S$5/(1-'Other Values'!$B$3)</f>
+        <v>2.6734932140864624E-3</v>
+      </c>
+      <c r="T2" s="4">
+        <f>T$5/(1-'Other Values'!$B$3)</f>
+        <v>2.6971621097993284E-3</v>
+      </c>
+      <c r="U2" s="4">
+        <f>U$5/(1-'Other Values'!$B$3)</f>
+        <v>2.7208310055121939E-3</v>
+      </c>
+      <c r="V2" s="4">
+        <f>V$5/(1-'Other Values'!$B$3)</f>
+        <v>2.7444999012250595E-3</v>
+      </c>
+      <c r="W2" s="4">
+        <f>W$5/(1-'Other Values'!$B$3)</f>
+        <v>2.768168796937925E-3</v>
+      </c>
+      <c r="X2" s="4">
+        <f>X$5/(1-'Other Values'!$B$3)</f>
+        <v>2.7918376926507906E-3</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>Y$5/(1-'Other Values'!$B$3)</f>
+        <v>2.8155065883636566E-3</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>Z$5/(1-'Other Values'!$B$3)</f>
+        <v>2.8391754840765221E-3</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>AA$5/(1-'Other Values'!$B$3)</f>
+        <v>2.8628443797893877E-3</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>AB$5/(1-'Other Values'!$B$3)</f>
+        <v>2.8865132755022532E-3</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>AC$5/(1-'Other Values'!$B$3)</f>
+        <v>2.9101821712151188E-3</v>
+      </c>
+      <c r="AD2" s="4">
+        <f>AD$5/(1-'Other Values'!$B$3)</f>
+        <v>2.9575199626408486E-3</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>AE$5/(1-'Other Values'!$B$3)</f>
+        <v>3.0140739481425614E-3</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>AF$5/(1-'Other Values'!$B$3)</f>
+        <v>3.0046053551631979E-3</v>
+      </c>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="C3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="D3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="E3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="F3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="G3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="H3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="I3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="K3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="L3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="M3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="N3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="O3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="P3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="R3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="S3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="T3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="U3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="V3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="W3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="X3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="Z3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="AD3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" ref="B3:K4" si="0">B$5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" ref="L3:U4" si="1">L$5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="1"/>
+        <v>7.8777028701720712E-4</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="1"/>
+        <v>7.9513580203174081E-4</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.0250131704627449E-4</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.0986683206080818E-4</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.1723234707534187E-4</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.2459786208987555E-4</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.3196337710440924E-4</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.3932889211894293E-4</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.4669440713347661E-4</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" ref="V3:AF4" si="2">V$5</f>
+        <v>8.540599221480103E-4</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="shared" si="2"/>
+        <v>8.6142543716254398E-4</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" si="2"/>
+        <v>8.6879095217707767E-4</v>
+      </c>
+      <c r="Y4" s="4">
+        <f t="shared" si="2"/>
+        <v>8.7615646719161136E-4</v>
+      </c>
+      <c r="Z4" s="4">
+        <f t="shared" si="2"/>
+        <v>8.8352198220614504E-4</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="shared" si="2"/>
+        <v>8.9088749722067873E-4</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" si="2"/>
+        <v>8.9825301223521242E-4</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" si="2"/>
+        <v>9.056185272497461E-4</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" si="2"/>
+        <v>9.2034955727881304E-4</v>
+      </c>
+      <c r="AE4" s="4">
+        <f t="shared" si="2"/>
+        <v>9.3794857137722578E-4</v>
+      </c>
+      <c r="AF4" s="4">
+        <f t="shared" si="2"/>
+        <v>9.3500204338529676E-4</v>
+      </c>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <f>Extrapolations!L5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="C5" s="4">
+        <f>Extrapolations!M5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="D5" s="4">
+        <f>Extrapolations!N5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="E5" s="4">
+        <f>Extrapolations!O5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="F5" s="4">
+        <f>Extrapolations!P5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="G5" s="4">
+        <f>Extrapolations!Q5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="H5" s="4">
+        <f>Extrapolations!R5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="I5" s="4">
+        <f>Extrapolations!S5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="J5" s="4">
+        <f>Extrapolations!T5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="K5" s="4">
+        <f>Extrapolations!U5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="L5" s="4">
+        <f>Extrapolations!V5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="M5" s="4">
+        <f>Extrapolations!W5</f>
+        <v>7.8777028701720712E-4</v>
+      </c>
+      <c r="N5" s="4">
+        <f>Extrapolations!X5</f>
+        <v>7.9513580203174081E-4</v>
+      </c>
+      <c r="O5" s="4">
+        <f>Extrapolations!Y5</f>
+        <v>8.0250131704627449E-4</v>
+      </c>
+      <c r="P5" s="4">
+        <f>Extrapolations!Z5</f>
+        <v>8.0986683206080818E-4</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>Extrapolations!AA5</f>
+        <v>8.1723234707534187E-4</v>
+      </c>
+      <c r="R5" s="4">
+        <f>Extrapolations!AB5</f>
+        <v>8.2459786208987555E-4</v>
+      </c>
+      <c r="S5" s="4">
+        <f>Extrapolations!AC5</f>
+        <v>8.3196337710440924E-4</v>
+      </c>
+      <c r="T5" s="4">
+        <f>Extrapolations!AD5</f>
+        <v>8.3932889211894293E-4</v>
+      </c>
+      <c r="U5" s="4">
+        <f>Extrapolations!AE5</f>
+        <v>8.4669440713347661E-4</v>
+      </c>
+      <c r="V5" s="4">
+        <f>Extrapolations!AF5</f>
+        <v>8.540599221480103E-4</v>
+      </c>
+      <c r="W5" s="4">
+        <f>Extrapolations!AG5</f>
+        <v>8.6142543716254398E-4</v>
+      </c>
+      <c r="X5" s="4">
+        <f>Extrapolations!AH5</f>
+        <v>8.6879095217707767E-4</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>Extrapolations!AI5</f>
+        <v>8.7615646719161136E-4</v>
+      </c>
+      <c r="Z5" s="4">
+        <f>Extrapolations!AJ5</f>
+        <v>8.8352198220614504E-4</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>Extrapolations!AK5</f>
+        <v>8.9088749722067873E-4</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>Extrapolations!AL5</f>
+        <v>8.9825301223521242E-4</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>Extrapolations!AM5</f>
+        <v>9.056185272497461E-4</v>
+      </c>
+      <c r="AD5" s="4">
+        <f>Extrapolations!AN5</f>
+        <v>9.2034955727881304E-4</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>Extrapolations!AO5</f>
+        <v>9.3794857137722578E-4</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>Extrapolations!AP5</f>
+        <v>9.3500204338529676E-4</v>
+      </c>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <f>B$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+B$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="C6" s="4">
+        <f>C$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+C$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <f>D$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+D$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="E6" s="4">
+        <f>E$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+E$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <f>F$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+F$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="G6" s="4">
+        <f>G$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+G$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <f>H$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+H$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <f>I$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+I$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="J6" s="4">
+        <f>J$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+J$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="K6" s="4">
+        <f>K$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+K$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="L6" s="4">
+        <f>L$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+L$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="M6" s="4">
+        <f>M$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+M$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7468105410528411E-3</v>
+      </c>
+      <c r="N6" s="4">
+        <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7631429154514574E-3</v>
+      </c>
+      <c r="O6" s="4">
+        <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7794752898500738E-3</v>
+      </c>
+      <c r="P6" s="4">
+        <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7958076642486899E-3</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
+        <v>1.8121400386473061E-3</v>
+      </c>
+      <c r="R6" s="4">
+        <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
+        <v>1.8284724130459224E-3</v>
+      </c>
+      <c r="S6" s="4">
+        <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
+        <v>1.8448047874445384E-3</v>
+      </c>
+      <c r="T6" s="4">
+        <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
+        <v>1.8611371618431549E-3</v>
+      </c>
+      <c r="U6" s="4">
+        <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
+        <v>1.8774695362417711E-3</v>
+      </c>
+      <c r="V6" s="4">
+        <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
+        <v>1.8938019106403874E-3</v>
+      </c>
+      <c r="W6" s="4">
+        <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
+        <v>1.9101342850390036E-3</v>
+      </c>
+      <c r="X6" s="4">
+        <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
+        <v>1.9264666594376199E-3</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
+        <v>1.9427990338362364E-3</v>
+      </c>
+      <c r="Z6" s="4">
+        <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
+        <v>1.9591314082348524E-3</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
+        <v>1.9754637826334687E-3</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
+        <v>1.9917961570320849E-3</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
+        <v>2.0081285314307012E-3</v>
+      </c>
+      <c r="AD6" s="4">
+        <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
+        <v>2.0407932802279328E-3</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>AE$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AE$5*(1-'Other Values'!$B$6)</f>
+        <v>2.0798175285981603E-3</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>AF$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AF$5*(1-'Other Values'!$B$6)</f>
+        <v>2.0732838648631425E-3</v>
+      </c>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="4">
+        <f>B$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="C7" s="4">
+        <f>C$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <f>D$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="E7" s="4">
+        <f>E$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="F7" s="4">
+        <f>F$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="G7" s="4">
+        <f>G$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="H7" s="4">
+        <f>H$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="I7" s="4">
+        <f>I$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="J7" s="4">
+        <f>J$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="K7" s="4">
+        <f>K$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="L7" s="4">
+        <f>L$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="M7" s="4">
+        <f>M$4*Calculations!$B$31</f>
+        <v>6.1052197243833552E-4</v>
+      </c>
+      <c r="N7" s="4">
+        <f>N$4*Calculations!$B$31</f>
+        <v>6.1623024657459912E-4</v>
+      </c>
+      <c r="O7" s="4">
+        <f>O$4*Calculations!$B$31</f>
+        <v>6.2193852071086271E-4</v>
+      </c>
+      <c r="P7" s="4">
+        <f>P$4*Calculations!$B$31</f>
+        <v>6.2764679484712631E-4</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>Q$4*Calculations!$B$31</f>
+        <v>6.3335506898339001E-4</v>
+      </c>
+      <c r="R7" s="4">
+        <f>R$4*Calculations!$B$31</f>
+        <v>6.3906334311965361E-4</v>
+      </c>
+      <c r="S7" s="4">
+        <f>S$4*Calculations!$B$31</f>
+        <v>6.4477161725591721E-4</v>
+      </c>
+      <c r="T7" s="4">
+        <f>T$4*Calculations!$B$31</f>
+        <v>6.504798913921808E-4</v>
+      </c>
+      <c r="U7" s="4">
+        <f>U$4*Calculations!$B$31</f>
+        <v>6.561881655284444E-4</v>
+      </c>
+      <c r="V7" s="4">
+        <f>V$4*Calculations!$B$31</f>
+        <v>6.6189643966470799E-4</v>
+      </c>
+      <c r="W7" s="4">
+        <f>W$4*Calculations!$B$31</f>
+        <v>6.6760471380097159E-4</v>
+      </c>
+      <c r="X7" s="4">
+        <f>X$4*Calculations!$B$31</f>
+        <v>6.7331298793723519E-4</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>Y$4*Calculations!$B$31</f>
+        <v>6.7902126207349878E-4</v>
+      </c>
+      <c r="Z7" s="4">
+        <f>Z$4*Calculations!$B$31</f>
+        <v>6.8472953620976238E-4</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>AA$4*Calculations!$B$31</f>
+        <v>6.9043781034602608E-4</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>AB$4*Calculations!$B$31</f>
+        <v>6.9614608448228968E-4</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>AC$4*Calculations!$B$31</f>
+        <v>7.0185435861855328E-4</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>AD$4*Calculations!$B$31</f>
+        <v>7.1327090689108014E-4</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>AE$4*Calculations!$B$31</f>
+        <v>7.2691014281734995E-4</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>AF$4*Calculations!$B$31</f>
+        <v>7.2462658362360498E-4</v>
+      </c>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="4">
+        <f>B$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <f>D$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="E8" s="4">
+        <f>E$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <f>F$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <f>G$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <f>H$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="I8" s="4">
+        <f>I$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <f>J$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <f>K$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="L8" s="4">
+        <f>L$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <f>M$4*Calculations!$B$27</f>
+        <v>2.363310861051621E-3</v>
+      </c>
+      <c r="N8" s="4">
+        <f>N$4*Calculations!$B$27</f>
+        <v>2.3854074060952221E-3</v>
+      </c>
+      <c r="O8" s="4">
+        <f>O$4*Calculations!$B$27</f>
+        <v>2.4075039511388232E-3</v>
+      </c>
+      <c r="P8" s="4">
+        <f>P$4*Calculations!$B$27</f>
+        <v>2.4296004961824242E-3</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>Q$4*Calculations!$B$27</f>
+        <v>2.4516970412260253E-3</v>
+      </c>
+      <c r="R8" s="4">
+        <f>R$4*Calculations!$B$27</f>
+        <v>2.4737935862696263E-3</v>
+      </c>
+      <c r="S8" s="4">
+        <f>S$4*Calculations!$B$27</f>
+        <v>2.4958901313132274E-3</v>
+      </c>
+      <c r="T8" s="4">
+        <f>T$4*Calculations!$B$27</f>
+        <v>2.5179866763568285E-3</v>
+      </c>
+      <c r="U8" s="4">
+        <f>U$4*Calculations!$B$27</f>
+        <v>2.5400832214004295E-3</v>
+      </c>
+      <c r="V8" s="4">
+        <f>V$4*Calculations!$B$27</f>
+        <v>2.5621797664440306E-3</v>
+      </c>
+      <c r="W8" s="4">
+        <f>W$4*Calculations!$B$27</f>
+        <v>2.5842763114876316E-3</v>
+      </c>
+      <c r="X8" s="4">
+        <f>X$4*Calculations!$B$27</f>
+        <v>2.6063728565312327E-3</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>Y$4*Calculations!$B$27</f>
+        <v>2.6284694015748337E-3</v>
+      </c>
+      <c r="Z8" s="4">
+        <f>Z$4*Calculations!$B$27</f>
+        <v>2.6505659466184348E-3</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>AA$4*Calculations!$B$27</f>
+        <v>2.6726624916620359E-3</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>AB$4*Calculations!$B$27</f>
+        <v>2.6947590367056369E-3</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>AC$4*Calculations!$B$27</f>
+        <v>2.716855581749238E-3</v>
+      </c>
+      <c r="AD8" s="4">
+        <f>AD$4*Calculations!$B$27</f>
+        <v>2.7610486718364388E-3</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>AE$4*Calculations!$B$27</f>
+        <v>2.8138457141316771E-3</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>AF$4*Calculations!$B$27</f>
+        <v>2.8050061301558901E-3</v>
+      </c>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -8047,12 +9225,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -8940,7 +10118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -8951,12 +10129,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -9844,7 +11022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -9855,14 +11033,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -10784,7 +11962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -10795,12 +11973,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -11688,7 +12866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -11699,12 +12877,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -12592,7 +13770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -12603,12 +13781,12 @@
       <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -13496,7 +14674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -13507,12 +14685,12 @@
       <selection activeCell="B1" sqref="B1:AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -13746,127 +14924,127 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$4</f>
+        <f t="shared" ref="B3:AF3" si="0">B$4</f>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="C3" s="4">
-        <f>C$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="D3" s="4">
-        <f>D$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="E3" s="4">
-        <f>E$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="F3" s="4">
-        <f>F$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="G3" s="4">
-        <f>G$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="H3" s="4">
-        <f>H$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="I3" s="4">
-        <f>I$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="J3" s="4">
-        <f>J$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="K3" s="4">
-        <f>K$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="L3" s="4">
-        <f>L$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="M3" s="4">
-        <f>M$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="N3" s="4">
-        <f>N$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="O3" s="4">
-        <f>O$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="P3" s="4">
-        <f>P$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="R3" s="4">
-        <f>R$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="S3" s="4">
-        <f>S$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="T3" s="4">
-        <f>T$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="U3" s="4">
-        <f>U$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="V3" s="4">
-        <f>V$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="W3" s="4">
-        <f>W$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="X3" s="4">
-        <f>X$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AH3" s="4"/>
@@ -14008,127 +15186,127 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>B$4</f>
+        <f t="shared" ref="B5:AF5" si="1">B$4</f>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="C5" s="4">
-        <f>C$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="D5" s="4">
-        <f>D$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="E5" s="4">
-        <f>E$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="F5" s="4">
-        <f>F$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="G5" s="4">
-        <f>G$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="H5" s="4">
-        <f>H$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="I5" s="4">
-        <f>I$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="J5" s="4">
-        <f>J$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="K5" s="4">
-        <f>K$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="L5" s="4">
-        <f>L$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="M5" s="4">
-        <f>M$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="N5" s="4">
-        <f>N$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="O5" s="4">
-        <f>O$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="P5" s="4">
-        <f>P$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="Q5" s="4">
-        <f>Q$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="R5" s="4">
-        <f>R$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="S5" s="4">
-        <f>S$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="T5" s="4">
-        <f>T$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="U5" s="4">
-        <f>U$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="V5" s="4">
-        <f>V$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="W5" s="4">
-        <f>W$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="X5" s="4">
-        <f>X$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Y5" s="4">
-        <f>Y$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Z5" s="4">
-        <f>Z$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AA5" s="4">
-        <f>AA$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AB5" s="4">
-        <f>AB$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AC5" s="4">
-        <f>AC$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AD5" s="4">
-        <f>AD$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AE5" s="4">
-        <f>AE$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AF5" s="4">
-        <f>AF$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AH5" s="4"/>
@@ -14532,7 +15710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -14543,12 +15721,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30">
+    <row r="1" spans="1:33">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -15369,11 +16547,11 @@
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -16950,9 +18128,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -17059,11 +18237,11 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -17239,7 +18417,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="29">
       <c r="A20" s="22" t="s">
         <v>72</v>
       </c>
@@ -17257,7 +18435,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="29">
       <c r="A22" s="22" t="s">
         <v>74</v>
       </c>
@@ -17344,16 +18522,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I47" sqref="I47"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="39" max="39" width="9.140625" style="13"/>
+    <col min="15" max="15" width="11.453125" customWidth="1"/>
+    <col min="39" max="39" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -18003,7 +19181,7 @@
         <v>7.7778981721017396E-4</v>
       </c>
       <c r="M4" s="17">
-        <f t="shared" ref="L4:AI4" si="1">M5/N5*N4</f>
+        <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
         <v>7.7778981721017396E-4</v>
       </c>
       <c r="N4" s="17">
@@ -18258,7 +19436,7 @@
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="M5" s="17">
-        <f t="shared" ref="L5:T5" si="2">N5</f>
+        <f t="shared" ref="M5:T5" si="2">N5</f>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="N5" s="17">
@@ -18760,7 +19938,7 @@
         <v>9.5187813128868486E-5</v>
       </c>
       <c r="Q7" s="29">
-        <f t="shared" ref="Q7:AM7" si="5">TREND($AN7:$BR7,$AN$1:$BR$1,Q$1)-($AR7-$AN7)</f>
+        <f t="shared" ref="Q7:AL7" si="5">TREND($AN7:$BR7,$AN$1:$BR$1,Q$1)-($AR7-$AN7)</f>
         <v>9.5449046418027842E-5</v>
       </c>
       <c r="R7" s="29">
@@ -20792,6 +21970,401 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C613F4DF-15AD-4C41-A812-225B20693204}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="36.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="44">
+        <v>1.0094082465469424E-3</v>
+      </c>
+      <c r="C3" s="44">
+        <v>7.4836420697954824E-6</v>
+      </c>
+      <c r="D3" s="45">
+        <v>3.1700424271722166E-4</v>
+      </c>
+      <c r="E3" s="46">
+        <v>3.1700424271722166E-4</v>
+      </c>
+      <c r="F3" s="46">
+        <v>6.9782644482356809E-4</v>
+      </c>
+      <c r="G3" s="46">
+        <v>2.4567828810584678E-4</v>
+      </c>
+      <c r="H3" s="46">
+        <v>9.5101272815166483E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="44">
+        <v>2.8309727187687166E-3</v>
+      </c>
+      <c r="C4" s="44">
+        <v>2.6928817015314281E-6</v>
+      </c>
+      <c r="D4" s="46">
+        <v>8.8096936666512947E-4</v>
+      </c>
+      <c r="E4" s="45">
+        <v>8.8096936666512947E-4</v>
+      </c>
+      <c r="F4" s="46">
+        <v>1.9534712103221026E-3</v>
+      </c>
+      <c r="G4" s="46">
+        <v>6.8275125916547532E-4</v>
+      </c>
+      <c r="H4" s="46">
+        <v>2.6429080999953881E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1.4307537620687272E-3</v>
+      </c>
+      <c r="C5" s="44">
+        <v>4.452357407992435E-4</v>
+      </c>
+      <c r="D5" s="44">
+        <v>4.452357407992435E-4</v>
+      </c>
+      <c r="E5" s="45">
+        <v>4.452357407992435E-4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="46">
+        <v>1.3357072223977302E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1.2405209526886144E-3</v>
+      </c>
+      <c r="C6" s="44">
+        <v>4.2438874697242065E-4</v>
+      </c>
+      <c r="D6" s="44">
+        <v>4.2438874697242065E-4</v>
+      </c>
+      <c r="E6" s="46">
+        <v>4.2438874697242065E-4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="46">
+        <v>1.2731662409172617E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="44">
+        <v>3.2293530565471139E-5</v>
+      </c>
+      <c r="C7" s="44">
+        <v>1.0049411985156037E-5</v>
+      </c>
+      <c r="D7" s="44">
+        <v>1.0049411985156037E-5</v>
+      </c>
+      <c r="E7" s="45">
+        <v>1.0049411985156037E-5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="46">
+        <v>3.0148235955468109E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="44">
+        <v>3.8347187299137405E-3</v>
+      </c>
+      <c r="C8" s="44">
+        <v>1.204291832534894E-3</v>
+      </c>
+      <c r="D8" s="45">
+        <v>1.204291832534894E-3</v>
+      </c>
+      <c r="E8" s="46">
+        <v>1.204291832534894E-3</v>
+      </c>
+      <c r="F8" s="46">
+        <v>2.6510266260932596E-3</v>
+      </c>
+      <c r="G8" s="46">
+        <v>9.3332617021454293E-4</v>
+      </c>
+      <c r="H8" s="46">
+        <v>3.6128754976046816E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="46">
+        <v>2.7175224068570606E-4</v>
+      </c>
+      <c r="C11" s="46">
+        <v>2.7797562958068832E-5</v>
+      </c>
+      <c r="D11" s="48">
+        <v>8.5343678893031675E-5</v>
+      </c>
+      <c r="E11" s="49">
+        <v>8.5343678893031675E-5</v>
+      </c>
+      <c r="F11" s="46">
+        <v>1.8786838787900257E-4</v>
+      </c>
+      <c r="G11" s="46">
+        <v>6.6141351142099544E-5</v>
+      </c>
+      <c r="H11" s="46">
+        <v>2.5603103667909497E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="46">
+        <v>2.6158745070478042E-3</v>
+      </c>
+      <c r="C12" s="46">
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="D12" s="49">
+        <v>8.1403303269968186E-4</v>
+      </c>
+      <c r="E12" s="48">
+        <v>8.1403303269968186E-4</v>
+      </c>
+      <c r="F12" s="46">
+        <v>1.8050458435911491E-3</v>
+      </c>
+      <c r="G12" s="46">
+        <v>6.3087560034225348E-4</v>
+      </c>
+      <c r="H12" s="46">
+        <v>2.442099098099045E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="44">
+        <v>3.6837767936328798E-4</v>
+      </c>
+      <c r="C13" s="44">
+        <v>1.146353155333106E-4</v>
+      </c>
+      <c r="D13" s="46">
+        <v>1.146353155333106E-4</v>
+      </c>
+      <c r="E13" s="50">
+        <v>1.146353155333106E-4</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="46">
+        <v>3.4390594659993172E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="44">
+        <v>1.1140743815291445E-2</v>
+      </c>
+      <c r="C14" s="44">
+        <v>3.4668839999999999E-3</v>
+      </c>
+      <c r="D14" s="46">
+        <v>3.4668839999999999E-3</v>
+      </c>
+      <c r="E14" s="50">
+        <v>3.4668839999999999E-3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="46">
+        <v>1.0400651999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="44">
+        <v>1.5467626362604087E-2</v>
+      </c>
+      <c r="C15" s="44">
+        <v>4.813365E-3</v>
+      </c>
+      <c r="D15" s="46">
+        <v>4.813365E-3</v>
+      </c>
+      <c r="E15" s="50">
+        <v>4.813365E-3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="46">
+        <v>1.4440094999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>3.8347187299137405E-3</v>
+      </c>
+      <c r="C16">
+        <v>1.204291832534894E-3</v>
+      </c>
+      <c r="D16">
+        <v>1.204291832534894E-3</v>
+      </c>
+      <c r="E16">
+        <v>1.204291832534894E-3</v>
+      </c>
+      <c r="F16">
+        <v>2.6510266260932596E-3</v>
+      </c>
+      <c r="G16">
+        <v>9.3332617021454293E-4</v>
+      </c>
+      <c r="H16">
+        <v>3.6128754976046816E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -20799,15 +22372,15 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -21041,128 +22614,128 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$4</f>
-        <v>3.142498616321923E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="C3" s="4">
-        <f>C$4</f>
-        <v>3.207320075161445E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="D3" s="4">
-        <f>D$4</f>
-        <v>3.272141534000967E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="E3" s="4">
-        <f>E$4</f>
-        <v>3.336962992840489E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="F3" s="4">
-        <f>F$4</f>
-        <v>3.401784451680011E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="G3" s="4">
-        <f>G$4</f>
-        <v>3.466605910519533E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="H3" s="4">
-        <f>H$4</f>
-        <v>3.531427369359055E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="I3" s="4">
-        <f>I$4</f>
-        <v>3.596248828198577E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="J3" s="4">
-        <f>J$4</f>
-        <v>3.661070287038099E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="K3" s="4">
-        <f>K$4</f>
-        <v>3.725891745877621E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="L3" s="4">
-        <f>L$4</f>
-        <v>3.790713204717143E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="M3" s="4">
-        <f>M$4</f>
-        <v>3.855534663556665E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="N3" s="4">
-        <f>N$4</f>
-        <v>3.920356122396187E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="O3" s="4">
-        <f>O$4</f>
-        <v>3.9851775812357079E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="P3" s="4">
-        <f>P$4</f>
-        <v>4.1245238248791824E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$4</f>
-        <v>4.1996419698319429E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="R3" s="4">
-        <f>R$4</f>
-        <v>4.2487319850780349E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="S3" s="4">
-        <f>S$4</f>
-        <v>4.284100729130481E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="T3" s="4">
-        <f>T$4</f>
-        <v>4.3229475648161309E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="U3" s="4">
-        <f>U$4</f>
-        <v>4.3562407119964938E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="V3" s="4">
-        <f>V$4</f>
-        <v>4.3560812002075292E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="W3" s="4">
-        <f>W$4</f>
-        <v>4.3525902639902458E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="X3" s="4">
-        <f>X$4</f>
-        <v>4.3494323063744613E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$4</f>
-        <v>4.3556364713577859E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$4</f>
-        <v>4.3522567663302421E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$4</f>
-        <v>4.3485093567965249E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$4</f>
-        <v>4.3444409287052158E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$4</f>
-        <v>4.3426236094515938E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$4</f>
-        <v>4.3334550299972978E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$4</f>
-        <v>4.3240292886877814E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$4</f>
-        <v>4.3170566760387615E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -21303,127 +22876,127 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>B$4</f>
+        <f t="shared" ref="B5:AF5" si="0">B$4</f>
         <v>3.142498616321923E-4</v>
       </c>
       <c r="C5" s="4">
-        <f>C$4</f>
+        <f t="shared" si="0"/>
         <v>3.207320075161445E-4</v>
       </c>
       <c r="D5" s="4">
-        <f>D$4</f>
+        <f t="shared" si="0"/>
         <v>3.272141534000967E-4</v>
       </c>
       <c r="E5" s="4">
-        <f>E$4</f>
+        <f t="shared" si="0"/>
         <v>3.336962992840489E-4</v>
       </c>
       <c r="F5" s="4">
-        <f>F$4</f>
+        <f t="shared" si="0"/>
         <v>3.401784451680011E-4</v>
       </c>
       <c r="G5" s="4">
-        <f>G$4</f>
+        <f t="shared" si="0"/>
         <v>3.466605910519533E-4</v>
       </c>
       <c r="H5" s="4">
-        <f>H$4</f>
+        <f t="shared" si="0"/>
         <v>3.531427369359055E-4</v>
       </c>
       <c r="I5" s="4">
-        <f>I$4</f>
+        <f t="shared" si="0"/>
         <v>3.596248828198577E-4</v>
       </c>
       <c r="J5" s="4">
-        <f>J$4</f>
+        <f t="shared" si="0"/>
         <v>3.661070287038099E-4</v>
       </c>
       <c r="K5" s="4">
-        <f>K$4</f>
+        <f t="shared" si="0"/>
         <v>3.725891745877621E-4</v>
       </c>
       <c r="L5" s="4">
-        <f>L$4</f>
+        <f t="shared" si="0"/>
         <v>3.790713204717143E-4</v>
       </c>
       <c r="M5" s="4">
-        <f>M$4</f>
+        <f t="shared" si="0"/>
         <v>3.855534663556665E-4</v>
       </c>
       <c r="N5" s="4">
-        <f>N$4</f>
+        <f t="shared" si="0"/>
         <v>3.920356122396187E-4</v>
       </c>
       <c r="O5" s="4">
-        <f>O$4</f>
+        <f t="shared" si="0"/>
         <v>3.9851775812357079E-4</v>
       </c>
       <c r="P5" s="4">
-        <f>P$4</f>
+        <f t="shared" si="0"/>
         <v>4.1245238248791824E-4</v>
       </c>
       <c r="Q5" s="4">
-        <f>Q$4</f>
+        <f t="shared" si="0"/>
         <v>4.1996419698319429E-4</v>
       </c>
       <c r="R5" s="4">
-        <f>R$4</f>
+        <f t="shared" si="0"/>
         <v>4.2487319850780349E-4</v>
       </c>
       <c r="S5" s="4">
-        <f>S$4</f>
+        <f t="shared" si="0"/>
         <v>4.284100729130481E-4</v>
       </c>
       <c r="T5" s="4">
-        <f>T$4</f>
+        <f t="shared" si="0"/>
         <v>4.3229475648161309E-4</v>
       </c>
       <c r="U5" s="4">
-        <f>U$4</f>
+        <f t="shared" si="0"/>
         <v>4.3562407119964938E-4</v>
       </c>
       <c r="V5" s="4">
-        <f>V$4</f>
+        <f t="shared" si="0"/>
         <v>4.3560812002075292E-4</v>
       </c>
       <c r="W5" s="4">
-        <f>W$4</f>
+        <f t="shared" si="0"/>
         <v>4.3525902639902458E-4</v>
       </c>
       <c r="X5" s="4">
-        <f>X$4</f>
+        <f t="shared" si="0"/>
         <v>4.3494323063744613E-4</v>
       </c>
       <c r="Y5" s="4">
-        <f>Y$4</f>
+        <f t="shared" si="0"/>
         <v>4.3556364713577859E-4</v>
       </c>
       <c r="Z5" s="4">
-        <f>Z$4</f>
+        <f t="shared" si="0"/>
         <v>4.3522567663302421E-4</v>
       </c>
       <c r="AA5" s="4">
-        <f>AA$4</f>
+        <f t="shared" si="0"/>
         <v>4.3485093567965249E-4</v>
       </c>
       <c r="AB5" s="4">
-        <f>AB$4</f>
+        <f t="shared" si="0"/>
         <v>4.3444409287052158E-4</v>
       </c>
       <c r="AC5" s="4">
-        <f>AC$4</f>
+        <f t="shared" si="0"/>
         <v>4.3426236094515938E-4</v>
       </c>
       <c r="AD5" s="4">
-        <f>AD$4</f>
+        <f t="shared" si="0"/>
         <v>4.3334550299972978E-4</v>
       </c>
       <c r="AE5" s="4">
-        <f>AE$4</f>
+        <f t="shared" si="0"/>
         <v>4.3240292886877814E-4</v>
       </c>
       <c r="AF5" s="4">
-        <f>AF$4</f>
+        <f t="shared" si="0"/>
         <v>4.3170566760387615E-4</v>
       </c>
       <c r="AH5" s="4"/>
@@ -21818,1042 +23391,6 @@
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
         <v>1.2951170028116282E-3</v>
-      </c>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AI8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="30">
-      <c r="A1" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1">
-        <v>2021</v>
-      </c>
-      <c r="D1">
-        <v>2022</v>
-      </c>
-      <c r="E1">
-        <v>2023</v>
-      </c>
-      <c r="F1">
-        <v>2024</v>
-      </c>
-      <c r="G1">
-        <v>2025</v>
-      </c>
-      <c r="H1">
-        <v>2026</v>
-      </c>
-      <c r="I1">
-        <v>2027</v>
-      </c>
-      <c r="J1">
-        <v>2028</v>
-      </c>
-      <c r="K1">
-        <v>2029</v>
-      </c>
-      <c r="L1">
-        <v>2030</v>
-      </c>
-      <c r="M1">
-        <v>2031</v>
-      </c>
-      <c r="N1">
-        <v>2032</v>
-      </c>
-      <c r="O1">
-        <v>2033</v>
-      </c>
-      <c r="P1">
-        <v>2034</v>
-      </c>
-      <c r="Q1">
-        <v>2035</v>
-      </c>
-      <c r="R1">
-        <v>2036</v>
-      </c>
-      <c r="S1">
-        <v>2037</v>
-      </c>
-      <c r="T1">
-        <v>2038</v>
-      </c>
-      <c r="U1">
-        <v>2039</v>
-      </c>
-      <c r="V1">
-        <v>2040</v>
-      </c>
-      <c r="W1">
-        <v>2041</v>
-      </c>
-      <c r="X1">
-        <v>2042</v>
-      </c>
-      <c r="Y1">
-        <v>2043</v>
-      </c>
-      <c r="Z1">
-        <v>2044</v>
-      </c>
-      <c r="AA1">
-        <v>2045</v>
-      </c>
-      <c r="AB1">
-        <v>2046</v>
-      </c>
-      <c r="AC1">
-        <v>2047</v>
-      </c>
-      <c r="AD1">
-        <v>2048</v>
-      </c>
-      <c r="AE1">
-        <v>2049</v>
-      </c>
-      <c r="AF1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0641464207301289E-4</v>
-      </c>
-      <c r="C2" s="4">
-        <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0546569566470671E-4</v>
-      </c>
-      <c r="D2" s="4">
-        <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0451674925640053E-4</v>
-      </c>
-      <c r="E2" s="4">
-        <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0356780284809402E-4</v>
-      </c>
-      <c r="F2" s="4">
-        <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0261885643978784E-4</v>
-      </c>
-      <c r="G2" s="4">
-        <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0166991003148166E-4</v>
-      </c>
-      <c r="H2" s="4">
-        <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0072096362317516E-4</v>
-      </c>
-      <c r="I2" s="4">
-        <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9977201721486898E-4</v>
-      </c>
-      <c r="J2" s="4">
-        <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>2.988230708065628E-4</v>
-      </c>
-      <c r="K2" s="4">
-        <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9787412439825629E-4</v>
-      </c>
-      <c r="L2" s="4">
-        <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9692517798995011E-4</v>
-      </c>
-      <c r="M2" s="4">
-        <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9597623158164393E-4</v>
-      </c>
-      <c r="N2" s="4">
-        <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9502728517333742E-4</v>
-      </c>
-      <c r="O2" s="4">
-        <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9415776836067041E-4</v>
-      </c>
-      <c r="P2" s="4">
-        <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9356223403709025E-4</v>
-      </c>
-      <c r="Q2" s="4">
-        <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>2.915434601023345E-4</v>
-      </c>
-      <c r="R2" s="4">
-        <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9088922780862847E-4</v>
-      </c>
-      <c r="S2" s="4">
-        <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9074953943336986E-4</v>
-      </c>
-      <c r="T2" s="4">
-        <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9207898176298886E-4</v>
-      </c>
-      <c r="U2" s="4">
-        <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9326589160309292E-4</v>
-      </c>
-      <c r="V2" s="4">
-        <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9391898737960467E-4</v>
-      </c>
-      <c r="W2" s="4">
-        <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>2.917393283156924E-4</v>
-      </c>
-      <c r="X2" s="4">
-        <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>2.908039604621373E-4</v>
-      </c>
-      <c r="Y2" s="4">
-        <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8959139423322296E-4</v>
-      </c>
-      <c r="Z2" s="4">
-        <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>2.878557567890623E-4</v>
-      </c>
-      <c r="AA2" s="4">
-        <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8587480012481605E-4</v>
-      </c>
-      <c r="AB2" s="4">
-        <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>2.838933818105785E-4</v>
-      </c>
-      <c r="AC2" s="4">
-        <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8222187225352704E-4</v>
-      </c>
-      <c r="AD2" s="4">
-        <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8002929617693015E-4</v>
-      </c>
-      <c r="AE2" s="4">
-        <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>2.7885180775932833E-4</v>
-      </c>
-      <c r="AF2" s="4">
-        <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>2.7724674648854853E-4</v>
-      </c>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-    </row>
-    <row r="3" spans="1:35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <f>B$4</f>
-        <v>9.6229391725409031E-5</v>
-      </c>
-      <c r="C3" s="4">
-        <f>C$4</f>
-        <v>9.5931375498007091E-5</v>
-      </c>
-      <c r="D3" s="4">
-        <f>D$4</f>
-        <v>9.5633359270605152E-5</v>
-      </c>
-      <c r="E3" s="4">
-        <f>E$4</f>
-        <v>9.5335343043203105E-5</v>
-      </c>
-      <c r="F3" s="4">
-        <f>F$4</f>
-        <v>9.5037326815801165E-5</v>
-      </c>
-      <c r="G3" s="4">
-        <f>G$4</f>
-        <v>9.4739310588399226E-5</v>
-      </c>
-      <c r="H3" s="4">
-        <f>H$4</f>
-        <v>9.4441294360997179E-5</v>
-      </c>
-      <c r="I3" s="4">
-        <f>I$4</f>
-        <v>9.4143278133595239E-5</v>
-      </c>
-      <c r="J3" s="4">
-        <f>J$4</f>
-        <v>9.38452619061933E-5</v>
-      </c>
-      <c r="K3" s="4">
-        <f>K$4</f>
-        <v>9.3547245678791253E-5</v>
-      </c>
-      <c r="L3" s="4">
-        <f>L$4</f>
-        <v>9.3249229451389313E-5</v>
-      </c>
-      <c r="M3" s="4">
-        <f>M$4</f>
-        <v>9.2951213223987374E-5</v>
-      </c>
-      <c r="N3" s="4">
-        <f>N$4</f>
-        <v>9.2653196996585327E-5</v>
-      </c>
-      <c r="O3" s="4">
-        <f>O$4</f>
-        <v>9.2380125600871724E-5</v>
-      </c>
-      <c r="P3" s="4">
-        <f>P$4</f>
-        <v>9.219309829263994E-5</v>
-      </c>
-      <c r="Q3" s="4">
-        <f>Q$4</f>
-        <v>9.1559103172633992E-5</v>
-      </c>
-      <c r="R3" s="4">
-        <f>R$4</f>
-        <v>9.1353641791139538E-5</v>
-      </c>
-      <c r="S3" s="4">
-        <f>S$4</f>
-        <v>9.1309772714612039E-5</v>
-      </c>
-      <c r="T3" s="4">
-        <f>T$4</f>
-        <v>9.1727283528872551E-5</v>
-      </c>
-      <c r="U3" s="4">
-        <f>U$4</f>
-        <v>9.2100032073698612E-5</v>
-      </c>
-      <c r="V3" s="4">
-        <f>V$4</f>
-        <v>9.2305136532437853E-5</v>
-      </c>
-      <c r="W3" s="4">
-        <f>W$4</f>
-        <v>9.1620615504101768E-5</v>
-      </c>
-      <c r="X3" s="4">
-        <f>X$4</f>
-        <v>9.1326863616208426E-5</v>
-      </c>
-      <c r="Y3" s="4">
-        <f>Y$4</f>
-        <v>9.0946057693078308E-5</v>
-      </c>
-      <c r="Z3" s="4">
-        <f>Z$4</f>
-        <v>9.0400981470945208E-5</v>
-      </c>
-      <c r="AA3" s="4">
-        <f>AA$4</f>
-        <v>8.9778862849115799E-5</v>
-      </c>
-      <c r="AB3" s="4">
-        <f>AB$4</f>
-        <v>8.9156599246297398E-5</v>
-      </c>
-      <c r="AC3" s="4">
-        <f>AC$4</f>
-        <v>8.8631662360611819E-5</v>
-      </c>
-      <c r="AD3" s="4">
-        <f>AD$4</f>
-        <v>8.7943084749779726E-5</v>
-      </c>
-      <c r="AE3" s="4">
-        <f>AE$4</f>
-        <v>8.7573294998797346E-5</v>
-      </c>
-      <c r="AF3" s="4">
-        <f>AF$4</f>
-        <v>8.7069226169957413E-5</v>
-      </c>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-    </row>
-    <row r="4" spans="1:35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <f>Extrapolations!AA3</f>
-        <v>9.6229391725409031E-5</v>
-      </c>
-      <c r="C4" s="4">
-        <f>Extrapolations!AB3</f>
-        <v>9.5931375498007091E-5</v>
-      </c>
-      <c r="D4" s="4">
-        <f>Extrapolations!AC3</f>
-        <v>9.5633359270605152E-5</v>
-      </c>
-      <c r="E4" s="4">
-        <f>Extrapolations!AD3</f>
-        <v>9.5335343043203105E-5</v>
-      </c>
-      <c r="F4" s="4">
-        <f>Extrapolations!AE3</f>
-        <v>9.5037326815801165E-5</v>
-      </c>
-      <c r="G4" s="4">
-        <f>Extrapolations!AF3</f>
-        <v>9.4739310588399226E-5</v>
-      </c>
-      <c r="H4" s="4">
-        <f>Extrapolations!AG3</f>
-        <v>9.4441294360997179E-5</v>
-      </c>
-      <c r="I4" s="4">
-        <f>Extrapolations!AH3</f>
-        <v>9.4143278133595239E-5</v>
-      </c>
-      <c r="J4" s="4">
-        <f>Extrapolations!AI3</f>
-        <v>9.38452619061933E-5</v>
-      </c>
-      <c r="K4" s="4">
-        <f>Extrapolations!AJ3</f>
-        <v>9.3547245678791253E-5</v>
-      </c>
-      <c r="L4" s="4">
-        <f>Extrapolations!AK3</f>
-        <v>9.3249229451389313E-5</v>
-      </c>
-      <c r="M4" s="4">
-        <f>Extrapolations!AL3</f>
-        <v>9.2951213223987374E-5</v>
-      </c>
-      <c r="N4" s="4">
-        <f>Extrapolations!AM3</f>
-        <v>9.2653196996585327E-5</v>
-      </c>
-      <c r="O4" s="4">
-        <f>Extrapolations!AN3</f>
-        <v>9.2380125600871724E-5</v>
-      </c>
-      <c r="P4" s="4">
-        <f>Extrapolations!AO3</f>
-        <v>9.219309829263994E-5</v>
-      </c>
-      <c r="Q4" s="4">
-        <f>Extrapolations!AP3</f>
-        <v>9.1559103172633992E-5</v>
-      </c>
-      <c r="R4" s="4">
-        <f>Extrapolations!AQ3</f>
-        <v>9.1353641791139538E-5</v>
-      </c>
-      <c r="S4" s="4">
-        <f>Extrapolations!AR3</f>
-        <v>9.1309772714612039E-5</v>
-      </c>
-      <c r="T4" s="4">
-        <f>Extrapolations!AS3</f>
-        <v>9.1727283528872551E-5</v>
-      </c>
-      <c r="U4" s="4">
-        <f>Extrapolations!AT3</f>
-        <v>9.2100032073698612E-5</v>
-      </c>
-      <c r="V4" s="4">
-        <f>Extrapolations!AU3</f>
-        <v>9.2305136532437853E-5</v>
-      </c>
-      <c r="W4" s="4">
-        <f>Extrapolations!AV3</f>
-        <v>9.1620615504101768E-5</v>
-      </c>
-      <c r="X4" s="4">
-        <f>Extrapolations!AW3</f>
-        <v>9.1326863616208426E-5</v>
-      </c>
-      <c r="Y4" s="4">
-        <f>Extrapolations!AX3</f>
-        <v>9.0946057693078308E-5</v>
-      </c>
-      <c r="Z4" s="4">
-        <f>Extrapolations!AY3</f>
-        <v>9.0400981470945208E-5</v>
-      </c>
-      <c r="AA4" s="4">
-        <f>Extrapolations!AZ3</f>
-        <v>8.9778862849115799E-5</v>
-      </c>
-      <c r="AB4" s="4">
-        <f>Extrapolations!BA3</f>
-        <v>8.9156599246297398E-5</v>
-      </c>
-      <c r="AC4" s="4">
-        <f>Extrapolations!BB3</f>
-        <v>8.8631662360611819E-5</v>
-      </c>
-      <c r="AD4" s="4">
-        <f>Extrapolations!BC3</f>
-        <v>8.7943084749779726E-5</v>
-      </c>
-      <c r="AE4" s="4">
-        <f>Extrapolations!BD3</f>
-        <v>8.7573294998797346E-5</v>
-      </c>
-      <c r="AF4" s="4">
-        <f>Extrapolations!BE3</f>
-        <v>8.7069226169957413E-5</v>
-      </c>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-    </row>
-    <row r="5" spans="1:35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <f>B$4</f>
-        <v>9.6229391725409031E-5</v>
-      </c>
-      <c r="C5" s="4">
-        <f>C$4</f>
-        <v>9.5931375498007091E-5</v>
-      </c>
-      <c r="D5" s="4">
-        <f>D$4</f>
-        <v>9.5633359270605152E-5</v>
-      </c>
-      <c r="E5" s="4">
-        <f>E$4</f>
-        <v>9.5335343043203105E-5</v>
-      </c>
-      <c r="F5" s="4">
-        <f>F$4</f>
-        <v>9.5037326815801165E-5</v>
-      </c>
-      <c r="G5" s="4">
-        <f>G$4</f>
-        <v>9.4739310588399226E-5</v>
-      </c>
-      <c r="H5" s="4">
-        <f>H$4</f>
-        <v>9.4441294360997179E-5</v>
-      </c>
-      <c r="I5" s="4">
-        <f>I$4</f>
-        <v>9.4143278133595239E-5</v>
-      </c>
-      <c r="J5" s="4">
-        <f>J$4</f>
-        <v>9.38452619061933E-5</v>
-      </c>
-      <c r="K5" s="4">
-        <f>K$4</f>
-        <v>9.3547245678791253E-5</v>
-      </c>
-      <c r="L5" s="4">
-        <f>L$4</f>
-        <v>9.3249229451389313E-5</v>
-      </c>
-      <c r="M5" s="4">
-        <f>M$4</f>
-        <v>9.2951213223987374E-5</v>
-      </c>
-      <c r="N5" s="4">
-        <f>N$4</f>
-        <v>9.2653196996585327E-5</v>
-      </c>
-      <c r="O5" s="4">
-        <f>O$4</f>
-        <v>9.2380125600871724E-5</v>
-      </c>
-      <c r="P5" s="4">
-        <f>P$4</f>
-        <v>9.219309829263994E-5</v>
-      </c>
-      <c r="Q5" s="4">
-        <f>Q$4</f>
-        <v>9.1559103172633992E-5</v>
-      </c>
-      <c r="R5" s="4">
-        <f>R$4</f>
-        <v>9.1353641791139538E-5</v>
-      </c>
-      <c r="S5" s="4">
-        <f>S$4</f>
-        <v>9.1309772714612039E-5</v>
-      </c>
-      <c r="T5" s="4">
-        <f>T$4</f>
-        <v>9.1727283528872551E-5</v>
-      </c>
-      <c r="U5" s="4">
-        <f>U$4</f>
-        <v>9.2100032073698612E-5</v>
-      </c>
-      <c r="V5" s="4">
-        <f>V$4</f>
-        <v>9.2305136532437853E-5</v>
-      </c>
-      <c r="W5" s="4">
-        <f>W$4</f>
-        <v>9.1620615504101768E-5</v>
-      </c>
-      <c r="X5" s="4">
-        <f>X$4</f>
-        <v>9.1326863616208426E-5</v>
-      </c>
-      <c r="Y5" s="4">
-        <f>Y$4</f>
-        <v>9.0946057693078308E-5</v>
-      </c>
-      <c r="Z5" s="4">
-        <f>Z$4</f>
-        <v>9.0400981470945208E-5</v>
-      </c>
-      <c r="AA5" s="4">
-        <f>AA$4</f>
-        <v>8.9778862849115799E-5</v>
-      </c>
-      <c r="AB5" s="4">
-        <f>AB$4</f>
-        <v>8.9156599246297398E-5</v>
-      </c>
-      <c r="AC5" s="4">
-        <f>AC$4</f>
-        <v>8.8631662360611819E-5</v>
-      </c>
-      <c r="AD5" s="4">
-        <f>AD$4</f>
-        <v>8.7943084749779726E-5</v>
-      </c>
-      <c r="AE5" s="4">
-        <f>AE$4</f>
-        <v>8.7573294998797346E-5</v>
-      </c>
-      <c r="AF5" s="4">
-        <f>AF$4</f>
-        <v>8.7069226169957413E-5</v>
-      </c>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1183127941659115E-4</v>
-      </c>
-      <c r="C6" s="4">
-        <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1117525158969189E-4</v>
-      </c>
-      <c r="D6" s="4">
-        <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1051922376279263E-4</v>
-      </c>
-      <c r="E6" s="4">
-        <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0986319593589313E-4</v>
-      </c>
-      <c r="F6" s="4">
-        <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0920716810899384E-4</v>
-      </c>
-      <c r="G6" s="4">
-        <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0855114028209458E-4</v>
-      </c>
-      <c r="H6" s="4">
-        <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>2.078951124551951E-4</v>
-      </c>
-      <c r="I6" s="4">
-        <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0723908462829581E-4</v>
-      </c>
-      <c r="J6" s="4">
-        <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0658305680139655E-4</v>
-      </c>
-      <c r="K6" s="4">
-        <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0592702897449702E-4</v>
-      </c>
-      <c r="L6" s="4">
-        <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0527100114759776E-4</v>
-      </c>
-      <c r="M6" s="4">
-        <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>2.046149733206985E-4</v>
-      </c>
-      <c r="N6" s="4">
-        <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0395894549379899E-4</v>
-      </c>
-      <c r="O6" s="4">
-        <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0335782911876102E-4</v>
-      </c>
-      <c r="P6" s="4">
-        <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0294612295208763E-4</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0155049948396926E-4</v>
-      </c>
-      <c r="R6" s="4">
-        <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0109821410075848E-4</v>
-      </c>
-      <c r="S6" s="4">
-        <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0100164440992884E-4</v>
-      </c>
-      <c r="T6" s="4">
-        <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0192071755763654E-4</v>
-      </c>
-      <c r="U6" s="4">
-        <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0274125481486549E-4</v>
-      </c>
-      <c r="V6" s="4">
-        <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0319275449837962E-4</v>
-      </c>
-      <c r="W6" s="4">
-        <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0168590755047661E-4</v>
-      </c>
-      <c r="X6" s="4">
-        <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0103926688146931E-4</v>
-      </c>
-      <c r="Y6" s="4">
-        <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0020099279015788E-4</v>
-      </c>
-      <c r="Z6" s="4">
-        <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9900110789590963E-4</v>
-      </c>
-      <c r="AA6" s="4">
-        <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9763162835075097E-4</v>
-      </c>
-      <c r="AB6" s="4">
-        <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9626182965665201E-4</v>
-      </c>
-      <c r="AC6" s="4">
-        <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9510627780171521E-4</v>
-      </c>
-      <c r="AD6" s="4">
-        <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9359050103471247E-4</v>
-      </c>
-      <c r="AE6" s="4">
-        <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>1.927764770170894E-4</v>
-      </c>
-      <c r="AF6" s="4">
-        <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9166686234518252E-4</v>
-      </c>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="4">
-        <f>B$4*Calculations!$B$31</f>
-        <v>7.4577778587192007E-5</v>
-      </c>
-      <c r="C7" s="4">
-        <f>C$4*Calculations!$B$31</f>
-        <v>7.4346816010955499E-5</v>
-      </c>
-      <c r="D7" s="4">
-        <f>D$4*Calculations!$B$31</f>
-        <v>7.411585343471899E-5</v>
-      </c>
-      <c r="E7" s="4">
-        <f>E$4*Calculations!$B$31</f>
-        <v>7.3884890858482414E-5</v>
-      </c>
-      <c r="F7" s="4">
-        <f>F$4*Calculations!$B$31</f>
-        <v>7.3653928282245906E-5</v>
-      </c>
-      <c r="G7" s="4">
-        <f>G$4*Calculations!$B$31</f>
-        <v>7.3422965706009398E-5</v>
-      </c>
-      <c r="H7" s="4">
-        <f>H$4*Calculations!$B$31</f>
-        <v>7.3192003129772822E-5</v>
-      </c>
-      <c r="I7" s="4">
-        <f>I$4*Calculations!$B$31</f>
-        <v>7.2961040553536313E-5</v>
-      </c>
-      <c r="J7" s="4">
-        <f>J$4*Calculations!$B$31</f>
-        <v>7.2730077977299805E-5</v>
-      </c>
-      <c r="K7" s="4">
-        <f>K$4*Calculations!$B$31</f>
-        <v>7.2499115401063229E-5</v>
-      </c>
-      <c r="L7" s="4">
-        <f>L$4*Calculations!$B$31</f>
-        <v>7.2268152824826721E-5</v>
-      </c>
-      <c r="M7" s="4">
-        <f>M$4*Calculations!$B$31</f>
-        <v>7.2037190248590212E-5</v>
-      </c>
-      <c r="N7" s="4">
-        <f>N$4*Calculations!$B$31</f>
-        <v>7.1806227672353636E-5</v>
-      </c>
-      <c r="O7" s="4">
-        <f>O$4*Calculations!$B$31</f>
-        <v>7.1594597340675587E-5</v>
-      </c>
-      <c r="P7" s="4">
-        <f>P$4*Calculations!$B$31</f>
-        <v>7.1449651176795956E-5</v>
-      </c>
-      <c r="Q7" s="4">
-        <f>Q$4*Calculations!$B$31</f>
-        <v>7.0958304958791341E-5</v>
-      </c>
-      <c r="R7" s="4">
-        <f>R$4*Calculations!$B$31</f>
-        <v>7.0799072388133137E-5</v>
-      </c>
-      <c r="S7" s="4">
-        <f>S$4*Calculations!$B$31</f>
-        <v>7.0765073853824333E-5</v>
-      </c>
-      <c r="T7" s="4">
-        <f>T$4*Calculations!$B$31</f>
-        <v>7.1088644734876226E-5</v>
-      </c>
-      <c r="U7" s="4">
-        <f>U$4*Calculations!$B$31</f>
-        <v>7.1377524857116432E-5</v>
-      </c>
-      <c r="V7" s="4">
-        <f>V$4*Calculations!$B$31</f>
-        <v>7.1536480812639338E-5</v>
-      </c>
-      <c r="W7" s="4">
-        <f>W$4*Calculations!$B$31</f>
-        <v>7.1005977015678866E-5</v>
-      </c>
-      <c r="X7" s="4">
-        <f>X$4*Calculations!$B$31</f>
-        <v>7.0778319302561529E-5</v>
-      </c>
-      <c r="Y7" s="4">
-        <f>Y$4*Calculations!$B$31</f>
-        <v>7.0483194712135693E-5</v>
-      </c>
-      <c r="Z7" s="4">
-        <f>Z$4*Calculations!$B$31</f>
-        <v>7.0060760639982536E-5</v>
-      </c>
-      <c r="AA7" s="4">
-        <f>AA$4*Calculations!$B$31</f>
-        <v>6.9578618708064752E-5</v>
-      </c>
-      <c r="AB7" s="4">
-        <f>AB$4*Calculations!$B$31</f>
-        <v>6.9096364415880491E-5</v>
-      </c>
-      <c r="AC7" s="4">
-        <f>AC$4*Calculations!$B$31</f>
-        <v>6.8689538329474157E-5</v>
-      </c>
-      <c r="AD7" s="4">
-        <f>AD$4*Calculations!$B$31</f>
-        <v>6.8155890681079293E-5</v>
-      </c>
-      <c r="AE7" s="4">
-        <f>AE$4*Calculations!$B$31</f>
-        <v>6.7869303624067942E-5</v>
-      </c>
-      <c r="AF7" s="4">
-        <f>AF$4*Calculations!$B$31</f>
-        <v>6.747865028171699E-5</v>
-      </c>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="4">
-        <f>B$4*Calculations!$B$27</f>
-        <v>2.8868817517622704E-4</v>
-      </c>
-      <c r="C8" s="4">
-        <f>C$4*Calculations!$B$27</f>
-        <v>2.8779412649402122E-4</v>
-      </c>
-      <c r="D8" s="4">
-        <f>D$4*Calculations!$B$27</f>
-        <v>2.869000778118154E-4</v>
-      </c>
-      <c r="E8" s="4">
-        <f>E$4*Calculations!$B$27</f>
-        <v>2.8600602912960926E-4</v>
-      </c>
-      <c r="F8" s="4">
-        <f>F$4*Calculations!$B$27</f>
-        <v>2.8511198044740344E-4</v>
-      </c>
-      <c r="G8" s="4">
-        <f>G$4*Calculations!$B$27</f>
-        <v>2.8421793176519762E-4</v>
-      </c>
-      <c r="H8" s="4">
-        <f>H$4*Calculations!$B$27</f>
-        <v>2.8332388308299148E-4</v>
-      </c>
-      <c r="I8" s="4">
-        <f>I$4*Calculations!$B$27</f>
-        <v>2.8242983440078566E-4</v>
-      </c>
-      <c r="J8" s="4">
-        <f>J$4*Calculations!$B$27</f>
-        <v>2.8153578571857985E-4</v>
-      </c>
-      <c r="K8" s="4">
-        <f>K$4*Calculations!$B$27</f>
-        <v>2.806417370363737E-4</v>
-      </c>
-      <c r="L8" s="4">
-        <f>L$4*Calculations!$B$27</f>
-        <v>2.7974768835416789E-4</v>
-      </c>
-      <c r="M8" s="4">
-        <f>M$4*Calculations!$B$27</f>
-        <v>2.7885363967196207E-4</v>
-      </c>
-      <c r="N8" s="4">
-        <f>N$4*Calculations!$B$27</f>
-        <v>2.7795959098975593E-4</v>
-      </c>
-      <c r="O8" s="4">
-        <f>O$4*Calculations!$B$27</f>
-        <v>2.7714037680261514E-4</v>
-      </c>
-      <c r="P8" s="4">
-        <f>P$4*Calculations!$B$27</f>
-        <v>2.7657929487791977E-4</v>
-      </c>
-      <c r="Q8" s="4">
-        <f>Q$4*Calculations!$B$27</f>
-        <v>2.7467730951790195E-4</v>
-      </c>
-      <c r="R8" s="4">
-        <f>R$4*Calculations!$B$27</f>
-        <v>2.7406092537341859E-4</v>
-      </c>
-      <c r="S8" s="4">
-        <f>S$4*Calculations!$B$27</f>
-        <v>2.739293181438361E-4</v>
-      </c>
-      <c r="T8" s="4">
-        <f>T$4*Calculations!$B$27</f>
-        <v>2.7518185058661763E-4</v>
-      </c>
-      <c r="U8" s="4">
-        <f>U$4*Calculations!$B$27</f>
-        <v>2.7630009622109581E-4</v>
-      </c>
-      <c r="V8" s="4">
-        <f>V$4*Calculations!$B$27</f>
-        <v>2.7691540959731351E-4</v>
-      </c>
-      <c r="W8" s="4">
-        <f>W$4*Calculations!$B$27</f>
-        <v>2.7486184651230524E-4</v>
-      </c>
-      <c r="X8" s="4">
-        <f>X$4*Calculations!$B$27</f>
-        <v>2.7398059084862524E-4</v>
-      </c>
-      <c r="Y8" s="4">
-        <f>Y$4*Calculations!$B$27</f>
-        <v>2.7283817307923488E-4</v>
-      </c>
-      <c r="Z8" s="4">
-        <f>Z$4*Calculations!$B$27</f>
-        <v>2.712029444128356E-4</v>
-      </c>
-      <c r="AA8" s="4">
-        <f>AA$4*Calculations!$B$27</f>
-        <v>2.6933658854734737E-4</v>
-      </c>
-      <c r="AB8" s="4">
-        <f>AB$4*Calculations!$B$27</f>
-        <v>2.6746979773889214E-4</v>
-      </c>
-      <c r="AC8" s="4">
-        <f>AC$4*Calculations!$B$27</f>
-        <v>2.658949870818354E-4</v>
-      </c>
-      <c r="AD8" s="4">
-        <f>AD$4*Calculations!$B$27</f>
-        <v>2.6382925424933912E-4</v>
-      </c>
-      <c r="AE8" s="4">
-        <f>AE$4*Calculations!$B$27</f>
-        <v>2.62719884996392E-4</v>
-      </c>
-      <c r="AF8" s="4">
-        <f>AF$4*Calculations!$B$27</f>
-        <v>2.6120767850987221E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -22864,22 +23401,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -22982,128 +23519,128 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>B$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0641464207301289E-4</v>
       </c>
       <c r="C2" s="4">
-        <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>C$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0546569566470671E-4</v>
       </c>
       <c r="D2" s="4">
-        <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>D$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0451674925640053E-4</v>
       </c>
       <c r="E2" s="4">
-        <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>E$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0356780284809402E-4</v>
       </c>
       <c r="F2" s="4">
-        <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>F$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0261885643978784E-4</v>
       </c>
       <c r="G2" s="4">
-        <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>G$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0166991003148166E-4</v>
       </c>
       <c r="H2" s="4">
-        <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>H$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0072096362317516E-4</v>
       </c>
       <c r="I2" s="4">
-        <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>I$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9977201721486898E-4</v>
       </c>
       <c r="J2" s="4">
-        <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>J$4/(1-'Other Values'!$B$2)</f>
+        <v>2.988230708065628E-4</v>
       </c>
       <c r="K2" s="4">
-        <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>K$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9787412439825629E-4</v>
       </c>
       <c r="L2" s="4">
-        <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>L$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9692517798995011E-4</v>
       </c>
       <c r="M2" s="4">
-        <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5229974399358832E-3</v>
+        <f>M$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9597623158164393E-4</v>
       </c>
       <c r="N2" s="4">
-        <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5465870266869152E-3</v>
+        <f>N$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9502728517333742E-4</v>
       </c>
       <c r="O2" s="4">
-        <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5701766134379475E-3</v>
+        <f>O$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9415776836067041E-4</v>
       </c>
       <c r="P2" s="4">
-        <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5937662001889795E-3</v>
+        <f>P$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9356223403709025E-4</v>
       </c>
       <c r="Q2" s="4">
-        <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>2.617355786940011E-3</v>
+        <f>Q$4/(1-'Other Values'!$B$2)</f>
+        <v>2.915434601023345E-4</v>
       </c>
       <c r="R2" s="4">
-        <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>2.640945373691043E-3</v>
+        <f>R$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9088922780862847E-4</v>
       </c>
       <c r="S2" s="4">
-        <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6645349604420749E-3</v>
+        <f>S$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9074953943336986E-4</v>
       </c>
       <c r="T2" s="4">
-        <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6881245471931069E-3</v>
+        <f>T$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9207898176298886E-4</v>
       </c>
       <c r="U2" s="4">
-        <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7117141339441393E-3</v>
+        <f>U$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9326589160309292E-4</v>
       </c>
       <c r="V2" s="4">
-        <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7353037206951712E-3</v>
+        <f>V$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9391898737960467E-4</v>
       </c>
       <c r="W2" s="4">
-        <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7588933074462032E-3</v>
+        <f>W$4/(1-'Other Values'!$B$2)</f>
+        <v>2.917393283156924E-4</v>
       </c>
       <c r="X2" s="4">
-        <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7824828941972355E-3</v>
+        <f>X$4/(1-'Other Values'!$B$2)</f>
+        <v>2.908039604621373E-4</v>
       </c>
       <c r="Y2" s="4">
-        <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8060724809482675E-3</v>
+        <f>Y$4/(1-'Other Values'!$B$2)</f>
+        <v>2.8959139423322296E-4</v>
       </c>
       <c r="Z2" s="4">
-        <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8296620676992994E-3</v>
+        <f>Z$4/(1-'Other Values'!$B$2)</f>
+        <v>2.878557567890623E-4</v>
       </c>
       <c r="AA2" s="4">
-        <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8532516544503318E-3</v>
+        <f>AA$4/(1-'Other Values'!$B$2)</f>
+        <v>2.8587480012481605E-4</v>
       </c>
       <c r="AB2" s="4">
-        <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8768412412013638E-3</v>
+        <f>AB$4/(1-'Other Values'!$B$2)</f>
+        <v>2.838933818105785E-4</v>
       </c>
       <c r="AC2" s="4">
-        <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9004308279523957E-3</v>
+        <f>AC$4/(1-'Other Values'!$B$2)</f>
+        <v>2.8222187225352704E-4</v>
       </c>
       <c r="AD2" s="4">
-        <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9476100014544583E-3</v>
+        <f>AD$4/(1-'Other Values'!$B$2)</f>
+        <v>2.8002929617693015E-4</v>
       </c>
       <c r="AE2" s="4">
-        <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9473807273476581E-3</v>
+        <f>AE$4/(1-'Other Values'!$B$2)</f>
+        <v>2.7885180775932833E-4</v>
       </c>
       <c r="AF2" s="4">
-        <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9364046024518958E-3</v>
+        <f>AF$4/(1-'Other Values'!$B$2)</f>
+        <v>2.7724674648854853E-4</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -23113,128 +23650,128 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="C3" s="4">
-        <f>C$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="D3" s="4">
-        <f>D$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="E3" s="4">
-        <f>E$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="F3" s="4">
-        <f>F$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="G3" s="4">
-        <f>G$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="H3" s="4">
-        <f>H$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="I3" s="4">
-        <f>I$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="J3" s="4">
-        <f>J$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="K3" s="4">
-        <f>K$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="L3" s="4">
-        <f>L$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="M3" s="4">
-        <f>M$5</f>
-        <v>7.8513065209783318E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="N3" s="4">
-        <f>N$5</f>
-        <v>7.924714869854924E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="O3" s="4">
-        <f>O$5</f>
-        <v>7.9981232187315162E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="P3" s="4">
-        <f>P$5</f>
-        <v>8.0715315676081084E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$5</f>
-        <v>8.1449399164846995E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="R3" s="4">
-        <f>R$5</f>
-        <v>8.2183482653612906E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="S3" s="4">
-        <f>S$5</f>
-        <v>8.2917566142378827E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="T3" s="4">
-        <f>T$5</f>
-        <v>8.3651649631144749E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="U3" s="4">
-        <f>U$5</f>
-        <v>8.4385733119910671E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="V3" s="4">
-        <f>V$5</f>
-        <v>8.5119816608676593E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="W3" s="4">
-        <f>W$5</f>
-        <v>8.5853900097442514E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="X3" s="4">
-        <f>X$5</f>
-        <v>8.6587983586208436E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$5</f>
-        <v>8.7322067074974358E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$5</f>
-        <v>8.805615056374028E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$5</f>
-        <v>8.8790234052506202E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$5</f>
-        <v>8.9524317541272123E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$5</f>
-        <v>9.0258401030038045E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$5</f>
-        <v>9.1726568007569835E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$5</f>
-        <v>9.171943323501193E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$5</f>
-        <v>9.1377867605157937E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -23244,128 +23781,128 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>B$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AA3</f>
+        <v>9.6229391725409031E-5</v>
       </c>
       <c r="C4" s="4">
-        <f>C$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AB3</f>
+        <v>9.5931375498007091E-5</v>
       </c>
       <c r="D4" s="4">
-        <f>D$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AC3</f>
+        <v>9.5633359270605152E-5</v>
       </c>
       <c r="E4" s="4">
-        <f>E$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AD3</f>
+        <v>9.5335343043203105E-5</v>
       </c>
       <c r="F4" s="4">
-        <f>F$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AE3</f>
+        <v>9.5037326815801165E-5</v>
       </c>
       <c r="G4" s="4">
-        <f>G$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AF3</f>
+        <v>9.4739310588399226E-5</v>
       </c>
       <c r="H4" s="4">
-        <f>H$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AG3</f>
+        <v>9.4441294360997179E-5</v>
       </c>
       <c r="I4" s="4">
-        <f>I$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AH3</f>
+        <v>9.4143278133595239E-5</v>
       </c>
       <c r="J4" s="4">
-        <f>J$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AI3</f>
+        <v>9.38452619061933E-5</v>
       </c>
       <c r="K4" s="4">
-        <f>K$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AJ3</f>
+        <v>9.3547245678791253E-5</v>
       </c>
       <c r="L4" s="4">
-        <f>L$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AK3</f>
+        <v>9.3249229451389313E-5</v>
       </c>
       <c r="M4" s="4">
-        <f>M$5</f>
-        <v>7.8513065209783318E-4</v>
+        <f>Extrapolations!AL3</f>
+        <v>9.2951213223987374E-5</v>
       </c>
       <c r="N4" s="4">
-        <f>N$5</f>
-        <v>7.924714869854924E-4</v>
+        <f>Extrapolations!AM3</f>
+        <v>9.2653196996585327E-5</v>
       </c>
       <c r="O4" s="4">
-        <f>O$5</f>
-        <v>7.9981232187315162E-4</v>
+        <f>Extrapolations!AN3</f>
+        <v>9.2380125600871724E-5</v>
       </c>
       <c r="P4" s="4">
-        <f>P$5</f>
-        <v>8.0715315676081084E-4</v>
+        <f>Extrapolations!AO3</f>
+        <v>9.219309829263994E-5</v>
       </c>
       <c r="Q4" s="4">
-        <f>Q$5</f>
-        <v>8.1449399164846995E-4</v>
+        <f>Extrapolations!AP3</f>
+        <v>9.1559103172633992E-5</v>
       </c>
       <c r="R4" s="4">
-        <f>R$5</f>
-        <v>8.2183482653612906E-4</v>
+        <f>Extrapolations!AQ3</f>
+        <v>9.1353641791139538E-5</v>
       </c>
       <c r="S4" s="4">
-        <f>S$5</f>
-        <v>8.2917566142378827E-4</v>
+        <f>Extrapolations!AR3</f>
+        <v>9.1309772714612039E-5</v>
       </c>
       <c r="T4" s="4">
-        <f>T$5</f>
-        <v>8.3651649631144749E-4</v>
+        <f>Extrapolations!AS3</f>
+        <v>9.1727283528872551E-5</v>
       </c>
       <c r="U4" s="4">
-        <f>U$5</f>
-        <v>8.4385733119910671E-4</v>
+        <f>Extrapolations!AT3</f>
+        <v>9.2100032073698612E-5</v>
       </c>
       <c r="V4" s="4">
-        <f>V$5</f>
-        <v>8.5119816608676593E-4</v>
+        <f>Extrapolations!AU3</f>
+        <v>9.2305136532437853E-5</v>
       </c>
       <c r="W4" s="4">
-        <f>W$5</f>
-        <v>8.5853900097442514E-4</v>
+        <f>Extrapolations!AV3</f>
+        <v>9.1620615504101768E-5</v>
       </c>
       <c r="X4" s="4">
-        <f>X$5</f>
-        <v>8.6587983586208436E-4</v>
+        <f>Extrapolations!AW3</f>
+        <v>9.1326863616208426E-5</v>
       </c>
       <c r="Y4" s="4">
-        <f>Y$5</f>
-        <v>8.7322067074974358E-4</v>
+        <f>Extrapolations!AX3</f>
+        <v>9.0946057693078308E-5</v>
       </c>
       <c r="Z4" s="4">
-        <f>Z$5</f>
-        <v>8.805615056374028E-4</v>
+        <f>Extrapolations!AY3</f>
+        <v>9.0400981470945208E-5</v>
       </c>
       <c r="AA4" s="4">
-        <f>AA$5</f>
-        <v>8.8790234052506202E-4</v>
+        <f>Extrapolations!AZ3</f>
+        <v>8.9778862849115799E-5</v>
       </c>
       <c r="AB4" s="4">
-        <f>AB$5</f>
-        <v>8.9524317541272123E-4</v>
+        <f>Extrapolations!BA3</f>
+        <v>8.9156599246297398E-5</v>
       </c>
       <c r="AC4" s="4">
-        <f>AC$5</f>
-        <v>9.0258401030038045E-4</v>
+        <f>Extrapolations!BB3</f>
+        <v>8.8631662360611819E-5</v>
       </c>
       <c r="AD4" s="4">
-        <f>AD$5</f>
-        <v>9.1726568007569835E-4</v>
+        <f>Extrapolations!BC3</f>
+        <v>8.7943084749779726E-5</v>
       </c>
       <c r="AE4" s="4">
-        <f>AE$5</f>
-        <v>9.171943323501193E-4</v>
+        <f>Extrapolations!BD3</f>
+        <v>8.7573294998797346E-5</v>
       </c>
       <c r="AF4" s="4">
-        <f>AF$5</f>
-        <v>9.1377867605157937E-4</v>
+        <f>Extrapolations!BE3</f>
+        <v>8.7069226169957413E-5</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -23375,128 +23912,128 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>Extrapolations!L4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" ref="B5:AF5" si="0">B$4</f>
+        <v>9.6229391725409031E-5</v>
       </c>
       <c r="C5" s="4">
-        <f>Extrapolations!M4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.5931375498007091E-5</v>
       </c>
       <c r="D5" s="4">
-        <f>Extrapolations!N4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.5633359270605152E-5</v>
       </c>
       <c r="E5" s="4">
-        <f>Extrapolations!O4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.5335343043203105E-5</v>
       </c>
       <c r="F5" s="4">
-        <f>Extrapolations!P4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.5037326815801165E-5</v>
       </c>
       <c r="G5" s="4">
-        <f>Extrapolations!Q4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.4739310588399226E-5</v>
       </c>
       <c r="H5" s="4">
-        <f>Extrapolations!R4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.4441294360997179E-5</v>
       </c>
       <c r="I5" s="4">
-        <f>Extrapolations!S4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.4143278133595239E-5</v>
       </c>
       <c r="J5" s="4">
-        <f>Extrapolations!T4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.38452619061933E-5</v>
       </c>
       <c r="K5" s="4">
-        <f>Extrapolations!U4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.3547245678791253E-5</v>
       </c>
       <c r="L5" s="4">
-        <f>Extrapolations!V4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.3249229451389313E-5</v>
       </c>
       <c r="M5" s="4">
-        <f>Extrapolations!W4</f>
-        <v>7.8513065209783318E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.2951213223987374E-5</v>
       </c>
       <c r="N5" s="4">
-        <f>Extrapolations!X4</f>
-        <v>7.924714869854924E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.2653196996585327E-5</v>
       </c>
       <c r="O5" s="4">
-        <f>Extrapolations!Y4</f>
-        <v>7.9981232187315162E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.2380125600871724E-5</v>
       </c>
       <c r="P5" s="4">
-        <f>Extrapolations!Z4</f>
-        <v>8.0715315676081084E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.219309829263994E-5</v>
       </c>
       <c r="Q5" s="4">
-        <f>Extrapolations!AA4</f>
-        <v>8.1449399164846995E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.1559103172633992E-5</v>
       </c>
       <c r="R5" s="4">
-        <f>Extrapolations!AB4</f>
-        <v>8.2183482653612906E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.1353641791139538E-5</v>
       </c>
       <c r="S5" s="4">
-        <f>Extrapolations!AC4</f>
-        <v>8.2917566142378827E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.1309772714612039E-5</v>
       </c>
       <c r="T5" s="4">
-        <f>Extrapolations!AD4</f>
-        <v>8.3651649631144749E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.1727283528872551E-5</v>
       </c>
       <c r="U5" s="4">
-        <f>Extrapolations!AE4</f>
-        <v>8.4385733119910671E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.2100032073698612E-5</v>
       </c>
       <c r="V5" s="4">
-        <f>Extrapolations!AF4</f>
-        <v>8.5119816608676593E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.2305136532437853E-5</v>
       </c>
       <c r="W5" s="4">
-        <f>Extrapolations!AG4</f>
-        <v>8.5853900097442514E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.1620615504101768E-5</v>
       </c>
       <c r="X5" s="4">
-        <f>Extrapolations!AH4</f>
-        <v>8.6587983586208436E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.1326863616208426E-5</v>
       </c>
       <c r="Y5" s="4">
-        <f>Extrapolations!AI4</f>
-        <v>8.7322067074974358E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.0946057693078308E-5</v>
       </c>
       <c r="Z5" s="4">
-        <f>Extrapolations!AJ4</f>
-        <v>8.805615056374028E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.0400981470945208E-5</v>
       </c>
       <c r="AA5" s="4">
-        <f>Extrapolations!AK4</f>
-        <v>8.8790234052506202E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.9778862849115799E-5</v>
       </c>
       <c r="AB5" s="4">
-        <f>Extrapolations!AL4</f>
-        <v>8.9524317541272123E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.9156599246297398E-5</v>
       </c>
       <c r="AC5" s="4">
-        <f>Extrapolations!AM4</f>
-        <v>9.0258401030038045E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.8631662360611819E-5</v>
       </c>
       <c r="AD5" s="4">
-        <f>Extrapolations!AN4</f>
-        <v>9.1726568007569835E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.7943084749779726E-5</v>
       </c>
       <c r="AE5" s="4">
-        <f>Extrapolations!AO4</f>
-        <v>9.171943323501193E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.7573294998797346E-5</v>
       </c>
       <c r="AF5" s="4">
-        <f>Extrapolations!AP4</f>
-        <v>9.1377867605157937E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.7069226169957413E-5</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -23506,128 +24043,128 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <f>B$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+B$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
+        <v>2.1183127941659115E-4</v>
       </c>
       <c r="C6" s="4">
-        <f>C$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+C$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
+        <v>2.1117525158969189E-4</v>
       </c>
       <c r="D6" s="4">
-        <f>D$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+D$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
+        <v>2.1051922376279263E-4</v>
       </c>
       <c r="E6" s="4">
-        <f>E$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+E$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0986319593589313E-4</v>
       </c>
       <c r="F6" s="4">
-        <f>F$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+F$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0920716810899384E-4</v>
       </c>
       <c r="G6" s="4">
-        <f>G$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+G$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0855114028209458E-4</v>
       </c>
       <c r="H6" s="4">
-        <f>H$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+H$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
+        <v>2.078951124551951E-4</v>
       </c>
       <c r="I6" s="4">
-        <f>I$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+I$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0723908462829581E-4</v>
       </c>
       <c r="J6" s="4">
-        <f>J$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+J$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0658305680139655E-4</v>
       </c>
       <c r="K6" s="4">
-        <f>K$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+K$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0592702897449702E-4</v>
       </c>
       <c r="L6" s="4">
-        <f>L$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+L$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0527100114759776E-4</v>
       </c>
       <c r="M6" s="4">
-        <f>M$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+M$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7409573854087609E-3</v>
+        <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
+        <v>2.046149733206985E-4</v>
       </c>
       <c r="N6" s="4">
-        <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
-        <v>1.757235033821275E-3</v>
+        <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0395894549379899E-4</v>
       </c>
       <c r="O6" s="4">
-        <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7735126822337895E-3</v>
+        <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0335782911876102E-4</v>
       </c>
       <c r="P6" s="4">
-        <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7897903306463036E-3</v>
+        <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0294612295208763E-4</v>
       </c>
       <c r="Q6" s="4">
-        <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8060679790588177E-3</v>
+        <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0155049948396926E-4</v>
       </c>
       <c r="R6" s="4">
-        <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8223456274713318E-3</v>
+        <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0109821410075848E-4</v>
       </c>
       <c r="S6" s="4">
-        <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8386232758838459E-3</v>
+        <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0100164440992884E-4</v>
       </c>
       <c r="T6" s="4">
-        <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8549009242963604E-3</v>
+        <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0192071755763654E-4</v>
       </c>
       <c r="U6" s="4">
-        <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8711785727088747E-3</v>
+        <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0274125481486549E-4</v>
       </c>
       <c r="V6" s="4">
-        <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8874562211213888E-3</v>
+        <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0319275449837962E-4</v>
       </c>
       <c r="W6" s="4">
-        <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9037338695339031E-3</v>
+        <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0168590755047661E-4</v>
       </c>
       <c r="X6" s="4">
-        <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9200115179464176E-3</v>
+        <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0103926688146931E-4</v>
       </c>
       <c r="Y6" s="4">
-        <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9362891663589317E-3</v>
+        <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0020099279015788E-4</v>
       </c>
       <c r="Z6" s="4">
-        <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
-        <v>1.952566814771446E-3</v>
+        <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
+        <v>1.9900110789590963E-4</v>
       </c>
       <c r="AA6" s="4">
-        <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9688444631839603E-3</v>
+        <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
+        <v>1.9763162835075097E-4</v>
       </c>
       <c r="AB6" s="4">
-        <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9851221115964749E-3</v>
+        <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
+        <v>1.9626182965665201E-4</v>
       </c>
       <c r="AC6" s="4">
-        <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
-        <v>2.001399760008989E-3</v>
+        <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
+        <v>1.9510627780171521E-4</v>
       </c>
       <c r="AD6" s="4">
-        <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0339550568340167E-3</v>
+        <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
+        <v>1.9359050103471247E-4</v>
       </c>
       <c r="AE6" s="4">
-        <f>AE$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AE$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0337968495987659E-3</v>
+        <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
+        <v>1.927764770170894E-4</v>
       </c>
       <c r="AF6" s="4">
-        <f>AF$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AF$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0262229355717536E-3</v>
+        <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
+        <v>1.9166686234518252E-4</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -23638,127 +24175,127 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.4577778587192007E-5</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.4346816010955499E-5</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.411585343471899E-5</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.3884890858482414E-5</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.3653928282245906E-5</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.3422965706009398E-5</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.3192003129772822E-5</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.2961040553536313E-5</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.2730077977299805E-5</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.2499115401063229E-5</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.2268152824826721E-5</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>6.0847625537582069E-4</v>
+        <v>7.2037190248590212E-5</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>6.1416540241375668E-4</v>
+        <v>7.1806227672353636E-5</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>6.1985454945169256E-4</v>
+        <v>7.1594597340675587E-5</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>6.2554369648962845E-4</v>
+        <v>7.1449651176795956E-5</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>6.3123284352756422E-4</v>
+        <v>7.0958304958791341E-5</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>6.369219905655E-4</v>
+        <v>7.0799072388133137E-5</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>6.4261113760343588E-4</v>
+        <v>7.0765073853824333E-5</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>6.4830028464137187E-4</v>
+        <v>7.1088644734876226E-5</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>6.5398943167930775E-4</v>
+        <v>7.1377524857116432E-5</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>6.5967857871724364E-4</v>
+        <v>7.1536480812639338E-5</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>6.6536772575517952E-4</v>
+        <v>7.1005977015678866E-5</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>6.710568727931154E-4</v>
+        <v>7.0778319302561529E-5</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>6.7674601983105129E-4</v>
+        <v>7.0483194712135693E-5</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>6.8243516686898717E-4</v>
+        <v>7.0060760639982536E-5</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>6.8812431390692305E-4</v>
+        <v>6.9578618708064752E-5</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>6.9381346094485893E-4</v>
+        <v>6.9096364415880491E-5</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>6.9950260798279482E-4</v>
+        <v>6.8689538329474157E-5</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>7.1088090205866626E-4</v>
+        <v>6.8155890681079293E-5</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>7.1082560757134252E-4</v>
+        <v>6.7869303624067942E-5</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>7.0817847393997403E-4</v>
+        <v>6.747865028171699E-5</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -23769,127 +24306,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8868817517622704E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8779412649402122E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.869000778118154E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8600602912960926E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8511198044740344E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8421793176519762E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8332388308299148E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8242983440078566E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8153578571857985E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.806417370363737E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.7974768835416789E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.3553919562934993E-3</v>
+        <v>2.7885363967196207E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.377414460956477E-3</v>
+        <v>2.7795959098975593E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.3994369656194546E-3</v>
+        <v>2.7714037680261514E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.4214594702824323E-3</v>
+        <v>2.7657929487791977E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.4434819749454095E-3</v>
+        <v>2.7467730951790195E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.4655044796083867E-3</v>
+        <v>2.7406092537341859E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.4875269842713644E-3</v>
+        <v>2.739293181438361E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.509549488934342E-3</v>
+        <v>2.7518185058661763E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.5315719935973197E-3</v>
+        <v>2.7630009622109581E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.5535944982602973E-3</v>
+        <v>2.7691540959731351E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.575617002923275E-3</v>
+        <v>2.7486184651230524E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.5976395075862527E-3</v>
+        <v>2.7398059084862524E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.6196620122492303E-3</v>
+        <v>2.7283817307923488E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.641684516912208E-3</v>
+        <v>2.712029444128356E-4</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.6637070215751856E-3</v>
+        <v>2.6933658854734737E-4</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.6857295262381633E-3</v>
+        <v>2.6746979773889214E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.7077520309011409E-3</v>
+        <v>2.658949870818354E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>2.7517970402270945E-3</v>
+        <v>2.6382925424933912E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>2.7515829970503575E-3</v>
+        <v>2.62719884996392E-4</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>2.7413360281547377E-3</v>
+        <v>2.6120767850987221E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -23900,20 +24437,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -24017,127 +24556,127 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.4994078531848513E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.4994078531848513E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.4994078531848513E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.4994078531848513E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.4994078531848513E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.4994078531848513E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.4994078531848513E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.4994078531848513E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.4994078531848513E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.4994078531848513E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.4994078531848513E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5314798398092687E-3</v>
+        <v>2.5229974399358832E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5551487355221342E-3</v>
+        <v>2.5465870266869152E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5788176312350002E-3</v>
+        <v>2.5701766134379475E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6024865269478658E-3</v>
+        <v>2.5937662001889795E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6261554226607313E-3</v>
+        <v>2.617355786940011E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6498243183735969E-3</v>
+        <v>2.640945373691043E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6734932140864624E-3</v>
+        <v>2.6645349604420749E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6971621097993284E-3</v>
+        <v>2.6881245471931069E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7208310055121939E-3</v>
+        <v>2.7117141339441393E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7444999012250595E-3</v>
+        <v>2.7353037206951712E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>2.768168796937925E-3</v>
+        <v>2.7588933074462032E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7918376926507906E-3</v>
+        <v>2.7824828941972355E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8155065883636566E-3</v>
+        <v>2.8060724809482675E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8391754840765221E-3</v>
+        <v>2.8296620676992994E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8628443797893877E-3</v>
+        <v>2.8532516544503318E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8865132755022532E-3</v>
+        <v>2.8768412412013638E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9101821712151188E-3</v>
+        <v>2.9004308279523957E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9575199626408486E-3</v>
+        <v>2.9476100014544583E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0140739481425614E-3</v>
+        <v>2.9473807273476581E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0046053551631979E-3</v>
+        <v>2.9364046024518958E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -24147,128 +24686,128 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="C3" s="4">
-        <f>C$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="D3" s="4">
-        <f>D$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="E3" s="4">
-        <f>E$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="F3" s="4">
-        <f>F$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="G3" s="4">
-        <f>G$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="H3" s="4">
-        <f>H$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="I3" s="4">
-        <f>I$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="J3" s="4">
-        <f>J$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="K3" s="4">
-        <f>K$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="L3" s="4">
-        <f>L$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="M3" s="4">
-        <f>M$5</f>
-        <v>7.8777028701720712E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="N3" s="4">
-        <f>N$5</f>
-        <v>7.9513580203174081E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="O3" s="4">
-        <f>O$5</f>
-        <v>8.0250131704627449E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="P3" s="4">
-        <f>P$5</f>
-        <v>8.0986683206080818E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$5</f>
-        <v>8.1723234707534187E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="R3" s="4">
-        <f>R$5</f>
-        <v>8.2459786208987555E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="S3" s="4">
-        <f>S$5</f>
-        <v>8.3196337710440924E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="T3" s="4">
-        <f>T$5</f>
-        <v>8.3932889211894293E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="U3" s="4">
-        <f>U$5</f>
-        <v>8.4669440713347661E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="V3" s="4">
-        <f>V$5</f>
-        <v>8.540599221480103E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="W3" s="4">
-        <f>W$5</f>
-        <v>8.6142543716254398E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="X3" s="4">
-        <f>X$5</f>
-        <v>8.6879095217707767E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$5</f>
-        <v>8.7615646719161136E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$5</f>
-        <v>8.8352198220614504E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$5</f>
-        <v>8.9088749722067873E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$5</f>
-        <v>8.9825301223521242E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$5</f>
-        <v>9.056185272497461E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$5</f>
-        <v>9.2034955727881304E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$5</f>
-        <v>9.3794857137722578E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$5</f>
-        <v>9.3500204338529676E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -24278,128 +24817,128 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>B$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" ref="B3:K4" si="0">B$5</f>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="C4" s="4">
-        <f>C$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="D4" s="4">
-        <f>D$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="E4" s="4">
-        <f>E$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="F4" s="4">
-        <f>F$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="G4" s="4">
-        <f>G$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="H4" s="4">
-        <f>H$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="I4" s="4">
-        <f>I$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="J4" s="4">
-        <f>J$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="K4" s="4">
-        <f>K$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="L4" s="4">
-        <f>L$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" ref="L3:U4" si="1">L$5</f>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="M4" s="4">
-        <f>M$5</f>
-        <v>7.8777028701720712E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.8513065209783318E-4</v>
       </c>
       <c r="N4" s="4">
-        <f>N$5</f>
-        <v>7.9513580203174081E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.924714869854924E-4</v>
       </c>
       <c r="O4" s="4">
-        <f>O$5</f>
-        <v>8.0250131704627449E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.9981232187315162E-4</v>
       </c>
       <c r="P4" s="4">
-        <f>P$5</f>
-        <v>8.0986683206080818E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.0715315676081084E-4</v>
       </c>
       <c r="Q4" s="4">
-        <f>Q$5</f>
-        <v>8.1723234707534187E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.1449399164846995E-4</v>
       </c>
       <c r="R4" s="4">
-        <f>R$5</f>
-        <v>8.2459786208987555E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.2183482653612906E-4</v>
       </c>
       <c r="S4" s="4">
-        <f>S$5</f>
-        <v>8.3196337710440924E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.2917566142378827E-4</v>
       </c>
       <c r="T4" s="4">
-        <f>T$5</f>
-        <v>8.3932889211894293E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.3651649631144749E-4</v>
       </c>
       <c r="U4" s="4">
-        <f>U$5</f>
-        <v>8.4669440713347661E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.4385733119910671E-4</v>
       </c>
       <c r="V4" s="4">
-        <f>V$5</f>
-        <v>8.540599221480103E-4</v>
+        <f t="shared" ref="V3:AF4" si="2">V$5</f>
+        <v>8.5119816608676593E-4</v>
       </c>
       <c r="W4" s="4">
-        <f>W$5</f>
-        <v>8.6142543716254398E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.5853900097442514E-4</v>
       </c>
       <c r="X4" s="4">
-        <f>X$5</f>
-        <v>8.6879095217707767E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.6587983586208436E-4</v>
       </c>
       <c r="Y4" s="4">
-        <f>Y$5</f>
-        <v>8.7615646719161136E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.7322067074974358E-4</v>
       </c>
       <c r="Z4" s="4">
-        <f>Z$5</f>
-        <v>8.8352198220614504E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.805615056374028E-4</v>
       </c>
       <c r="AA4" s="4">
-        <f>AA$5</f>
-        <v>8.9088749722067873E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.8790234052506202E-4</v>
       </c>
       <c r="AB4" s="4">
-        <f>AB$5</f>
-        <v>8.9825301223521242E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.9524317541272123E-4</v>
       </c>
       <c r="AC4" s="4">
-        <f>AC$5</f>
-        <v>9.056185272497461E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.0258401030038045E-4</v>
       </c>
       <c r="AD4" s="4">
-        <f>AD$5</f>
-        <v>9.2034955727881304E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.1726568007569835E-4</v>
       </c>
       <c r="AE4" s="4">
-        <f>AE$5</f>
-        <v>9.3794857137722578E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.171943323501193E-4</v>
       </c>
       <c r="AF4" s="4">
-        <f>AF$5</f>
-        <v>9.3500204338529676E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.1377867605157937E-4</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -24409,128 +24948,128 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>Extrapolations!L5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!L4</f>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="C5" s="4">
-        <f>Extrapolations!M5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!M4</f>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="D5" s="4">
-        <f>Extrapolations!N5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!N4</f>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="E5" s="4">
-        <f>Extrapolations!O5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!O4</f>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="F5" s="4">
-        <f>Extrapolations!P5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!P4</f>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="G5" s="4">
-        <f>Extrapolations!Q5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!Q4</f>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="H5" s="4">
-        <f>Extrapolations!R5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!R4</f>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="I5" s="4">
-        <f>Extrapolations!S5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!S4</f>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="J5" s="4">
-        <f>Extrapolations!T5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!T4</f>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="K5" s="4">
-        <f>Extrapolations!U5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!U4</f>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="L5" s="4">
-        <f>Extrapolations!V5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!V4</f>
+        <v>7.7778981721017396E-4</v>
       </c>
       <c r="M5" s="4">
-        <f>Extrapolations!W5</f>
-        <v>7.8777028701720712E-4</v>
+        <f>Extrapolations!W4</f>
+        <v>7.8513065209783318E-4</v>
       </c>
       <c r="N5" s="4">
-        <f>Extrapolations!X5</f>
-        <v>7.9513580203174081E-4</v>
+        <f>Extrapolations!X4</f>
+        <v>7.924714869854924E-4</v>
       </c>
       <c r="O5" s="4">
-        <f>Extrapolations!Y5</f>
-        <v>8.0250131704627449E-4</v>
+        <f>Extrapolations!Y4</f>
+        <v>7.9981232187315162E-4</v>
       </c>
       <c r="P5" s="4">
-        <f>Extrapolations!Z5</f>
-        <v>8.0986683206080818E-4</v>
+        <f>Extrapolations!Z4</f>
+        <v>8.0715315676081084E-4</v>
       </c>
       <c r="Q5" s="4">
-        <f>Extrapolations!AA5</f>
-        <v>8.1723234707534187E-4</v>
+        <f>Extrapolations!AA4</f>
+        <v>8.1449399164846995E-4</v>
       </c>
       <c r="R5" s="4">
-        <f>Extrapolations!AB5</f>
-        <v>8.2459786208987555E-4</v>
+        <f>Extrapolations!AB4</f>
+        <v>8.2183482653612906E-4</v>
       </c>
       <c r="S5" s="4">
-        <f>Extrapolations!AC5</f>
-        <v>8.3196337710440924E-4</v>
+        <f>Extrapolations!AC4</f>
+        <v>8.2917566142378827E-4</v>
       </c>
       <c r="T5" s="4">
-        <f>Extrapolations!AD5</f>
-        <v>8.3932889211894293E-4</v>
+        <f>Extrapolations!AD4</f>
+        <v>8.3651649631144749E-4</v>
       </c>
       <c r="U5" s="4">
-        <f>Extrapolations!AE5</f>
-        <v>8.4669440713347661E-4</v>
+        <f>Extrapolations!AE4</f>
+        <v>8.4385733119910671E-4</v>
       </c>
       <c r="V5" s="4">
-        <f>Extrapolations!AF5</f>
-        <v>8.540599221480103E-4</v>
+        <f>Extrapolations!AF4</f>
+        <v>8.5119816608676593E-4</v>
       </c>
       <c r="W5" s="4">
-        <f>Extrapolations!AG5</f>
-        <v>8.6142543716254398E-4</v>
+        <f>Extrapolations!AG4</f>
+        <v>8.5853900097442514E-4</v>
       </c>
       <c r="X5" s="4">
-        <f>Extrapolations!AH5</f>
-        <v>8.6879095217707767E-4</v>
+        <f>Extrapolations!AH4</f>
+        <v>8.6587983586208436E-4</v>
       </c>
       <c r="Y5" s="4">
-        <f>Extrapolations!AI5</f>
-        <v>8.7615646719161136E-4</v>
+        <f>Extrapolations!AI4</f>
+        <v>8.7322067074974358E-4</v>
       </c>
       <c r="Z5" s="4">
-        <f>Extrapolations!AJ5</f>
-        <v>8.8352198220614504E-4</v>
+        <f>Extrapolations!AJ4</f>
+        <v>8.805615056374028E-4</v>
       </c>
       <c r="AA5" s="4">
-        <f>Extrapolations!AK5</f>
-        <v>8.9088749722067873E-4</v>
+        <f>Extrapolations!AK4</f>
+        <v>8.8790234052506202E-4</v>
       </c>
       <c r="AB5" s="4">
-        <f>Extrapolations!AL5</f>
-        <v>8.9825301223521242E-4</v>
+        <f>Extrapolations!AL4</f>
+        <v>8.9524317541272123E-4</v>
       </c>
       <c r="AC5" s="4">
-        <f>Extrapolations!AM5</f>
-        <v>9.056185272497461E-4</v>
+        <f>Extrapolations!AM4</f>
+        <v>9.0258401030038045E-4</v>
       </c>
       <c r="AD5" s="4">
-        <f>Extrapolations!AN5</f>
-        <v>9.2034955727881304E-4</v>
+        <f>Extrapolations!AN4</f>
+        <v>9.1726568007569835E-4</v>
       </c>
       <c r="AE5" s="4">
-        <f>Extrapolations!AO5</f>
-        <v>9.3794857137722578E-4</v>
+        <f>Extrapolations!AO4</f>
+        <v>9.171943323501193E-4</v>
       </c>
       <c r="AF5" s="4">
-        <f>Extrapolations!AP5</f>
-        <v>9.3500204338529676E-4</v>
+        <f>Extrapolations!AP4</f>
+        <v>9.1377867605157937E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -24541,127 +25080,127 @@
       </c>
       <c r="B6" s="4">
         <f>B$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+B$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.7246797369962466E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+C$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.7246797369962466E-3</v>
       </c>
       <c r="D6" s="4">
         <f>D$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+D$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.7246797369962466E-3</v>
       </c>
       <c r="E6" s="4">
         <f>E$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+E$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.7246797369962466E-3</v>
       </c>
       <c r="F6" s="4">
         <f>F$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+F$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.7246797369962466E-3</v>
       </c>
       <c r="G6" s="4">
         <f>G$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+G$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.7246797369962466E-3</v>
       </c>
       <c r="H6" s="4">
         <f>H$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+H$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.7246797369962466E-3</v>
       </c>
       <c r="I6" s="4">
         <f>I$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+I$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.7246797369962466E-3</v>
       </c>
       <c r="J6" s="4">
         <f>J$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+J$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.7246797369962466E-3</v>
       </c>
       <c r="K6" s="4">
         <f>K$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+K$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.7246797369962466E-3</v>
       </c>
       <c r="L6" s="4">
         <f>L$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+L$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.7246797369962466E-3</v>
       </c>
       <c r="M6" s="4">
         <f>M$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+M$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7468105410528411E-3</v>
+        <v>1.7409573854087609E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7631429154514574E-3</v>
+        <v>1.757235033821275E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7794752898500738E-3</v>
+        <v>1.7735126822337895E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7958076642486899E-3</v>
+        <v>1.7897903306463036E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8121400386473061E-3</v>
+        <v>1.8060679790588177E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8284724130459224E-3</v>
+        <v>1.8223456274713318E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8448047874445384E-3</v>
+        <v>1.8386232758838459E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8611371618431549E-3</v>
+        <v>1.8549009242963604E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8774695362417711E-3</v>
+        <v>1.8711785727088747E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8938019106403874E-3</v>
+        <v>1.8874562211213888E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9101342850390036E-3</v>
+        <v>1.9037338695339031E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9264666594376199E-3</v>
+        <v>1.9200115179464176E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9427990338362364E-3</v>
+        <v>1.9362891663589317E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9591314082348524E-3</v>
+        <v>1.952566814771446E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9754637826334687E-3</v>
+        <v>1.9688444631839603E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9917961570320849E-3</v>
+        <v>1.9851221115964749E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0081285314307012E-3</v>
+        <v>2.001399760008989E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0407932802279328E-3</v>
+        <v>2.0339550568340167E-3</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AE$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0798175285981603E-3</v>
+        <v>2.0337968495987659E-3</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AF$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0732838648631425E-3</v>
+        <v>2.0262229355717536E-3</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -24672,127 +25211,127 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>6.0278710833788481E-4</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>6.0278710833788481E-4</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>6.0278710833788481E-4</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>6.0278710833788481E-4</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>6.0278710833788481E-4</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>6.0278710833788481E-4</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>6.0278710833788481E-4</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>6.0278710833788481E-4</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>6.0278710833788481E-4</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>6.0278710833788481E-4</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>6.0278710833788481E-4</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>6.1052197243833552E-4</v>
+        <v>6.0847625537582069E-4</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>6.1623024657459912E-4</v>
+        <v>6.1416540241375668E-4</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>6.2193852071086271E-4</v>
+        <v>6.1985454945169256E-4</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>6.2764679484712631E-4</v>
+        <v>6.2554369648962845E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>6.3335506898339001E-4</v>
+        <v>6.3123284352756422E-4</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>6.3906334311965361E-4</v>
+        <v>6.369219905655E-4</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>6.4477161725591721E-4</v>
+        <v>6.4261113760343588E-4</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>6.504798913921808E-4</v>
+        <v>6.4830028464137187E-4</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>6.561881655284444E-4</v>
+        <v>6.5398943167930775E-4</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>6.6189643966470799E-4</v>
+        <v>6.5967857871724364E-4</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>6.6760471380097159E-4</v>
+        <v>6.6536772575517952E-4</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>6.7331298793723519E-4</v>
+        <v>6.710568727931154E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>6.7902126207349878E-4</v>
+        <v>6.7674601983105129E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>6.8472953620976238E-4</v>
+        <v>6.8243516686898717E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>6.9043781034602608E-4</v>
+        <v>6.8812431390692305E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>6.9614608448228968E-4</v>
+        <v>6.9381346094485893E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>7.0185435861855328E-4</v>
+        <v>6.9950260798279482E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>7.1327090689108014E-4</v>
+        <v>7.1088090205866626E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>7.2691014281734995E-4</v>
+        <v>7.1082560757134252E-4</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>7.2462658362360498E-4</v>
+        <v>7.0817847393997403E-4</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -24803,127 +25342,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.3333694516305217E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.3333694516305217E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.3333694516305217E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.3333694516305217E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.3333694516305217E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.3333694516305217E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.3333694516305217E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.3333694516305217E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.3333694516305217E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.3333694516305217E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.3333694516305217E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.363310861051621E-3</v>
+        <v>2.3553919562934993E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.3854074060952221E-3</v>
+        <v>2.377414460956477E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.4075039511388232E-3</v>
+        <v>2.3994369656194546E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.4296004961824242E-3</v>
+        <v>2.4214594702824323E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.4516970412260253E-3</v>
+        <v>2.4434819749454095E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.4737935862696263E-3</v>
+        <v>2.4655044796083867E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.4958901313132274E-3</v>
+        <v>2.4875269842713644E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.5179866763568285E-3</v>
+        <v>2.509549488934342E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.5400832214004295E-3</v>
+        <v>2.5315719935973197E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.5621797664440306E-3</v>
+        <v>2.5535944982602973E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.5842763114876316E-3</v>
+        <v>2.575617002923275E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.6063728565312327E-3</v>
+        <v>2.5976395075862527E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.6284694015748337E-3</v>
+        <v>2.6196620122492303E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.6505659466184348E-3</v>
+        <v>2.641684516912208E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.6726624916620359E-3</v>
+        <v>2.6637070215751856E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.6947590367056369E-3</v>
+        <v>2.6857295262381633E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.716855581749238E-3</v>
+        <v>2.7077520309011409E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>2.7610486718364388E-3</v>
+        <v>2.7517970402270945E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>2.8138457141316771E-3</v>
+        <v>2.7515829970503575E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>2.8050061301558901E-3</v>
+        <v>2.7413360281547377E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\template_state\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38483CC7-12F5-4D51-83F4-E2640ADD5B80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ED6EE9-81CF-4A2B-8F64-29A776EFA986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11925" yWindow="525" windowWidth="15630" windowHeight="16485" tabRatio="770" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,31 +18,38 @@
     <sheet name="Other Values" sheetId="18" r:id="rId3"/>
     <sheet name="Calculations" sheetId="26" r:id="rId4"/>
     <sheet name="Extrapolations" sheetId="24" r:id="rId5"/>
-    <sheet name="BHNVFEAL-LDVs-psgr" sheetId="2" r:id="rId6"/>
-    <sheet name="BHNVFEAL-LDVs-frgt" sheetId="5" r:id="rId7"/>
-    <sheet name="BHNVFEAL-HDVs-psgr" sheetId="6" r:id="rId8"/>
-    <sheet name="BHNVFEAL-HDVs-frgt" sheetId="7" r:id="rId9"/>
-    <sheet name="BHNVFEAL-aircraft-psgr" sheetId="8" r:id="rId10"/>
-    <sheet name="BHNVFEAL-aircraft-frgt" sheetId="9" r:id="rId11"/>
-    <sheet name="BHNVFEAL-rail-psgr" sheetId="10" r:id="rId12"/>
-    <sheet name="BHNVFEAL-rail-frgt" sheetId="11" r:id="rId13"/>
-    <sheet name="BHNVFEAL-ships-psgr" sheetId="12" r:id="rId14"/>
-    <sheet name="BHNVFEAL-ships-frgt" sheetId="13" r:id="rId15"/>
-    <sheet name="BHNVFEAL-motorbikes-psgr" sheetId="14" r:id="rId16"/>
-    <sheet name="BHNVFEAL-motorbikes-frgt" sheetId="15" r:id="rId17"/>
+    <sheet name="SYFAFE (for NG vehicles)" sheetId="27" r:id="rId6"/>
+    <sheet name="BHNVFEAL-LDVs-psgr" sheetId="2" r:id="rId7"/>
+    <sheet name="BHNVFEAL-LDVs-frgt" sheetId="5" r:id="rId8"/>
+    <sheet name="BHNVFEAL-HDVs-psgr" sheetId="6" r:id="rId9"/>
+    <sheet name="BHNVFEAL-HDVs-frgt" sheetId="7" r:id="rId10"/>
+    <sheet name="BHNVFEAL-aircraft-psgr" sheetId="8" r:id="rId11"/>
+    <sheet name="BHNVFEAL-aircraft-frgt" sheetId="9" r:id="rId12"/>
+    <sheet name="BHNVFEAL-rail-psgr" sheetId="10" r:id="rId13"/>
+    <sheet name="BHNVFEAL-rail-frgt" sheetId="11" r:id="rId14"/>
+    <sheet name="BHNVFEAL-ships-psgr" sheetId="12" r:id="rId15"/>
+    <sheet name="BHNVFEAL-ships-frgt" sheetId="13" r:id="rId16"/>
+    <sheet name="BHNVFEAL-motorbikes-psgr" sheetId="14" r:id="rId17"/>
+    <sheet name="BHNVFEAL-motorbikes-frgt" sheetId="15" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Eno_Tons">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Sum_T2">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Sum_TTM">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="billion">[1]About!$A$108</definedName>
+    <definedName name="Eno_TM">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_Tons">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="s">[3]About!$A$109</definedName>
+    <definedName name="Sum_T2">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_TTM">'[2]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
+    <definedName name="trillion">[1]About!$A$109</definedName>
+    <definedName name="trillions">[3]About!$A$109</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -80,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="99">
   <si>
     <t>Sources:</t>
   </si>
@@ -366,12 +373,24 @@
   <si>
     <t>psgr - electric</t>
   </si>
+  <si>
+    <t>Fuel Economy (passenger*miles/BTU)</t>
+  </si>
+  <si>
+    <t>PASSENGER</t>
+  </si>
+  <si>
+    <t>FREIGHT</t>
+  </si>
+  <si>
+    <t>Fuel Economy (freight ton*miles/BTU)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
@@ -379,6 +398,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -647,7 +667,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +816,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,7 +1309,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1325,6 +1363,17 @@
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3222,136 +3271,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>9.6229391725409031E-5</c:v>
+                  <c:v>9.6850701349312281E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>9.5931375498007091E-5</c:v>
+                  <c:v>9.6550760966027755E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>9.5633359270605152E-5</c:v>
+                  <c:v>9.6250820582743229E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>9.5335343043203105E-5</c:v>
+                  <c:v>9.5950880199458704E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>9.5037326815801165E-5</c:v>
+                  <c:v>9.5650939816174178E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>9.4739310588399226E-5</c:v>
+                  <c:v>9.5350999432889543E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>9.4441294360997179E-5</c:v>
+                  <c:v>9.5051059049605017E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>9.4143278133595239E-5</c:v>
+                  <c:v>9.4751118666320491E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>9.38452619061933E-5</c:v>
+                  <c:v>9.4451178283035966E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>9.3547245678791253E-5</c:v>
+                  <c:v>9.415123789975144E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>9.3249229451389313E-5</c:v>
+                  <c:v>9.3851297516466914E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>9.2951213223987374E-5</c:v>
+                  <c:v>9.3551357133182279E-5</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>9.2653196996585327E-5</c:v>
+                  <c:v>9.3251416749897753E-5</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>9.2380125600871724E-5</c:v>
+                  <c:v>9.2976582255788396E-5</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>9.219309829263994E-5</c:v>
+                  <c:v>9.2788347396885706E-5</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>9.1559103172633992E-5</c:v>
+                  <c:v>9.2150258857369327E-5</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>9.1353641791139538E-5</c:v>
+                  <c:v>9.1943470904737144E-5</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>9.1309772714612039E-5</c:v>
+                  <c:v>9.1899318585439966E-5</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>9.1727283528872551E-5</c:v>
+                  <c:v>9.2319525078040856E-5</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>9.2100032073698612E-5</c:v>
+                  <c:v>9.2694680291495327E-5</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>9.2305136532437853E-5</c:v>
+                  <c:v>9.2901109016883625E-5</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>9.1620615504101768E-5</c:v>
+                  <c:v>9.2212168346117676E-5</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>9.1326863616208426E-5</c:v>
+                  <c:v>9.19165198352517E-5</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>9.0946057693078308E-5</c:v>
+                  <c:v>9.1533255220648671E-5</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>9.0400981470945208E-5</c:v>
+                  <c:v>9.0984659688079332E-5</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>8.9778862849115799E-5</c:v>
+                  <c:v>9.0358524327912283E-5</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>8.9156599246297398E-5</c:v>
+                  <c:v>8.97322430506796E-5</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>8.8631662360611819E-5</c:v>
+                  <c:v>8.9203916885137102E-5</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>8.7943084749779726E-5</c:v>
+                  <c:v>8.85108934403582E-5</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>8.7573294998797346E-5</c:v>
+                  <c:v>8.8138716124339965E-5</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>8.7069226169957413E-5</c:v>
+                  <c:v>8.7631392751240183E-5</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>8.6871435981294458E-5</c:v>
+                  <c:v>8.7432325520859236E-5</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>8.6747571549133394E-5</c:v>
+                  <c:v>8.7307661352127247E-5</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>8.6669857452234005E-5</c:v>
+                  <c:v>8.722944549048165E-5</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>8.662306841739351E-5</c:v>
+                  <c:v>8.718235436002237E-5</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>8.6546781831867863E-5</c:v>
+                  <c:v>8.7105575226545284E-5</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>8.6512992189387129E-5</c:v>
+                  <c:v>8.707156741963803E-5</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>8.6486778796134947E-5</c:v>
+                  <c:v>8.7045184778371156E-5</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>8.6441703335980475E-5</c:v>
+                  <c:v>8.6999818286373988E-5</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>8.6431601732089286E-5</c:v>
+                  <c:v>8.6989651460999E-5</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>8.6243095042905357E-5</c:v>
+                  <c:v>8.6799927669451015E-5</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>8.6035767614588875E-5</c:v>
+                  <c:v>8.6591261621777151E-5</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>8.5821368562436881E-5</c:v>
+                  <c:v>8.6375478291993656E-5</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>8.559520997794513E-5</c:v>
+                  <c:v>8.614785950389308E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3685,88 +3734,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.2732399044998244E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.2732399044998244E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.2732399044998244E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.2732399044998244E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.2732399044998244E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.2732399044998244E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.2732399044998244E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.2732399044998244E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.2732399044998244E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.2732399044998244E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.2732399044998244E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.8513065209783318E-4</c:v>
+                  <c:v>7.373209214829149E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.924714869854924E-4</c:v>
+                  <c:v>7.4731785251584736E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.9981232187315162E-4</c:v>
+                  <c:v>7.5731478354877982E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>8.0715315676081084E-4</c:v>
+                  <c:v>7.6731171458171228E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>8.1449399164846995E-4</c:v>
+                  <c:v>7.7730864561464475E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>8.2183482653612906E-4</c:v>
+                  <c:v>7.8730557664757721E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>8.2917566142378827E-4</c:v>
+                  <c:v>7.9730250768050967E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.3651649631144749E-4</c:v>
+                  <c:v>8.0729943871344213E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.4385733119910671E-4</c:v>
+                  <c:v>8.1729636974637459E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.5119816608676593E-4</c:v>
+                  <c:v>8.2729330077930706E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.5853900097442514E-4</c:v>
+                  <c:v>8.3729023181223952E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>8.6587983586208436E-4</c:v>
+                  <c:v>8.4728716284517198E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>8.7322067074974358E-4</c:v>
+                  <c:v>8.5728409387810444E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>8.805615056374028E-4</c:v>
+                  <c:v>8.672810249110369E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>8.8790234052506202E-4</c:v>
+                  <c:v>8.7727795594396937E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>8.9524317541272123E-4</c:v>
+                  <c:v>8.8727488697690183E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>9.0258401030038045E-4</c:v>
+                  <c:v>8.9727181800983429E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
                   <c:v>9.1726568007569835E-4</c:v>
@@ -4226,148 +4275,148 @@
                   <c:v>7.8040477200267344E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.8777028701720712E-4</c:v>
+                  <c:v>7.911312883639107E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.9513580203174081E-4</c:v>
+                  <c:v>8.0185780472514796E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>8.0250131704627449E-4</c:v>
+                  <c:v>8.1258432108638522E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>8.0986683206080818E-4</c:v>
+                  <c:v>8.2331083744762248E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>8.1723234707534187E-4</c:v>
+                  <c:v>8.3403735380885974E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>8.2459786208987555E-4</c:v>
+                  <c:v>8.4476387017009701E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>8.3196337710440924E-4</c:v>
+                  <c:v>8.5549038653133427E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.3932889211894293E-4</c:v>
+                  <c:v>8.6621690289257153E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.4669440713347661E-4</c:v>
+                  <c:v>8.7694341925380879E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.540599221480103E-4</c:v>
+                  <c:v>8.8766993561504605E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.6142543716254398E-4</c:v>
+                  <c:v>8.9839645197628331E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>8.6879095217707767E-4</c:v>
+                  <c:v>9.0912296833752057E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>8.7615646719161136E-4</c:v>
+                  <c:v>9.1984948469875784E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>8.8352198220614504E-4</c:v>
+                  <c:v>9.305760010599951E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>8.9088749722067873E-4</c:v>
+                  <c:v>9.4130251742123236E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>8.9825301223521242E-4</c:v>
+                  <c:v>9.5202903378246962E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>9.056185272497461E-4</c:v>
+                  <c:v>9.6275555014370688E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>9.2034955727881304E-4</c:v>
+                  <c:v>9.8420858286618054E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>9.3794857137722578E-4</c:v>
+                  <c:v>1.0030287154871532E-3</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>9.3500204338529676E-4</c:v>
+                  <c:v>9.9987774082065106E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>9.4450518097673522E-4</c:v>
+                  <c:v>1.0100402595155109E-3</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>9.6553094726227289E-4</c:v>
+                  <c:v>1.0325249116521942E-3</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>9.9202472083761615E-4</c:v>
+                  <c:v>1.0608569721602286E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.0204549915404683E-3</c:v>
+                  <c:v>1.0912598948515679E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.0517667621207619E-3</c:v>
+                  <c:v>1.124744252078814E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.0714253139951938E-3</c:v>
+                  <c:v>1.1457668247834094E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.0927335887791732E-3</c:v>
+                  <c:v>1.1685535874461422E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.1084724701472082E-3</c:v>
+                  <c:v>1.1853845208720599E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.1212183953006243E-3</c:v>
+                  <c:v>1.1990148299577217E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.1265509849157651E-3</c:v>
+                  <c:v>1.2047174246149544E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.1262441806540653E-3</c:v>
+                  <c:v>1.2043893325490249E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.1263184748685799E-3</c:v>
+                  <c:v>1.2044687817137519E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.1257669710917103E-3</c:v>
+                  <c:v>1.2038790115048291E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.1240566768554406E-3</c:v>
+                  <c:v>1.2020500474408489E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.1231142484226817E-3</c:v>
+                  <c:v>1.2010422280260159E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.1241515401583754E-3</c:v>
+                  <c:v>1.2021514928929698E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.1224282188798294E-3</c:v>
+                  <c:v>1.2003085978972948E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.119439944891256E-3</c:v>
+                  <c:v>1.1971129806622458E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.1180165169692845E-3</c:v>
+                  <c:v>1.1955907873099313E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.118177323275613E-3</c:v>
+                  <c:v>1.1957627512616882E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.1185238583405013E-3</c:v>
+                  <c:v>1.1961333308772588E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.1197710010246366E-3</c:v>
+                  <c:v>1.1974670073310338E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.1216340297167265E-3</c:v>
+                  <c:v>1.1994593034259026E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.1220820780488356E-3</c:v>
+                  <c:v>1.1999384398697819E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.1245809182148494E-3</c:v>
+                  <c:v>1.2026106636125447E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.1271758246963568E-3</c:v>
+                  <c:v>1.2053856192917605E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.1260899004142818E-3</c:v>
+                  <c:v>1.2042243474789929E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.1259813441496596E-3</c:v>
+                  <c:v>1.2041082589705342E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7411,6 +7460,58 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="AEO 7"/>
+      <sheetName val="AEO 35"/>
+      <sheetName val="AEO 43"/>
+      <sheetName val="AEO 46"/>
+      <sheetName val="AEO 49"/>
+      <sheetName val="AEO 36"/>
+      <sheetName val="AEO 47"/>
+      <sheetName val="AEO 48"/>
+      <sheetName val="NTS 1-40"/>
+      <sheetName val="NRBS 40"/>
+      <sheetName val="Calculations Etc"/>
+      <sheetName val="Calibration Adjustments"/>
+      <sheetName val="SYFAFE-psgr"/>
+      <sheetName val="SYFAFE-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="108">
+          <cell r="A108">
+            <v>1000000000</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>1000000000000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Rail shipments 93-97"/>
       <sheetName val="Waterborne Flows 93-97"/>
       <sheetName val="Air and vessel 93-97"/>
@@ -7483,6 +7584,59 @@
       <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="AEO 7"/>
+      <sheetName val="AEO 35"/>
+      <sheetName val="AEO 43"/>
+      <sheetName val="AEO 46"/>
+      <sheetName val="AEO 49"/>
+      <sheetName val="AEO 36"/>
+      <sheetName val="AEO 47"/>
+      <sheetName val="AEO 48"/>
+      <sheetName val="NTS 1-40"/>
+      <sheetName val="NRBS 40"/>
+      <sheetName val="Calculations Etc"/>
+      <sheetName val="Calibration Adjustments"/>
+      <sheetName val="SEDS Transport"/>
+      <sheetName val="SYVbT"/>
+      <sheetName val="BAADTbVT"/>
+      <sheetName val="SYFAFE-psgr"/>
+      <sheetName val="SYFAFE-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="109">
+          <cell r="A109">
+            <v>1000000000000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7809,22 +7963,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C1" s="51">
+        <v>44307</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7832,58 +7989,58 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="B8" s="5">
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="B9" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="B10" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="B14" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -8037,6 +8194,1042 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AI8"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="30">
+      <c r="A1" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
+      <c r="G1">
+        <v>2025</v>
+      </c>
+      <c r="H1">
+        <v>2026</v>
+      </c>
+      <c r="I1">
+        <v>2027</v>
+      </c>
+      <c r="J1">
+        <v>2028</v>
+      </c>
+      <c r="K1">
+        <v>2029</v>
+      </c>
+      <c r="L1">
+        <v>2030</v>
+      </c>
+      <c r="M1">
+        <v>2031</v>
+      </c>
+      <c r="N1">
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
+      </c>
+      <c r="P1">
+        <v>2034</v>
+      </c>
+      <c r="Q1">
+        <v>2035</v>
+      </c>
+      <c r="R1">
+        <v>2036</v>
+      </c>
+      <c r="S1">
+        <v>2037</v>
+      </c>
+      <c r="T1">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
+      </c>
+      <c r="V1">
+        <v>2040</v>
+      </c>
+      <c r="W1">
+        <v>2041</v>
+      </c>
+      <c r="X1">
+        <v>2042</v>
+      </c>
+      <c r="Y1">
+        <v>2043</v>
+      </c>
+      <c r="Z1">
+        <v>2044</v>
+      </c>
+      <c r="AA1">
+        <v>2045</v>
+      </c>
+      <c r="AB1">
+        <v>2046</v>
+      </c>
+      <c r="AC1">
+        <v>2047</v>
+      </c>
+      <c r="AD1">
+        <v>2048</v>
+      </c>
+      <c r="AE1">
+        <v>2049</v>
+      </c>
+      <c r="AF1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <f>B$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="C2" s="4">
+        <f>C$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <f>D$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="E2" s="4">
+        <f>E$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <f>F$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="G2" s="4">
+        <f>G$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <f>H$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="I2" s="4">
+        <f>I$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="J2" s="4">
+        <f>J$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="K2" s="4">
+        <f>K$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f>L$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5078109440964031E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <f>M$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5422803324033315E-3</v>
+      </c>
+      <c r="N2" s="4">
+        <f>N$5/(1-'Other Values'!$B$3)</f>
+        <v>2.5767497207102594E-3</v>
+      </c>
+      <c r="O2" s="4">
+        <f>O$5/(1-'Other Values'!$B$3)</f>
+        <v>2.6112191090171878E-3</v>
+      </c>
+      <c r="P2" s="4">
+        <f>P$5/(1-'Other Values'!$B$3)</f>
+        <v>2.6456884973241161E-3</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>Q$5/(1-'Other Values'!$B$3)</f>
+        <v>2.680157885631044E-3</v>
+      </c>
+      <c r="R2" s="4">
+        <f>R$5/(1-'Other Values'!$B$3)</f>
+        <v>2.7146272739379724E-3</v>
+      </c>
+      <c r="S2" s="4">
+        <f>S$5/(1-'Other Values'!$B$3)</f>
+        <v>2.7490966622449008E-3</v>
+      </c>
+      <c r="T2" s="4">
+        <f>T$5/(1-'Other Values'!$B$3)</f>
+        <v>2.7835660505518291E-3</v>
+      </c>
+      <c r="U2" s="4">
+        <f>U$5/(1-'Other Values'!$B$3)</f>
+        <v>2.818035438858757E-3</v>
+      </c>
+      <c r="V2" s="4">
+        <f>V$5/(1-'Other Values'!$B$3)</f>
+        <v>2.8525048271656854E-3</v>
+      </c>
+      <c r="W2" s="4">
+        <f>W$5/(1-'Other Values'!$B$3)</f>
+        <v>2.8869742154726138E-3</v>
+      </c>
+      <c r="X2" s="4">
+        <f>X$5/(1-'Other Values'!$B$3)</f>
+        <v>2.9214436037795417E-3</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>Y$5/(1-'Other Values'!$B$3)</f>
+        <v>2.95591299208647E-3</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>Z$5/(1-'Other Values'!$B$3)</f>
+        <v>2.9903823803933984E-3</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>AA$5/(1-'Other Values'!$B$3)</f>
+        <v>3.0248517687003263E-3</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>AB$5/(1-'Other Values'!$B$3)</f>
+        <v>3.0593211570072547E-3</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>AC$5/(1-'Other Values'!$B$3)</f>
+        <v>3.093790545314183E-3</v>
+      </c>
+      <c r="AD2" s="4">
+        <f>AD$5/(1-'Other Values'!$B$3)</f>
+        <v>3.1627293219280363E-3</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>AE$5/(1-'Other Values'!$B$3)</f>
+        <v>3.2232073408349471E-3</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>AF$5/(1-'Other Values'!$B$3)</f>
+        <v>3.2130817636515244E-3</v>
+      </c>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="C3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="D3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="E3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="F3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="G3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="H3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="I3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="K3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="L3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="M3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="N3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="O3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="P3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="R3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="S3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="T3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="U3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="V3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="W3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="X3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="Z3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="AD3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>'SYFAFE (for NG vehicles)'!$C$12</f>
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" ref="B4:K4" si="0">B$5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:U4" si="1">L$5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="1"/>
+        <v>7.911312883639107E-4</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.0185780472514796E-4</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.1258432108638522E-4</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.2331083744762248E-4</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.3403735380885974E-4</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.4476387017009701E-4</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.5549038653133427E-4</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.6621690289257153E-4</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.7694341925380879E-4</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" ref="V4:AF4" si="2">V$5</f>
+        <v>8.8766993561504605E-4</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="shared" si="2"/>
+        <v>8.9839645197628331E-4</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" si="2"/>
+        <v>9.0912296833752057E-4</v>
+      </c>
+      <c r="Y4" s="4">
+        <f t="shared" si="2"/>
+        <v>9.1984948469875784E-4</v>
+      </c>
+      <c r="Z4" s="4">
+        <f t="shared" si="2"/>
+        <v>9.305760010599951E-4</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="shared" si="2"/>
+        <v>9.4130251742123236E-4</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" si="2"/>
+        <v>9.5202903378246962E-4</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" si="2"/>
+        <v>9.6275555014370688E-4</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" si="2"/>
+        <v>9.8420858286618054E-4</v>
+      </c>
+      <c r="AE4" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0030287154871532E-3</v>
+      </c>
+      <c r="AF4" s="4">
+        <f t="shared" si="2"/>
+        <v>9.9987774082065106E-4</v>
+      </c>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <f>Extrapolations!L5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="C5" s="4">
+        <f>Extrapolations!M5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="D5" s="4">
+        <f>Extrapolations!N5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="E5" s="4">
+        <f>Extrapolations!O5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="F5" s="4">
+        <f>Extrapolations!P5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="G5" s="4">
+        <f>Extrapolations!Q5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="H5" s="4">
+        <f>Extrapolations!R5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="I5" s="4">
+        <f>Extrapolations!S5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="J5" s="4">
+        <f>Extrapolations!T5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="K5" s="4">
+        <f>Extrapolations!U5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="L5" s="4">
+        <f>Extrapolations!V5</f>
+        <v>7.8040477200267344E-4</v>
+      </c>
+      <c r="M5" s="4">
+        <f>Extrapolations!W5</f>
+        <v>7.911312883639107E-4</v>
+      </c>
+      <c r="N5" s="4">
+        <f>Extrapolations!X5</f>
+        <v>8.0185780472514796E-4</v>
+      </c>
+      <c r="O5" s="4">
+        <f>Extrapolations!Y5</f>
+        <v>8.1258432108638522E-4</v>
+      </c>
+      <c r="P5" s="4">
+        <f>Extrapolations!Z5</f>
+        <v>8.2331083744762248E-4</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>Extrapolations!AA5</f>
+        <v>8.3403735380885974E-4</v>
+      </c>
+      <c r="R5" s="4">
+        <f>Extrapolations!AB5</f>
+        <v>8.4476387017009701E-4</v>
+      </c>
+      <c r="S5" s="4">
+        <f>Extrapolations!AC5</f>
+        <v>8.5549038653133427E-4</v>
+      </c>
+      <c r="T5" s="4">
+        <f>Extrapolations!AD5</f>
+        <v>8.6621690289257153E-4</v>
+      </c>
+      <c r="U5" s="4">
+        <f>Extrapolations!AE5</f>
+        <v>8.7694341925380879E-4</v>
+      </c>
+      <c r="V5" s="4">
+        <f>Extrapolations!AF5</f>
+        <v>8.8766993561504605E-4</v>
+      </c>
+      <c r="W5" s="4">
+        <f>Extrapolations!AG5</f>
+        <v>8.9839645197628331E-4</v>
+      </c>
+      <c r="X5" s="4">
+        <f>Extrapolations!AH5</f>
+        <v>9.0912296833752057E-4</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>Extrapolations!AI5</f>
+        <v>9.1984948469875784E-4</v>
+      </c>
+      <c r="Z5" s="4">
+        <f>Extrapolations!AJ5</f>
+        <v>9.305760010599951E-4</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>Extrapolations!AK5</f>
+        <v>9.4130251742123236E-4</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>Extrapolations!AL5</f>
+        <v>9.5202903378246962E-4</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>Extrapolations!AM5</f>
+        <v>9.6275555014370688E-4</v>
+      </c>
+      <c r="AD5" s="4">
+        <f>Extrapolations!AN5</f>
+        <v>9.8420858286618054E-4</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>Extrapolations!AO5</f>
+        <v>1.0030287154871532E-3</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>Extrapolations!AP5</f>
+        <v>9.9987774082065106E-4</v>
+      </c>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <f>B$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+B$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="C6" s="4">
+        <f>C$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+C$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <f>D$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+D$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="E6" s="4">
+        <f>E$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+E$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <f>F$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+F$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="G6" s="4">
+        <f>G$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+G$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <f>H$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+H$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <f>I$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+I$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="J6" s="4">
+        <f>J$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+J$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="K6" s="4">
+        <f>K$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+K$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="L6" s="4">
+        <f>L$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+L$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7304781666542248E-3</v>
+      </c>
+      <c r="M6" s="4">
+        <f>M$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+M$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7542632625855922E-3</v>
+      </c>
+      <c r="N6" s="4">
+        <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
+        <v>1.7780483585169596E-3</v>
+      </c>
+      <c r="O6" s="4">
+        <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
+        <v>1.8018334544483267E-3</v>
+      </c>
+      <c r="P6" s="4">
+        <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
+        <v>1.8256185503796941E-3</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
+        <v>1.849403646311061E-3</v>
+      </c>
+      <c r="R6" s="4">
+        <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
+        <v>1.8731887422424286E-3</v>
+      </c>
+      <c r="S6" s="4">
+        <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
+        <v>1.8969738381737959E-3</v>
+      </c>
+      <c r="T6" s="4">
+        <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
+        <v>1.9207589341051633E-3</v>
+      </c>
+      <c r="U6" s="4">
+        <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
+        <v>1.9445440300365304E-3</v>
+      </c>
+      <c r="V6" s="4">
+        <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
+        <v>1.968329125967898E-3</v>
+      </c>
+      <c r="W6" s="4">
+        <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
+        <v>1.9921142218992651E-3</v>
+      </c>
+      <c r="X6" s="4">
+        <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
+        <v>2.0158993178306323E-3</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
+        <v>2.0396844137619999E-3</v>
+      </c>
+      <c r="Z6" s="4">
+        <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
+        <v>2.063469509693367E-3</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
+        <v>2.0872546056247341E-3</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
+        <v>2.1110397015561013E-3</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
+        <v>2.1348247974874689E-3</v>
+      </c>
+      <c r="AD6" s="4">
+        <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
+        <v>2.1823949893502014E-3</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>AE$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AE$5*(1-'Other Values'!$B$6)</f>
+        <v>2.2241269594284402E-3</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>AF$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AF$5*(1-'Other Values'!$B$6)</f>
+        <v>2.2171399533776315E-3</v>
+      </c>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="4">
+        <f>B$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="C7" s="4">
+        <f>C$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <f>D$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="E7" s="4">
+        <f>E$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="F7" s="4">
+        <f>F$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="G7" s="4">
+        <f>G$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="H7" s="4">
+        <f>H$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="I7" s="4">
+        <f>I$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="J7" s="4">
+        <f>J$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="K7" s="4">
+        <f>K$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="L7" s="4">
+        <f>L$4*Calculations!$B$31</f>
+        <v>6.0481369830207193E-4</v>
+      </c>
+      <c r="M7" s="4">
+        <f>M$4*Calculations!$B$31</f>
+        <v>6.1312674848203077E-4</v>
+      </c>
+      <c r="N7" s="4">
+        <f>N$4*Calculations!$B$31</f>
+        <v>6.2143979866198973E-4</v>
+      </c>
+      <c r="O7" s="4">
+        <f>O$4*Calculations!$B$31</f>
+        <v>6.2975284884194858E-4</v>
+      </c>
+      <c r="P7" s="4">
+        <f>P$4*Calculations!$B$31</f>
+        <v>6.3806589902190743E-4</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>Q$4*Calculations!$B$31</f>
+        <v>6.4637894920186627E-4</v>
+      </c>
+      <c r="R7" s="4">
+        <f>R$4*Calculations!$B$31</f>
+        <v>6.5469199938182523E-4</v>
+      </c>
+      <c r="S7" s="4">
+        <f>S$4*Calculations!$B$31</f>
+        <v>6.6300504956178408E-4</v>
+      </c>
+      <c r="T7" s="4">
+        <f>T$4*Calculations!$B$31</f>
+        <v>6.7131809974174293E-4</v>
+      </c>
+      <c r="U7" s="4">
+        <f>U$4*Calculations!$B$31</f>
+        <v>6.7963114992170188E-4</v>
+      </c>
+      <c r="V7" s="4">
+        <f>V$4*Calculations!$B$31</f>
+        <v>6.8794420010166073E-4</v>
+      </c>
+      <c r="W7" s="4">
+        <f>W$4*Calculations!$B$31</f>
+        <v>6.9625725028161958E-4</v>
+      </c>
+      <c r="X7" s="4">
+        <f>X$4*Calculations!$B$31</f>
+        <v>7.0457030046157843E-4</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>Y$4*Calculations!$B$31</f>
+        <v>7.1288335064153738E-4</v>
+      </c>
+      <c r="Z7" s="4">
+        <f>Z$4*Calculations!$B$31</f>
+        <v>7.2119640082149623E-4</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>AA$4*Calculations!$B$31</f>
+        <v>7.2950945100145508E-4</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>AB$4*Calculations!$B$31</f>
+        <v>7.3782250118141393E-4</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>AC$4*Calculations!$B$31</f>
+        <v>7.4613555136137288E-4</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>AD$4*Calculations!$B$31</f>
+        <v>7.6276165172128993E-4</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>AE$4*Calculations!$B$31</f>
+        <v>7.7734725450254378E-4</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>AF$4*Calculations!$B$31</f>
+        <v>7.7490524913600457E-4</v>
+      </c>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="4">
+        <f>B$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <f>D$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="E8" s="4">
+        <f>E$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <f>F$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <f>G$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <f>H$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="I8" s="4">
+        <f>I$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <f>J$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <f>K$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="L8" s="4">
+        <f>L$4*Calculations!$B$27</f>
+        <v>2.34121431600802E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <f>M$4*Calculations!$B$27</f>
+        <v>2.3733938650917319E-3</v>
+      </c>
+      <c r="N8" s="4">
+        <f>N$4*Calculations!$B$27</f>
+        <v>2.4055734141754433E-3</v>
+      </c>
+      <c r="O8" s="4">
+        <f>O$4*Calculations!$B$27</f>
+        <v>2.4377529632591552E-3</v>
+      </c>
+      <c r="P8" s="4">
+        <f>P$4*Calculations!$B$27</f>
+        <v>2.4699325123428671E-3</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>Q$4*Calculations!$B$27</f>
+        <v>2.502112061426579E-3</v>
+      </c>
+      <c r="R8" s="4">
+        <f>R$4*Calculations!$B$27</f>
+        <v>2.5342916105102905E-3</v>
+      </c>
+      <c r="S8" s="4">
+        <f>S$4*Calculations!$B$27</f>
+        <v>2.5664711595940024E-3</v>
+      </c>
+      <c r="T8" s="4">
+        <f>T$4*Calculations!$B$27</f>
+        <v>2.5986507086777143E-3</v>
+      </c>
+      <c r="U8" s="4">
+        <f>U$4*Calculations!$B$27</f>
+        <v>2.6308302577614262E-3</v>
+      </c>
+      <c r="V8" s="4">
+        <f>V$4*Calculations!$B$27</f>
+        <v>2.6630098068451376E-3</v>
+      </c>
+      <c r="W8" s="4">
+        <f>W$4*Calculations!$B$27</f>
+        <v>2.6951893559288495E-3</v>
+      </c>
+      <c r="X8" s="4">
+        <f>X$4*Calculations!$B$27</f>
+        <v>2.7273689050125614E-3</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>Y$4*Calculations!$B$27</f>
+        <v>2.7595484540962733E-3</v>
+      </c>
+      <c r="Z8" s="4">
+        <f>Z$4*Calculations!$B$27</f>
+        <v>2.7917280031799848E-3</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>AA$4*Calculations!$B$27</f>
+        <v>2.8239075522636966E-3</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>AB$4*Calculations!$B$27</f>
+        <v>2.8560871013474085E-3</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>AC$4*Calculations!$B$27</f>
+        <v>2.8882666504311204E-3</v>
+      </c>
+      <c r="AD8" s="4">
+        <f>AD$4*Calculations!$B$27</f>
+        <v>2.9526257485985412E-3</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>AE$4*Calculations!$B$27</f>
+        <v>3.0090861464614591E-3</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>AF$4*Calculations!$B$27</f>
+        <v>2.9996332224619528E-3</v>
+      </c>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -8047,7 +9240,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
@@ -8940,7 +10133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -8951,7 +10144,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
@@ -9844,7 +11037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -9855,7 +11048,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -10784,7 +11977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -10795,7 +11988,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
@@ -11688,7 +12881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -11699,7 +12892,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
@@ -12592,7 +13785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -12603,7 +13796,7 @@
       <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
@@ -13496,7 +14689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -13507,7 +14700,7 @@
       <selection activeCell="B1" sqref="B1:AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
@@ -13746,127 +14939,127 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$4</f>
+        <f t="shared" ref="B3:AF3" si="0">B$4</f>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="C3" s="4">
-        <f>C$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="D3" s="4">
-        <f>D$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="E3" s="4">
-        <f>E$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="F3" s="4">
-        <f>F$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="G3" s="4">
-        <f>G$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="H3" s="4">
-        <f>H$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="I3" s="4">
-        <f>I$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="J3" s="4">
-        <f>J$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="K3" s="4">
-        <f>K$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="L3" s="4">
-        <f>L$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="M3" s="4">
-        <f>M$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="N3" s="4">
-        <f>N$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="O3" s="4">
-        <f>O$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="P3" s="4">
-        <f>P$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="R3" s="4">
-        <f>R$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="S3" s="4">
-        <f>S$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="T3" s="4">
-        <f>T$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="U3" s="4">
-        <f>U$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="V3" s="4">
-        <f>V$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="W3" s="4">
-        <f>W$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="X3" s="4">
-        <f>X$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AH3" s="4"/>
@@ -14008,127 +15201,127 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>B$4</f>
+        <f t="shared" ref="B5:AF5" si="1">B$4</f>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="C5" s="4">
-        <f>C$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="D5" s="4">
-        <f>D$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="E5" s="4">
-        <f>E$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="F5" s="4">
-        <f>F$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="G5" s="4">
-        <f>G$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="H5" s="4">
-        <f>H$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="I5" s="4">
-        <f>I$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="J5" s="4">
-        <f>J$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="K5" s="4">
-        <f>K$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="L5" s="4">
-        <f>L$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="M5" s="4">
-        <f>M$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="N5" s="4">
-        <f>N$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="O5" s="4">
-        <f>O$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="P5" s="4">
-        <f>P$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="Q5" s="4">
-        <f>Q$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="R5" s="4">
-        <f>R$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="S5" s="4">
-        <f>S$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="T5" s="4">
-        <f>T$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="U5" s="4">
-        <f>U$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="V5" s="4">
-        <f>V$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="W5" s="4">
-        <f>W$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="X5" s="4">
-        <f>X$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Y5" s="4">
-        <f>Y$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Z5" s="4">
-        <f>Z$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AA5" s="4">
-        <f>AA$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AB5" s="4">
-        <f>AB$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AC5" s="4">
-        <f>AC$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AD5" s="4">
-        <f>AD$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AE5" s="4">
-        <f>AE$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AF5" s="4">
-        <f>AF$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AH5" s="4"/>
@@ -14532,7 +15725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -14543,7 +15736,7 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
@@ -15365,11 +16558,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
@@ -15658,97 +16851,97 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>9.2380125600871724E-5</v>
+        <v>9.2976582255788396E-5</v>
       </c>
       <c r="E9" s="4">
-        <v>9.219309829263994E-5</v>
+        <v>9.2788347396885706E-5</v>
       </c>
       <c r="F9" s="4">
-        <v>9.1559103172633992E-5</v>
+        <v>9.2150258857369327E-5</v>
       </c>
       <c r="G9" s="4">
-        <v>9.1353641791139538E-5</v>
+        <v>9.1943470904737144E-5</v>
       </c>
       <c r="H9" s="4">
-        <v>9.1309772714612039E-5</v>
+        <v>9.1899318585439966E-5</v>
       </c>
       <c r="I9" s="4">
-        <v>9.1727283528872551E-5</v>
+        <v>9.2319525078040856E-5</v>
       </c>
       <c r="J9" s="4">
-        <v>9.2100032073698612E-5</v>
+        <v>9.2694680291495327E-5</v>
       </c>
       <c r="K9" s="4">
-        <v>9.2305136532437853E-5</v>
+        <v>9.2901109016883625E-5</v>
       </c>
       <c r="L9" s="4">
-        <v>9.1620615504101768E-5</v>
+        <v>9.2212168346117676E-5</v>
       </c>
       <c r="M9" s="4">
-        <v>9.1326863616208426E-5</v>
+        <v>9.19165198352517E-5</v>
       </c>
       <c r="N9" s="4">
-        <v>9.0946057693078308E-5</v>
+        <v>9.1533255220648671E-5</v>
       </c>
       <c r="O9" s="4">
-        <v>9.0400981470945208E-5</v>
+        <v>9.0984659688079332E-5</v>
       </c>
       <c r="P9" s="4">
-        <v>8.9778862849115799E-5</v>
+        <v>9.0358524327912283E-5</v>
       </c>
       <c r="Q9" s="4">
-        <v>8.9156599246297398E-5</v>
+        <v>8.97322430506796E-5</v>
       </c>
       <c r="R9" s="4">
-        <v>8.8631662360611819E-5</v>
+        <v>8.9203916885137102E-5</v>
       </c>
       <c r="S9" s="4">
-        <v>8.7943084749779726E-5</v>
+        <v>8.85108934403582E-5</v>
       </c>
       <c r="T9" s="4">
-        <v>8.7573294998797346E-5</v>
+        <v>8.8138716124339965E-5</v>
       </c>
       <c r="U9" s="4">
-        <v>8.7069226169957413E-5</v>
+        <v>8.7631392751240183E-5</v>
       </c>
       <c r="V9" s="4">
-        <v>8.6871435981294458E-5</v>
+        <v>8.7432325520859236E-5</v>
       </c>
       <c r="W9" s="4">
-        <v>8.6747571549133394E-5</v>
+        <v>8.7307661352127247E-5</v>
       </c>
       <c r="X9" s="4">
-        <v>8.6669857452234005E-5</v>
+        <v>8.722944549048165E-5</v>
       </c>
       <c r="Y9" s="4">
-        <v>8.662306841739351E-5</v>
+        <v>8.718235436002237E-5</v>
       </c>
       <c r="Z9" s="4">
-        <v>8.6546781831867863E-5</v>
+        <v>8.7105575226545284E-5</v>
       </c>
       <c r="AA9" s="4">
-        <v>8.6512992189387129E-5</v>
+        <v>8.707156741963803E-5</v>
       </c>
       <c r="AB9" s="4">
-        <v>8.6486778796134947E-5</v>
+        <v>8.7045184778371156E-5</v>
       </c>
       <c r="AC9" s="4">
-        <v>8.6441703335980475E-5</v>
+        <v>8.6999818286373988E-5</v>
       </c>
       <c r="AD9" s="4">
-        <v>8.6431601732089286E-5</v>
+        <v>8.6989651460999E-5</v>
       </c>
       <c r="AE9" s="4">
-        <v>8.6243095042905357E-5</v>
+        <v>8.6799927669451015E-5</v>
       </c>
       <c r="AF9" s="4">
-        <v>8.6035767614588875E-5</v>
+        <v>8.6591261621777151E-5</v>
       </c>
       <c r="AG9" s="4">
-        <v>8.5821368562436881E-5</v>
+        <v>8.6375478291993656E-5</v>
       </c>
       <c r="AH9" s="4">
-        <v>8.559520997794513E-5</v>
+        <v>8.614785950389308E-5</v>
       </c>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
@@ -15874,97 +17067,97 @@
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>9.2034955727881304E-4</v>
+        <v>9.8420858286618054E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>9.3794857137722578E-4</v>
+        <v>1.0030287154871532E-3</v>
       </c>
       <c r="F11" s="4">
-        <v>9.3500204338529676E-4</v>
+        <v>9.9987774082065106E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>9.4450518097673522E-4</v>
+        <v>1.0100402595155109E-3</v>
       </c>
       <c r="H11" s="4">
-        <v>9.6553094726227289E-4</v>
+        <v>1.0325249116521942E-3</v>
       </c>
       <c r="I11" s="4">
-        <v>9.9202472083761615E-4</v>
+        <v>1.0608569721602286E-3</v>
       </c>
       <c r="J11" s="4">
-        <v>1.0204549915404683E-3</v>
+        <v>1.0912598948515679E-3</v>
       </c>
       <c r="K11" s="4">
-        <v>1.0517667621207619E-3</v>
+        <v>1.124744252078814E-3</v>
       </c>
       <c r="L11" s="4">
-        <v>1.0714253139951938E-3</v>
+        <v>1.1457668247834094E-3</v>
       </c>
       <c r="M11" s="4">
-        <v>1.0927335887791732E-3</v>
+        <v>1.1685535874461422E-3</v>
       </c>
       <c r="N11" s="4">
-        <v>1.1084724701472082E-3</v>
+        <v>1.1853845208720599E-3</v>
       </c>
       <c r="O11" s="4">
-        <v>1.1212183953006243E-3</v>
+        <v>1.1990148299577217E-3</v>
       </c>
       <c r="P11" s="4">
-        <v>1.1265509849157651E-3</v>
+        <v>1.2047174246149544E-3</v>
       </c>
       <c r="Q11" s="4">
-        <v>1.1262441806540653E-3</v>
+        <v>1.2043893325490249E-3</v>
       </c>
       <c r="R11" s="4">
-        <v>1.1263184748685799E-3</v>
+        <v>1.2044687817137519E-3</v>
       </c>
       <c r="S11" s="4">
-        <v>1.1257669710917103E-3</v>
+        <v>1.2038790115048291E-3</v>
       </c>
       <c r="T11" s="4">
-        <v>1.1240566768554406E-3</v>
+        <v>1.2020500474408489E-3</v>
       </c>
       <c r="U11" s="4">
-        <v>1.1231142484226817E-3</v>
+        <v>1.2010422280260159E-3</v>
       </c>
       <c r="V11" s="4">
-        <v>1.1241515401583754E-3</v>
+        <v>1.2021514928929698E-3</v>
       </c>
       <c r="W11" s="4">
-        <v>1.1224282188798294E-3</v>
+        <v>1.2003085978972948E-3</v>
       </c>
       <c r="X11" s="4">
-        <v>1.119439944891256E-3</v>
+        <v>1.1971129806622458E-3</v>
       </c>
       <c r="Y11" s="4">
-        <v>1.1180165169692845E-3</v>
+        <v>1.1955907873099313E-3</v>
       </c>
       <c r="Z11" s="4">
-        <v>1.118177323275613E-3</v>
+        <v>1.1957627512616882E-3</v>
       </c>
       <c r="AA11" s="4">
-        <v>1.1185238583405013E-3</v>
+        <v>1.1961333308772588E-3</v>
       </c>
       <c r="AB11" s="4">
-        <v>1.1197710010246366E-3</v>
+        <v>1.1974670073310338E-3</v>
       </c>
       <c r="AC11" s="4">
-        <v>1.1216340297167265E-3</v>
+        <v>1.1994593034259026E-3</v>
       </c>
       <c r="AD11" s="4">
-        <v>1.1220820780488356E-3</v>
+        <v>1.1999384398697819E-3</v>
       </c>
       <c r="AE11" s="4">
-        <v>1.1245809182148494E-3</v>
+        <v>1.2026106636125447E-3</v>
       </c>
       <c r="AF11" s="4">
-        <v>1.1271758246963568E-3</v>
+        <v>1.2053856192917605E-3</v>
       </c>
       <c r="AG11" s="4">
-        <v>1.1260899004142818E-3</v>
+        <v>1.2042243474789929E-3</v>
       </c>
       <c r="AH11" s="4">
-        <v>1.1259813441496596E-3</v>
+        <v>1.2041082589705342E-3</v>
       </c>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
@@ -16950,7 +18143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.42578125" customWidth="1"/>
   </cols>
@@ -17059,7 +18252,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.140625" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
@@ -17344,12 +18537,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I47" sqref="I47"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" customWidth="1"/>
@@ -17805,179 +18998,179 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="17" cm="1">
         <f t="array" ref="AA3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AA1)</f>
-        <v>9.6229391725409031E-5</v>
+        <v>9.6850701349312281E-5</v>
       </c>
       <c r="AB3" s="17" cm="1">
         <f t="array" ref="AB3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AB1)</f>
-        <v>9.5931375498007091E-5</v>
+        <v>9.6550760966027755E-5</v>
       </c>
       <c r="AC3" s="17" cm="1">
         <f t="array" ref="AC3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AC1)</f>
-        <v>9.5633359270605152E-5</v>
+        <v>9.6250820582743229E-5</v>
       </c>
       <c r="AD3" s="17" cm="1">
         <f t="array" ref="AD3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AD1)</f>
-        <v>9.5335343043203105E-5</v>
+        <v>9.5950880199458704E-5</v>
       </c>
       <c r="AE3" s="17" cm="1">
         <f t="array" ref="AE3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AE1)</f>
-        <v>9.5037326815801165E-5</v>
+        <v>9.5650939816174178E-5</v>
       </c>
       <c r="AF3" s="17" cm="1">
         <f t="array" ref="AF3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AF1)</f>
-        <v>9.4739310588399226E-5</v>
+        <v>9.5350999432889543E-5</v>
       </c>
       <c r="AG3" s="17" cm="1">
         <f t="array" ref="AG3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AG1)</f>
-        <v>9.4441294360997179E-5</v>
+        <v>9.5051059049605017E-5</v>
       </c>
       <c r="AH3" s="17" cm="1">
         <f t="array" ref="AH3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AH1)</f>
-        <v>9.4143278133595239E-5</v>
+        <v>9.4751118666320491E-5</v>
       </c>
       <c r="AI3" s="17" cm="1">
         <f t="array" ref="AI3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AI1)</f>
-        <v>9.38452619061933E-5</v>
+        <v>9.4451178283035966E-5</v>
       </c>
       <c r="AJ3" s="17" cm="1">
         <f t="array" ref="AJ3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AJ1)</f>
-        <v>9.3547245678791253E-5</v>
+        <v>9.415123789975144E-5</v>
       </c>
       <c r="AK3" s="17" cm="1">
         <f t="array" ref="AK3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AK1)</f>
-        <v>9.3249229451389313E-5</v>
+        <v>9.3851297516466914E-5</v>
       </c>
       <c r="AL3" s="17" cm="1">
         <f t="array" ref="AL3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AL1)</f>
-        <v>9.2951213223987374E-5</v>
+        <v>9.3551357133182279E-5</v>
       </c>
       <c r="AM3" s="41" cm="1">
         <f t="array" ref="AM3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AM1)</f>
-        <v>9.2653196996585327E-5</v>
+        <v>9.3251416749897753E-5</v>
       </c>
       <c r="AN3" s="15">
         <f>BNVFE!D9</f>
-        <v>9.2380125600871724E-5</v>
+        <v>9.2976582255788396E-5</v>
       </c>
       <c r="AO3" s="15">
         <f>BNVFE!E9</f>
-        <v>9.219309829263994E-5</v>
+        <v>9.2788347396885706E-5</v>
       </c>
       <c r="AP3" s="15">
         <f>BNVFE!F9</f>
-        <v>9.1559103172633992E-5</v>
+        <v>9.2150258857369327E-5</v>
       </c>
       <c r="AQ3" s="15">
         <f>BNVFE!G9</f>
-        <v>9.1353641791139538E-5</v>
+        <v>9.1943470904737144E-5</v>
       </c>
       <c r="AR3" s="15">
         <f>BNVFE!H9</f>
-        <v>9.1309772714612039E-5</v>
+        <v>9.1899318585439966E-5</v>
       </c>
       <c r="AS3" s="15">
         <f>BNVFE!I9</f>
-        <v>9.1727283528872551E-5</v>
+        <v>9.2319525078040856E-5</v>
       </c>
       <c r="AT3" s="15">
         <f>BNVFE!J9</f>
-        <v>9.2100032073698612E-5</v>
+        <v>9.2694680291495327E-5</v>
       </c>
       <c r="AU3" s="15">
         <f>BNVFE!K9</f>
-        <v>9.2305136532437853E-5</v>
+        <v>9.2901109016883625E-5</v>
       </c>
       <c r="AV3" s="15">
         <f>BNVFE!L9</f>
-        <v>9.1620615504101768E-5</v>
+        <v>9.2212168346117676E-5</v>
       </c>
       <c r="AW3" s="15">
         <f>BNVFE!M9</f>
-        <v>9.1326863616208426E-5</v>
+        <v>9.19165198352517E-5</v>
       </c>
       <c r="AX3" s="15">
         <f>BNVFE!N9</f>
-        <v>9.0946057693078308E-5</v>
+        <v>9.1533255220648671E-5</v>
       </c>
       <c r="AY3" s="15">
         <f>BNVFE!O9</f>
-        <v>9.0400981470945208E-5</v>
+        <v>9.0984659688079332E-5</v>
       </c>
       <c r="AZ3" s="15">
         <f>BNVFE!P9</f>
-        <v>8.9778862849115799E-5</v>
+        <v>9.0358524327912283E-5</v>
       </c>
       <c r="BA3" s="15">
         <f>BNVFE!Q9</f>
-        <v>8.9156599246297398E-5</v>
+        <v>8.97322430506796E-5</v>
       </c>
       <c r="BB3" s="15">
         <f>BNVFE!R9</f>
-        <v>8.8631662360611819E-5</v>
+        <v>8.9203916885137102E-5</v>
       </c>
       <c r="BC3" s="15">
         <f>BNVFE!S9</f>
-        <v>8.7943084749779726E-5</v>
+        <v>8.85108934403582E-5</v>
       </c>
       <c r="BD3" s="15">
         <f>BNVFE!T9</f>
-        <v>8.7573294998797346E-5</v>
+        <v>8.8138716124339965E-5</v>
       </c>
       <c r="BE3" s="15">
         <f>BNVFE!U9</f>
-        <v>8.7069226169957413E-5</v>
+        <v>8.7631392751240183E-5</v>
       </c>
       <c r="BF3" s="15">
         <f>BNVFE!V9</f>
-        <v>8.6871435981294458E-5</v>
+        <v>8.7432325520859236E-5</v>
       </c>
       <c r="BG3" s="15">
         <f>BNVFE!W9</f>
-        <v>8.6747571549133394E-5</v>
+        <v>8.7307661352127247E-5</v>
       </c>
       <c r="BH3" s="15">
         <f>BNVFE!X9</f>
-        <v>8.6669857452234005E-5</v>
+        <v>8.722944549048165E-5</v>
       </c>
       <c r="BI3" s="15">
         <f>BNVFE!Y9</f>
-        <v>8.662306841739351E-5</v>
+        <v>8.718235436002237E-5</v>
       </c>
       <c r="BJ3" s="15">
         <f>BNVFE!Z9</f>
-        <v>8.6546781831867863E-5</v>
+        <v>8.7105575226545284E-5</v>
       </c>
       <c r="BK3" s="15">
         <f>BNVFE!AA9</f>
-        <v>8.6512992189387129E-5</v>
+        <v>8.707156741963803E-5</v>
       </c>
       <c r="BL3" s="15">
         <f>BNVFE!AB9</f>
-        <v>8.6486778796134947E-5</v>
+        <v>8.7045184778371156E-5</v>
       </c>
       <c r="BM3" s="15">
         <f>BNVFE!AC9</f>
-        <v>8.6441703335980475E-5</v>
+        <v>8.6999818286373988E-5</v>
       </c>
       <c r="BN3" s="15">
         <f>BNVFE!AD9</f>
-        <v>8.6431601732089286E-5</v>
+        <v>8.6989651460999E-5</v>
       </c>
       <c r="BO3" s="15">
         <f>BNVFE!AE9</f>
-        <v>8.6243095042905357E-5</v>
+        <v>8.6799927669451015E-5</v>
       </c>
       <c r="BP3" s="15">
         <f>BNVFE!AF9</f>
-        <v>8.6035767614588875E-5</v>
+        <v>8.6591261621777151E-5</v>
       </c>
       <c r="BQ3" s="15">
         <f>BNVFE!AG9</f>
-        <v>8.5821368562436881E-5</v>
+        <v>8.6375478291993656E-5</v>
       </c>
       <c r="BR3" s="15">
         <f>BNVFE!AH9</f>
-        <v>8.559520997794513E-5</v>
+        <v>8.614785950389308E-5</v>
       </c>
       <c r="BS3" s="15"/>
       <c r="BT3" s="4"/>
@@ -18000,115 +19193,115 @@
       <c r="K4" s="11"/>
       <c r="L4" s="17">
         <f>L5/M5*M4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="M4" s="17">
-        <f t="shared" ref="L4:AI4" si="1">M5/N5*N4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="N4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="O4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="P4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="Q4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="R4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="S4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="T4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="U4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="V4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="W4" s="17">
         <f t="shared" si="1"/>
-        <v>7.8513065209783318E-4</v>
+        <v>7.373209214829149E-4</v>
       </c>
       <c r="X4" s="17">
         <f t="shared" si="1"/>
-        <v>7.924714869854924E-4</v>
+        <v>7.4731785251584736E-4</v>
       </c>
       <c r="Y4" s="17">
         <f t="shared" si="1"/>
-        <v>7.9981232187315162E-4</v>
+        <v>7.5731478354877982E-4</v>
       </c>
       <c r="Z4" s="17">
         <f t="shared" si="1"/>
-        <v>8.0715315676081084E-4</v>
+        <v>7.6731171458171228E-4</v>
       </c>
       <c r="AA4" s="17">
         <f t="shared" si="1"/>
-        <v>8.1449399164846995E-4</v>
+        <v>7.7730864561464475E-4</v>
       </c>
       <c r="AB4" s="17">
         <f t="shared" si="1"/>
-        <v>8.2183482653612906E-4</v>
+        <v>7.8730557664757721E-4</v>
       </c>
       <c r="AC4" s="17">
         <f t="shared" si="1"/>
-        <v>8.2917566142378827E-4</v>
+        <v>7.9730250768050967E-4</v>
       </c>
       <c r="AD4" s="17">
         <f t="shared" si="1"/>
-        <v>8.3651649631144749E-4</v>
+        <v>8.0729943871344213E-4</v>
       </c>
       <c r="AE4" s="17">
         <f t="shared" si="1"/>
-        <v>8.4385733119910671E-4</v>
+        <v>8.1729636974637459E-4</v>
       </c>
       <c r="AF4" s="17">
         <f t="shared" si="1"/>
-        <v>8.5119816608676593E-4</v>
+        <v>8.2729330077930706E-4</v>
       </c>
       <c r="AG4" s="17">
         <f>AG5/AH5*AH4</f>
-        <v>8.5853900097442514E-4</v>
+        <v>8.3729023181223952E-4</v>
       </c>
       <c r="AH4" s="17">
         <f t="shared" si="1"/>
-        <v>8.6587983586208436E-4</v>
+        <v>8.4728716284517198E-4</v>
       </c>
       <c r="AI4" s="17">
         <f t="shared" si="1"/>
-        <v>8.7322067074974358E-4</v>
+        <v>8.5728409387810444E-4</v>
       </c>
       <c r="AJ4" s="17">
         <f>AJ5/AK5*AK4</f>
-        <v>8.805615056374028E-4</v>
+        <v>8.672810249110369E-4</v>
       </c>
       <c r="AK4" s="30">
         <f>AK5/AL5*AL4</f>
-        <v>8.8790234052506202E-4</v>
+        <v>8.7727795594396937E-4</v>
       </c>
       <c r="AL4" s="30">
         <f>AL5/AM5*AM4</f>
-        <v>8.9524317541272123E-4</v>
+        <v>8.8727488697690183E-4</v>
       </c>
       <c r="AM4" s="31">
         <f>AM5/AN5*AN4</f>
-        <v>9.0258401030038045E-4</v>
+        <v>8.9727181800983429E-4</v>
       </c>
       <c r="AN4" s="15">
         <f>BNVFE!D10</f>
@@ -18258,7 +19451,7 @@
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="M5" s="17">
-        <f t="shared" ref="L5:T5" si="2">N5</f>
+        <f t="shared" ref="M5:T5" si="2">N5</f>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="N5" s="17">
@@ -18299,195 +19492,195 @@
       </c>
       <c r="W5" s="17">
         <f>($AN$5-$V$5)/COUNT($V$1:$AN$1)+V5</f>
-        <v>7.8777028701720712E-4</v>
+        <v>7.911312883639107E-4</v>
       </c>
       <c r="X5" s="17">
         <f t="shared" ref="X5:AM5" si="3">($AN$5-$V$5)/COUNT($V$1:$AN$1)+W5</f>
-        <v>7.9513580203174081E-4</v>
+        <v>8.0185780472514796E-4</v>
       </c>
       <c r="Y5" s="17">
         <f t="shared" si="3"/>
-        <v>8.0250131704627449E-4</v>
+        <v>8.1258432108638522E-4</v>
       </c>
       <c r="Z5" s="17">
         <f t="shared" si="3"/>
-        <v>8.0986683206080818E-4</v>
+        <v>8.2331083744762248E-4</v>
       </c>
       <c r="AA5" s="17">
         <f t="shared" si="3"/>
-        <v>8.1723234707534187E-4</v>
+        <v>8.3403735380885974E-4</v>
       </c>
       <c r="AB5" s="17">
         <f t="shared" si="3"/>
-        <v>8.2459786208987555E-4</v>
+        <v>8.4476387017009701E-4</v>
       </c>
       <c r="AC5" s="17">
         <f t="shared" si="3"/>
-        <v>8.3196337710440924E-4</v>
+        <v>8.5549038653133427E-4</v>
       </c>
       <c r="AD5" s="17">
         <f t="shared" si="3"/>
-        <v>8.3932889211894293E-4</v>
+        <v>8.6621690289257153E-4</v>
       </c>
       <c r="AE5" s="17">
         <f t="shared" si="3"/>
-        <v>8.4669440713347661E-4</v>
+        <v>8.7694341925380879E-4</v>
       </c>
       <c r="AF5" s="17">
         <f t="shared" si="3"/>
-        <v>8.540599221480103E-4</v>
+        <v>8.8766993561504605E-4</v>
       </c>
       <c r="AG5" s="17">
         <f t="shared" si="3"/>
-        <v>8.6142543716254398E-4</v>
+        <v>8.9839645197628331E-4</v>
       </c>
       <c r="AH5" s="17">
         <f t="shared" si="3"/>
-        <v>8.6879095217707767E-4</v>
+        <v>9.0912296833752057E-4</v>
       </c>
       <c r="AI5" s="17">
         <f t="shared" si="3"/>
-        <v>8.7615646719161136E-4</v>
+        <v>9.1984948469875784E-4</v>
       </c>
       <c r="AJ5" s="17">
         <f t="shared" si="3"/>
-        <v>8.8352198220614504E-4</v>
+        <v>9.305760010599951E-4</v>
       </c>
       <c r="AK5" s="17">
         <f t="shared" si="3"/>
-        <v>8.9088749722067873E-4</v>
+        <v>9.4130251742123236E-4</v>
       </c>
       <c r="AL5" s="17">
         <f t="shared" si="3"/>
-        <v>8.9825301223521242E-4</v>
+        <v>9.5202903378246962E-4</v>
       </c>
       <c r="AM5" s="41">
         <f t="shared" si="3"/>
-        <v>9.056185272497461E-4</v>
+        <v>9.6275555014370688E-4</v>
       </c>
       <c r="AN5" s="15">
         <f>BNVFE!D11</f>
-        <v>9.2034955727881304E-4</v>
+        <v>9.8420858286618054E-4</v>
       </c>
       <c r="AO5" s="15">
         <f>BNVFE!E11</f>
-        <v>9.3794857137722578E-4</v>
+        <v>1.0030287154871532E-3</v>
       </c>
       <c r="AP5" s="15">
         <f>BNVFE!F11</f>
-        <v>9.3500204338529676E-4</v>
+        <v>9.9987774082065106E-4</v>
       </c>
       <c r="AQ5" s="15">
         <f>BNVFE!G11</f>
-        <v>9.4450518097673522E-4</v>
+        <v>1.0100402595155109E-3</v>
       </c>
       <c r="AR5" s="15">
         <f>BNVFE!H11</f>
-        <v>9.6553094726227289E-4</v>
+        <v>1.0325249116521942E-3</v>
       </c>
       <c r="AS5" s="15">
         <f>BNVFE!I11</f>
-        <v>9.9202472083761615E-4</v>
+        <v>1.0608569721602286E-3</v>
       </c>
       <c r="AT5" s="15">
         <f>BNVFE!J11</f>
-        <v>1.0204549915404683E-3</v>
+        <v>1.0912598948515679E-3</v>
       </c>
       <c r="AU5" s="15">
         <f>BNVFE!K11</f>
-        <v>1.0517667621207619E-3</v>
+        <v>1.124744252078814E-3</v>
       </c>
       <c r="AV5" s="15">
         <f>BNVFE!L11</f>
-        <v>1.0714253139951938E-3</v>
+        <v>1.1457668247834094E-3</v>
       </c>
       <c r="AW5" s="15">
         <f>BNVFE!M11</f>
-        <v>1.0927335887791732E-3</v>
+        <v>1.1685535874461422E-3</v>
       </c>
       <c r="AX5" s="15">
         <f>BNVFE!N11</f>
-        <v>1.1084724701472082E-3</v>
+        <v>1.1853845208720599E-3</v>
       </c>
       <c r="AY5" s="15">
         <f>BNVFE!O11</f>
-        <v>1.1212183953006243E-3</v>
+        <v>1.1990148299577217E-3</v>
       </c>
       <c r="AZ5" s="15">
         <f>BNVFE!P11</f>
-        <v>1.1265509849157651E-3</v>
+        <v>1.2047174246149544E-3</v>
       </c>
       <c r="BA5" s="15">
         <f>BNVFE!Q11</f>
-        <v>1.1262441806540653E-3</v>
+        <v>1.2043893325490249E-3</v>
       </c>
       <c r="BB5" s="15">
         <f>BNVFE!R11</f>
-        <v>1.1263184748685799E-3</v>
+        <v>1.2044687817137519E-3</v>
       </c>
       <c r="BC5" s="15">
         <f>BNVFE!S11</f>
-        <v>1.1257669710917103E-3</v>
+        <v>1.2038790115048291E-3</v>
       </c>
       <c r="BD5" s="15">
         <f>BNVFE!T11</f>
-        <v>1.1240566768554406E-3</v>
+        <v>1.2020500474408489E-3</v>
       </c>
       <c r="BE5" s="15">
         <f>BNVFE!U11</f>
-        <v>1.1231142484226817E-3</v>
+        <v>1.2010422280260159E-3</v>
       </c>
       <c r="BF5" s="15">
         <f>BNVFE!V11</f>
-        <v>1.1241515401583754E-3</v>
+        <v>1.2021514928929698E-3</v>
       </c>
       <c r="BG5" s="15">
         <f>BNVFE!W11</f>
-        <v>1.1224282188798294E-3</v>
+        <v>1.2003085978972948E-3</v>
       </c>
       <c r="BH5" s="15">
         <f>BNVFE!X11</f>
-        <v>1.119439944891256E-3</v>
+        <v>1.1971129806622458E-3</v>
       </c>
       <c r="BI5" s="15">
         <f>BNVFE!Y11</f>
-        <v>1.1180165169692845E-3</v>
+        <v>1.1955907873099313E-3</v>
       </c>
       <c r="BJ5" s="15">
         <f>BNVFE!Z11</f>
-        <v>1.118177323275613E-3</v>
+        <v>1.1957627512616882E-3</v>
       </c>
       <c r="BK5" s="15">
         <f>BNVFE!AA11</f>
-        <v>1.1185238583405013E-3</v>
+        <v>1.1961333308772588E-3</v>
       </c>
       <c r="BL5" s="15">
         <f>BNVFE!AB11</f>
-        <v>1.1197710010246366E-3</v>
+        <v>1.1974670073310338E-3</v>
       </c>
       <c r="BM5" s="15">
         <f>BNVFE!AC11</f>
-        <v>1.1216340297167265E-3</v>
+        <v>1.1994593034259026E-3</v>
       </c>
       <c r="BN5" s="15">
         <f>BNVFE!AD11</f>
-        <v>1.1220820780488356E-3</v>
+        <v>1.1999384398697819E-3</v>
       </c>
       <c r="BO5" s="15">
         <f>BNVFE!AE11</f>
-        <v>1.1245809182148494E-3</v>
+        <v>1.2026106636125447E-3</v>
       </c>
       <c r="BP5" s="15">
         <f>BNVFE!AF11</f>
-        <v>1.1271758246963568E-3</v>
+        <v>1.2053856192917605E-3</v>
       </c>
       <c r="BQ5" s="15">
         <f>BNVFE!AG11</f>
-        <v>1.1260899004142818E-3</v>
+        <v>1.2042243474789929E-3</v>
       </c>
       <c r="BR5" s="15">
         <f>BNVFE!AH11</f>
-        <v>1.1259813441496596E-3</v>
+        <v>1.2041082589705342E-3</v>
       </c>
       <c r="BS5" s="15"/>
       <c r="BT5" s="4"/>
@@ -18760,7 +19953,7 @@
         <v>9.5187813128868486E-5</v>
       </c>
       <c r="Q7" s="29">
-        <f t="shared" ref="Q7:AM7" si="5">TREND($AN7:$BR7,$AN$1:$BR$1,Q$1)-($AR7-$AN7)</f>
+        <f t="shared" ref="Q7:AL7" si="5">TREND($AN7:$BR7,$AN$1:$BR$1,Q$1)-($AR7-$AN7)</f>
         <v>9.5449046418027842E-5</v>
       </c>
       <c r="R7" s="29">
@@ -20792,6 +21985,401 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C613F4DF-15AD-4C41-A812-225B20693204}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="44">
+        <v>1.0094082465469424E-3</v>
+      </c>
+      <c r="C3" s="44">
+        <v>7.4836420697954824E-6</v>
+      </c>
+      <c r="D3" s="45">
+        <v>3.1700424271722166E-4</v>
+      </c>
+      <c r="E3" s="46">
+        <v>3.1700424271722166E-4</v>
+      </c>
+      <c r="F3" s="46">
+        <v>6.9782644482356809E-4</v>
+      </c>
+      <c r="G3" s="46">
+        <v>2.4567828810584678E-4</v>
+      </c>
+      <c r="H3" s="46">
+        <v>9.5101272815166483E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="44">
+        <v>2.8309727187687166E-3</v>
+      </c>
+      <c r="C4" s="44">
+        <v>2.6928817015314281E-6</v>
+      </c>
+      <c r="D4" s="46">
+        <v>8.8096936666512947E-4</v>
+      </c>
+      <c r="E4" s="45">
+        <v>8.8096936666512947E-4</v>
+      </c>
+      <c r="F4" s="46">
+        <v>1.9534712103221026E-3</v>
+      </c>
+      <c r="G4" s="46">
+        <v>6.8275125916547532E-4</v>
+      </c>
+      <c r="H4" s="46">
+        <v>2.6429080999953881E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1.4307537620687272E-3</v>
+      </c>
+      <c r="C5" s="44">
+        <v>4.452357407992435E-4</v>
+      </c>
+      <c r="D5" s="44">
+        <v>4.452357407992435E-4</v>
+      </c>
+      <c r="E5" s="45">
+        <v>4.452357407992435E-4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="46">
+        <v>1.3357072223977302E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1.2405209526886144E-3</v>
+      </c>
+      <c r="C6" s="44">
+        <v>4.2438874697242065E-4</v>
+      </c>
+      <c r="D6" s="44">
+        <v>4.2438874697242065E-4</v>
+      </c>
+      <c r="E6" s="46">
+        <v>4.2438874697242065E-4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="46">
+        <v>1.2731662409172617E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="44">
+        <v>3.2293530565471139E-5</v>
+      </c>
+      <c r="C7" s="44">
+        <v>1.0049411985156037E-5</v>
+      </c>
+      <c r="D7" s="44">
+        <v>1.0049411985156037E-5</v>
+      </c>
+      <c r="E7" s="45">
+        <v>1.0049411985156037E-5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="46">
+        <v>3.0148235955468109E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="44">
+        <v>3.8347187299137405E-3</v>
+      </c>
+      <c r="C8" s="44">
+        <v>1.204291832534894E-3</v>
+      </c>
+      <c r="D8" s="45">
+        <v>1.204291832534894E-3</v>
+      </c>
+      <c r="E8" s="46">
+        <v>1.204291832534894E-3</v>
+      </c>
+      <c r="F8" s="46">
+        <v>2.6510266260932596E-3</v>
+      </c>
+      <c r="G8" s="46">
+        <v>9.3332617021454293E-4</v>
+      </c>
+      <c r="H8" s="46">
+        <v>3.6128754976046816E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="46">
+        <v>2.7175224068570606E-4</v>
+      </c>
+      <c r="C11" s="46">
+        <v>2.7797562958068832E-5</v>
+      </c>
+      <c r="D11" s="48">
+        <v>8.5343678893031675E-5</v>
+      </c>
+      <c r="E11" s="49">
+        <v>8.5343678893031675E-5</v>
+      </c>
+      <c r="F11" s="46">
+        <v>1.8786838787900257E-4</v>
+      </c>
+      <c r="G11" s="46">
+        <v>6.6141351142099544E-5</v>
+      </c>
+      <c r="H11" s="46">
+        <v>2.5603103667909497E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="46">
+        <v>2.6158745070478042E-3</v>
+      </c>
+      <c r="C12" s="46">
+        <v>2.9143120632765266E-6</v>
+      </c>
+      <c r="D12" s="49">
+        <v>8.1403303269968186E-4</v>
+      </c>
+      <c r="E12" s="48">
+        <v>8.1403303269968186E-4</v>
+      </c>
+      <c r="F12" s="46">
+        <v>1.8050458435911491E-3</v>
+      </c>
+      <c r="G12" s="46">
+        <v>6.3087560034225348E-4</v>
+      </c>
+      <c r="H12" s="46">
+        <v>2.442099098099045E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="44">
+        <v>3.6837767936328798E-4</v>
+      </c>
+      <c r="C13" s="44">
+        <v>1.146353155333106E-4</v>
+      </c>
+      <c r="D13" s="46">
+        <v>1.146353155333106E-4</v>
+      </c>
+      <c r="E13" s="50">
+        <v>1.146353155333106E-4</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="46">
+        <v>3.4390594659993172E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="44">
+        <v>1.1140743815291445E-2</v>
+      </c>
+      <c r="C14" s="44">
+        <v>3.4668839999999999E-3</v>
+      </c>
+      <c r="D14" s="46">
+        <v>3.4668839999999999E-3</v>
+      </c>
+      <c r="E14" s="50">
+        <v>3.4668839999999999E-3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="46">
+        <v>1.0400651999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="44">
+        <v>1.5467626362604087E-2</v>
+      </c>
+      <c r="C15" s="44">
+        <v>4.813365E-3</v>
+      </c>
+      <c r="D15" s="46">
+        <v>4.813365E-3</v>
+      </c>
+      <c r="E15" s="50">
+        <v>4.813365E-3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="46">
+        <v>1.4440094999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>3.8347187299137405E-3</v>
+      </c>
+      <c r="C16">
+        <v>1.204291832534894E-3</v>
+      </c>
+      <c r="D16">
+        <v>1.204291832534894E-3</v>
+      </c>
+      <c r="E16">
+        <v>1.204291832534894E-3</v>
+      </c>
+      <c r="F16">
+        <v>2.6510266260932596E-3</v>
+      </c>
+      <c r="G16">
+        <v>9.3332617021454293E-4</v>
+      </c>
+      <c r="H16">
+        <v>3.6128754976046816E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -20799,10 +22387,10 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
@@ -21041,128 +22629,128 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$4</f>
-        <v>3.142498616321923E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="C3" s="4">
-        <f>C$4</f>
-        <v>3.207320075161445E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="D3" s="4">
-        <f>D$4</f>
-        <v>3.272141534000967E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="E3" s="4">
-        <f>E$4</f>
-        <v>3.336962992840489E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="F3" s="4">
-        <f>F$4</f>
-        <v>3.401784451680011E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="G3" s="4">
-        <f>G$4</f>
-        <v>3.466605910519533E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="H3" s="4">
-        <f>H$4</f>
-        <v>3.531427369359055E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="I3" s="4">
-        <f>I$4</f>
-        <v>3.596248828198577E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="J3" s="4">
-        <f>J$4</f>
-        <v>3.661070287038099E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="K3" s="4">
-        <f>K$4</f>
-        <v>3.725891745877621E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="L3" s="4">
-        <f>L$4</f>
-        <v>3.790713204717143E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="M3" s="4">
-        <f>M$4</f>
-        <v>3.855534663556665E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="N3" s="4">
-        <f>N$4</f>
-        <v>3.920356122396187E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="O3" s="4">
-        <f>O$4</f>
-        <v>3.9851775812357079E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="P3" s="4">
-        <f>P$4</f>
-        <v>4.1245238248791824E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$4</f>
-        <v>4.1996419698319429E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="R3" s="4">
-        <f>R$4</f>
-        <v>4.2487319850780349E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="S3" s="4">
-        <f>S$4</f>
-        <v>4.284100729130481E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="T3" s="4">
-        <f>T$4</f>
-        <v>4.3229475648161309E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="U3" s="4">
-        <f>U$4</f>
-        <v>4.3562407119964938E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="V3" s="4">
-        <f>V$4</f>
-        <v>4.3560812002075292E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="W3" s="4">
-        <f>W$4</f>
-        <v>4.3525902639902458E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="X3" s="4">
-        <f>X$4</f>
-        <v>4.3494323063744613E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$4</f>
-        <v>4.3556364713577859E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$4</f>
-        <v>4.3522567663302421E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$4</f>
-        <v>4.3485093567965249E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$4</f>
-        <v>4.3444409287052158E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$4</f>
-        <v>4.3426236094515938E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$4</f>
-        <v>4.3334550299972978E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$4</f>
-        <v>4.3240292886877814E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$4</f>
-        <v>4.3170566760387615E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$3</f>
+        <v>7.4836420697954824E-6</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -21303,127 +22891,127 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>B$4</f>
+        <f t="shared" ref="B5:AF5" si="0">B$4</f>
         <v>3.142498616321923E-4</v>
       </c>
       <c r="C5" s="4">
-        <f>C$4</f>
+        <f t="shared" si="0"/>
         <v>3.207320075161445E-4</v>
       </c>
       <c r="D5" s="4">
-        <f>D$4</f>
+        <f t="shared" si="0"/>
         <v>3.272141534000967E-4</v>
       </c>
       <c r="E5" s="4">
-        <f>E$4</f>
+        <f t="shared" si="0"/>
         <v>3.336962992840489E-4</v>
       </c>
       <c r="F5" s="4">
-        <f>F$4</f>
+        <f t="shared" si="0"/>
         <v>3.401784451680011E-4</v>
       </c>
       <c r="G5" s="4">
-        <f>G$4</f>
+        <f t="shared" si="0"/>
         <v>3.466605910519533E-4</v>
       </c>
       <c r="H5" s="4">
-        <f>H$4</f>
+        <f t="shared" si="0"/>
         <v>3.531427369359055E-4</v>
       </c>
       <c r="I5" s="4">
-        <f>I$4</f>
+        <f t="shared" si="0"/>
         <v>3.596248828198577E-4</v>
       </c>
       <c r="J5" s="4">
-        <f>J$4</f>
+        <f t="shared" si="0"/>
         <v>3.661070287038099E-4</v>
       </c>
       <c r="K5" s="4">
-        <f>K$4</f>
+        <f t="shared" si="0"/>
         <v>3.725891745877621E-4</v>
       </c>
       <c r="L5" s="4">
-        <f>L$4</f>
+        <f t="shared" si="0"/>
         <v>3.790713204717143E-4</v>
       </c>
       <c r="M5" s="4">
-        <f>M$4</f>
+        <f t="shared" si="0"/>
         <v>3.855534663556665E-4</v>
       </c>
       <c r="N5" s="4">
-        <f>N$4</f>
+        <f t="shared" si="0"/>
         <v>3.920356122396187E-4</v>
       </c>
       <c r="O5" s="4">
-        <f>O$4</f>
+        <f t="shared" si="0"/>
         <v>3.9851775812357079E-4</v>
       </c>
       <c r="P5" s="4">
-        <f>P$4</f>
+        <f t="shared" si="0"/>
         <v>4.1245238248791824E-4</v>
       </c>
       <c r="Q5" s="4">
-        <f>Q$4</f>
+        <f t="shared" si="0"/>
         <v>4.1996419698319429E-4</v>
       </c>
       <c r="R5" s="4">
-        <f>R$4</f>
+        <f t="shared" si="0"/>
         <v>4.2487319850780349E-4</v>
       </c>
       <c r="S5" s="4">
-        <f>S$4</f>
+        <f t="shared" si="0"/>
         <v>4.284100729130481E-4</v>
       </c>
       <c r="T5" s="4">
-        <f>T$4</f>
+        <f t="shared" si="0"/>
         <v>4.3229475648161309E-4</v>
       </c>
       <c r="U5" s="4">
-        <f>U$4</f>
+        <f t="shared" si="0"/>
         <v>4.3562407119964938E-4</v>
       </c>
       <c r="V5" s="4">
-        <f>V$4</f>
+        <f t="shared" si="0"/>
         <v>4.3560812002075292E-4</v>
       </c>
       <c r="W5" s="4">
-        <f>W$4</f>
+        <f t="shared" si="0"/>
         <v>4.3525902639902458E-4</v>
       </c>
       <c r="X5" s="4">
-        <f>X$4</f>
+        <f t="shared" si="0"/>
         <v>4.3494323063744613E-4</v>
       </c>
       <c r="Y5" s="4">
-        <f>Y$4</f>
+        <f t="shared" si="0"/>
         <v>4.3556364713577859E-4</v>
       </c>
       <c r="Z5" s="4">
-        <f>Z$4</f>
+        <f t="shared" si="0"/>
         <v>4.3522567663302421E-4</v>
       </c>
       <c r="AA5" s="4">
-        <f>AA$4</f>
+        <f t="shared" si="0"/>
         <v>4.3485093567965249E-4</v>
       </c>
       <c r="AB5" s="4">
-        <f>AB$4</f>
+        <f t="shared" si="0"/>
         <v>4.3444409287052158E-4</v>
       </c>
       <c r="AC5" s="4">
-        <f>AC$4</f>
+        <f t="shared" si="0"/>
         <v>4.3426236094515938E-4</v>
       </c>
       <c r="AD5" s="4">
-        <f>AD$4</f>
+        <f t="shared" si="0"/>
         <v>4.3334550299972978E-4</v>
       </c>
       <c r="AE5" s="4">
-        <f>AE$4</f>
+        <f t="shared" si="0"/>
         <v>4.3240292886877814E-4</v>
       </c>
       <c r="AF5" s="4">
-        <f>AF$4</f>
+        <f t="shared" si="0"/>
         <v>4.3170566760387615E-4</v>
       </c>
       <c r="AH5" s="4"/>
@@ -21818,1042 +23406,6 @@
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
         <v>1.2951170028116282E-3</v>
-      </c>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AI8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="30">
-      <c r="A1" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1">
-        <v>2021</v>
-      </c>
-      <c r="D1">
-        <v>2022</v>
-      </c>
-      <c r="E1">
-        <v>2023</v>
-      </c>
-      <c r="F1">
-        <v>2024</v>
-      </c>
-      <c r="G1">
-        <v>2025</v>
-      </c>
-      <c r="H1">
-        <v>2026</v>
-      </c>
-      <c r="I1">
-        <v>2027</v>
-      </c>
-      <c r="J1">
-        <v>2028</v>
-      </c>
-      <c r="K1">
-        <v>2029</v>
-      </c>
-      <c r="L1">
-        <v>2030</v>
-      </c>
-      <c r="M1">
-        <v>2031</v>
-      </c>
-      <c r="N1">
-        <v>2032</v>
-      </c>
-      <c r="O1">
-        <v>2033</v>
-      </c>
-      <c r="P1">
-        <v>2034</v>
-      </c>
-      <c r="Q1">
-        <v>2035</v>
-      </c>
-      <c r="R1">
-        <v>2036</v>
-      </c>
-      <c r="S1">
-        <v>2037</v>
-      </c>
-      <c r="T1">
-        <v>2038</v>
-      </c>
-      <c r="U1">
-        <v>2039</v>
-      </c>
-      <c r="V1">
-        <v>2040</v>
-      </c>
-      <c r="W1">
-        <v>2041</v>
-      </c>
-      <c r="X1">
-        <v>2042</v>
-      </c>
-      <c r="Y1">
-        <v>2043</v>
-      </c>
-      <c r="Z1">
-        <v>2044</v>
-      </c>
-      <c r="AA1">
-        <v>2045</v>
-      </c>
-      <c r="AB1">
-        <v>2046</v>
-      </c>
-      <c r="AC1">
-        <v>2047</v>
-      </c>
-      <c r="AD1">
-        <v>2048</v>
-      </c>
-      <c r="AE1">
-        <v>2049</v>
-      </c>
-      <c r="AF1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0641464207301289E-4</v>
-      </c>
-      <c r="C2" s="4">
-        <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0546569566470671E-4</v>
-      </c>
-      <c r="D2" s="4">
-        <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0451674925640053E-4</v>
-      </c>
-      <c r="E2" s="4">
-        <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0356780284809402E-4</v>
-      </c>
-      <c r="F2" s="4">
-        <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0261885643978784E-4</v>
-      </c>
-      <c r="G2" s="4">
-        <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0166991003148166E-4</v>
-      </c>
-      <c r="H2" s="4">
-        <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0072096362317516E-4</v>
-      </c>
-      <c r="I2" s="4">
-        <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9977201721486898E-4</v>
-      </c>
-      <c r="J2" s="4">
-        <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>2.988230708065628E-4</v>
-      </c>
-      <c r="K2" s="4">
-        <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9787412439825629E-4</v>
-      </c>
-      <c r="L2" s="4">
-        <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9692517798995011E-4</v>
-      </c>
-      <c r="M2" s="4">
-        <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9597623158164393E-4</v>
-      </c>
-      <c r="N2" s="4">
-        <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9502728517333742E-4</v>
-      </c>
-      <c r="O2" s="4">
-        <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9415776836067041E-4</v>
-      </c>
-      <c r="P2" s="4">
-        <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9356223403709025E-4</v>
-      </c>
-      <c r="Q2" s="4">
-        <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>2.915434601023345E-4</v>
-      </c>
-      <c r="R2" s="4">
-        <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9088922780862847E-4</v>
-      </c>
-      <c r="S2" s="4">
-        <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9074953943336986E-4</v>
-      </c>
-      <c r="T2" s="4">
-        <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9207898176298886E-4</v>
-      </c>
-      <c r="U2" s="4">
-        <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9326589160309292E-4</v>
-      </c>
-      <c r="V2" s="4">
-        <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9391898737960467E-4</v>
-      </c>
-      <c r="W2" s="4">
-        <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>2.917393283156924E-4</v>
-      </c>
-      <c r="X2" s="4">
-        <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>2.908039604621373E-4</v>
-      </c>
-      <c r="Y2" s="4">
-        <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8959139423322296E-4</v>
-      </c>
-      <c r="Z2" s="4">
-        <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>2.878557567890623E-4</v>
-      </c>
-      <c r="AA2" s="4">
-        <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8587480012481605E-4</v>
-      </c>
-      <c r="AB2" s="4">
-        <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>2.838933818105785E-4</v>
-      </c>
-      <c r="AC2" s="4">
-        <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8222187225352704E-4</v>
-      </c>
-      <c r="AD2" s="4">
-        <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8002929617693015E-4</v>
-      </c>
-      <c r="AE2" s="4">
-        <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>2.7885180775932833E-4</v>
-      </c>
-      <c r="AF2" s="4">
-        <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>2.7724674648854853E-4</v>
-      </c>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-    </row>
-    <row r="3" spans="1:35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <f>B$4</f>
-        <v>9.6229391725409031E-5</v>
-      </c>
-      <c r="C3" s="4">
-        <f>C$4</f>
-        <v>9.5931375498007091E-5</v>
-      </c>
-      <c r="D3" s="4">
-        <f>D$4</f>
-        <v>9.5633359270605152E-5</v>
-      </c>
-      <c r="E3" s="4">
-        <f>E$4</f>
-        <v>9.5335343043203105E-5</v>
-      </c>
-      <c r="F3" s="4">
-        <f>F$4</f>
-        <v>9.5037326815801165E-5</v>
-      </c>
-      <c r="G3" s="4">
-        <f>G$4</f>
-        <v>9.4739310588399226E-5</v>
-      </c>
-      <c r="H3" s="4">
-        <f>H$4</f>
-        <v>9.4441294360997179E-5</v>
-      </c>
-      <c r="I3" s="4">
-        <f>I$4</f>
-        <v>9.4143278133595239E-5</v>
-      </c>
-      <c r="J3" s="4">
-        <f>J$4</f>
-        <v>9.38452619061933E-5</v>
-      </c>
-      <c r="K3" s="4">
-        <f>K$4</f>
-        <v>9.3547245678791253E-5</v>
-      </c>
-      <c r="L3" s="4">
-        <f>L$4</f>
-        <v>9.3249229451389313E-5</v>
-      </c>
-      <c r="M3" s="4">
-        <f>M$4</f>
-        <v>9.2951213223987374E-5</v>
-      </c>
-      <c r="N3" s="4">
-        <f>N$4</f>
-        <v>9.2653196996585327E-5</v>
-      </c>
-      <c r="O3" s="4">
-        <f>O$4</f>
-        <v>9.2380125600871724E-5</v>
-      </c>
-      <c r="P3" s="4">
-        <f>P$4</f>
-        <v>9.219309829263994E-5</v>
-      </c>
-      <c r="Q3" s="4">
-        <f>Q$4</f>
-        <v>9.1559103172633992E-5</v>
-      </c>
-      <c r="R3" s="4">
-        <f>R$4</f>
-        <v>9.1353641791139538E-5</v>
-      </c>
-      <c r="S3" s="4">
-        <f>S$4</f>
-        <v>9.1309772714612039E-5</v>
-      </c>
-      <c r="T3" s="4">
-        <f>T$4</f>
-        <v>9.1727283528872551E-5</v>
-      </c>
-      <c r="U3" s="4">
-        <f>U$4</f>
-        <v>9.2100032073698612E-5</v>
-      </c>
-      <c r="V3" s="4">
-        <f>V$4</f>
-        <v>9.2305136532437853E-5</v>
-      </c>
-      <c r="W3" s="4">
-        <f>W$4</f>
-        <v>9.1620615504101768E-5</v>
-      </c>
-      <c r="X3" s="4">
-        <f>X$4</f>
-        <v>9.1326863616208426E-5</v>
-      </c>
-      <c r="Y3" s="4">
-        <f>Y$4</f>
-        <v>9.0946057693078308E-5</v>
-      </c>
-      <c r="Z3" s="4">
-        <f>Z$4</f>
-        <v>9.0400981470945208E-5</v>
-      </c>
-      <c r="AA3" s="4">
-        <f>AA$4</f>
-        <v>8.9778862849115799E-5</v>
-      </c>
-      <c r="AB3" s="4">
-        <f>AB$4</f>
-        <v>8.9156599246297398E-5</v>
-      </c>
-      <c r="AC3" s="4">
-        <f>AC$4</f>
-        <v>8.8631662360611819E-5</v>
-      </c>
-      <c r="AD3" s="4">
-        <f>AD$4</f>
-        <v>8.7943084749779726E-5</v>
-      </c>
-      <c r="AE3" s="4">
-        <f>AE$4</f>
-        <v>8.7573294998797346E-5</v>
-      </c>
-      <c r="AF3" s="4">
-        <f>AF$4</f>
-        <v>8.7069226169957413E-5</v>
-      </c>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-    </row>
-    <row r="4" spans="1:35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <f>Extrapolations!AA3</f>
-        <v>9.6229391725409031E-5</v>
-      </c>
-      <c r="C4" s="4">
-        <f>Extrapolations!AB3</f>
-        <v>9.5931375498007091E-5</v>
-      </c>
-      <c r="D4" s="4">
-        <f>Extrapolations!AC3</f>
-        <v>9.5633359270605152E-5</v>
-      </c>
-      <c r="E4" s="4">
-        <f>Extrapolations!AD3</f>
-        <v>9.5335343043203105E-5</v>
-      </c>
-      <c r="F4" s="4">
-        <f>Extrapolations!AE3</f>
-        <v>9.5037326815801165E-5</v>
-      </c>
-      <c r="G4" s="4">
-        <f>Extrapolations!AF3</f>
-        <v>9.4739310588399226E-5</v>
-      </c>
-      <c r="H4" s="4">
-        <f>Extrapolations!AG3</f>
-        <v>9.4441294360997179E-5</v>
-      </c>
-      <c r="I4" s="4">
-        <f>Extrapolations!AH3</f>
-        <v>9.4143278133595239E-5</v>
-      </c>
-      <c r="J4" s="4">
-        <f>Extrapolations!AI3</f>
-        <v>9.38452619061933E-5</v>
-      </c>
-      <c r="K4" s="4">
-        <f>Extrapolations!AJ3</f>
-        <v>9.3547245678791253E-5</v>
-      </c>
-      <c r="L4" s="4">
-        <f>Extrapolations!AK3</f>
-        <v>9.3249229451389313E-5</v>
-      </c>
-      <c r="M4" s="4">
-        <f>Extrapolations!AL3</f>
-        <v>9.2951213223987374E-5</v>
-      </c>
-      <c r="N4" s="4">
-        <f>Extrapolations!AM3</f>
-        <v>9.2653196996585327E-5</v>
-      </c>
-      <c r="O4" s="4">
-        <f>Extrapolations!AN3</f>
-        <v>9.2380125600871724E-5</v>
-      </c>
-      <c r="P4" s="4">
-        <f>Extrapolations!AO3</f>
-        <v>9.219309829263994E-5</v>
-      </c>
-      <c r="Q4" s="4">
-        <f>Extrapolations!AP3</f>
-        <v>9.1559103172633992E-5</v>
-      </c>
-      <c r="R4" s="4">
-        <f>Extrapolations!AQ3</f>
-        <v>9.1353641791139538E-5</v>
-      </c>
-      <c r="S4" s="4">
-        <f>Extrapolations!AR3</f>
-        <v>9.1309772714612039E-5</v>
-      </c>
-      <c r="T4" s="4">
-        <f>Extrapolations!AS3</f>
-        <v>9.1727283528872551E-5</v>
-      </c>
-      <c r="U4" s="4">
-        <f>Extrapolations!AT3</f>
-        <v>9.2100032073698612E-5</v>
-      </c>
-      <c r="V4" s="4">
-        <f>Extrapolations!AU3</f>
-        <v>9.2305136532437853E-5</v>
-      </c>
-      <c r="W4" s="4">
-        <f>Extrapolations!AV3</f>
-        <v>9.1620615504101768E-5</v>
-      </c>
-      <c r="X4" s="4">
-        <f>Extrapolations!AW3</f>
-        <v>9.1326863616208426E-5</v>
-      </c>
-      <c r="Y4" s="4">
-        <f>Extrapolations!AX3</f>
-        <v>9.0946057693078308E-5</v>
-      </c>
-      <c r="Z4" s="4">
-        <f>Extrapolations!AY3</f>
-        <v>9.0400981470945208E-5</v>
-      </c>
-      <c r="AA4" s="4">
-        <f>Extrapolations!AZ3</f>
-        <v>8.9778862849115799E-5</v>
-      </c>
-      <c r="AB4" s="4">
-        <f>Extrapolations!BA3</f>
-        <v>8.9156599246297398E-5</v>
-      </c>
-      <c r="AC4" s="4">
-        <f>Extrapolations!BB3</f>
-        <v>8.8631662360611819E-5</v>
-      </c>
-      <c r="AD4" s="4">
-        <f>Extrapolations!BC3</f>
-        <v>8.7943084749779726E-5</v>
-      </c>
-      <c r="AE4" s="4">
-        <f>Extrapolations!BD3</f>
-        <v>8.7573294998797346E-5</v>
-      </c>
-      <c r="AF4" s="4">
-        <f>Extrapolations!BE3</f>
-        <v>8.7069226169957413E-5</v>
-      </c>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-    </row>
-    <row r="5" spans="1:35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <f>B$4</f>
-        <v>9.6229391725409031E-5</v>
-      </c>
-      <c r="C5" s="4">
-        <f>C$4</f>
-        <v>9.5931375498007091E-5</v>
-      </c>
-      <c r="D5" s="4">
-        <f>D$4</f>
-        <v>9.5633359270605152E-5</v>
-      </c>
-      <c r="E5" s="4">
-        <f>E$4</f>
-        <v>9.5335343043203105E-5</v>
-      </c>
-      <c r="F5" s="4">
-        <f>F$4</f>
-        <v>9.5037326815801165E-5</v>
-      </c>
-      <c r="G5" s="4">
-        <f>G$4</f>
-        <v>9.4739310588399226E-5</v>
-      </c>
-      <c r="H5" s="4">
-        <f>H$4</f>
-        <v>9.4441294360997179E-5</v>
-      </c>
-      <c r="I5" s="4">
-        <f>I$4</f>
-        <v>9.4143278133595239E-5</v>
-      </c>
-      <c r="J5" s="4">
-        <f>J$4</f>
-        <v>9.38452619061933E-5</v>
-      </c>
-      <c r="K5" s="4">
-        <f>K$4</f>
-        <v>9.3547245678791253E-5</v>
-      </c>
-      <c r="L5" s="4">
-        <f>L$4</f>
-        <v>9.3249229451389313E-5</v>
-      </c>
-      <c r="M5" s="4">
-        <f>M$4</f>
-        <v>9.2951213223987374E-5</v>
-      </c>
-      <c r="N5" s="4">
-        <f>N$4</f>
-        <v>9.2653196996585327E-5</v>
-      </c>
-      <c r="O5" s="4">
-        <f>O$4</f>
-        <v>9.2380125600871724E-5</v>
-      </c>
-      <c r="P5" s="4">
-        <f>P$4</f>
-        <v>9.219309829263994E-5</v>
-      </c>
-      <c r="Q5" s="4">
-        <f>Q$4</f>
-        <v>9.1559103172633992E-5</v>
-      </c>
-      <c r="R5" s="4">
-        <f>R$4</f>
-        <v>9.1353641791139538E-5</v>
-      </c>
-      <c r="S5" s="4">
-        <f>S$4</f>
-        <v>9.1309772714612039E-5</v>
-      </c>
-      <c r="T5" s="4">
-        <f>T$4</f>
-        <v>9.1727283528872551E-5</v>
-      </c>
-      <c r="U5" s="4">
-        <f>U$4</f>
-        <v>9.2100032073698612E-5</v>
-      </c>
-      <c r="V5" s="4">
-        <f>V$4</f>
-        <v>9.2305136532437853E-5</v>
-      </c>
-      <c r="W5" s="4">
-        <f>W$4</f>
-        <v>9.1620615504101768E-5</v>
-      </c>
-      <c r="X5" s="4">
-        <f>X$4</f>
-        <v>9.1326863616208426E-5</v>
-      </c>
-      <c r="Y5" s="4">
-        <f>Y$4</f>
-        <v>9.0946057693078308E-5</v>
-      </c>
-      <c r="Z5" s="4">
-        <f>Z$4</f>
-        <v>9.0400981470945208E-5</v>
-      </c>
-      <c r="AA5" s="4">
-        <f>AA$4</f>
-        <v>8.9778862849115799E-5</v>
-      </c>
-      <c r="AB5" s="4">
-        <f>AB$4</f>
-        <v>8.9156599246297398E-5</v>
-      </c>
-      <c r="AC5" s="4">
-        <f>AC$4</f>
-        <v>8.8631662360611819E-5</v>
-      </c>
-      <c r="AD5" s="4">
-        <f>AD$4</f>
-        <v>8.7943084749779726E-5</v>
-      </c>
-      <c r="AE5" s="4">
-        <f>AE$4</f>
-        <v>8.7573294998797346E-5</v>
-      </c>
-      <c r="AF5" s="4">
-        <f>AF$4</f>
-        <v>8.7069226169957413E-5</v>
-      </c>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1183127941659115E-4</v>
-      </c>
-      <c r="C6" s="4">
-        <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1117525158969189E-4</v>
-      </c>
-      <c r="D6" s="4">
-        <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1051922376279263E-4</v>
-      </c>
-      <c r="E6" s="4">
-        <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0986319593589313E-4</v>
-      </c>
-      <c r="F6" s="4">
-        <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0920716810899384E-4</v>
-      </c>
-      <c r="G6" s="4">
-        <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0855114028209458E-4</v>
-      </c>
-      <c r="H6" s="4">
-        <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>2.078951124551951E-4</v>
-      </c>
-      <c r="I6" s="4">
-        <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0723908462829581E-4</v>
-      </c>
-      <c r="J6" s="4">
-        <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0658305680139655E-4</v>
-      </c>
-      <c r="K6" s="4">
-        <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0592702897449702E-4</v>
-      </c>
-      <c r="L6" s="4">
-        <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0527100114759776E-4</v>
-      </c>
-      <c r="M6" s="4">
-        <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>2.046149733206985E-4</v>
-      </c>
-      <c r="N6" s="4">
-        <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0395894549379899E-4</v>
-      </c>
-      <c r="O6" s="4">
-        <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0335782911876102E-4</v>
-      </c>
-      <c r="P6" s="4">
-        <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0294612295208763E-4</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0155049948396926E-4</v>
-      </c>
-      <c r="R6" s="4">
-        <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0109821410075848E-4</v>
-      </c>
-      <c r="S6" s="4">
-        <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0100164440992884E-4</v>
-      </c>
-      <c r="T6" s="4">
-        <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0192071755763654E-4</v>
-      </c>
-      <c r="U6" s="4">
-        <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0274125481486549E-4</v>
-      </c>
-      <c r="V6" s="4">
-        <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0319275449837962E-4</v>
-      </c>
-      <c r="W6" s="4">
-        <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0168590755047661E-4</v>
-      </c>
-      <c r="X6" s="4">
-        <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0103926688146931E-4</v>
-      </c>
-      <c r="Y6" s="4">
-        <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0020099279015788E-4</v>
-      </c>
-      <c r="Z6" s="4">
-        <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9900110789590963E-4</v>
-      </c>
-      <c r="AA6" s="4">
-        <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9763162835075097E-4</v>
-      </c>
-      <c r="AB6" s="4">
-        <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9626182965665201E-4</v>
-      </c>
-      <c r="AC6" s="4">
-        <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9510627780171521E-4</v>
-      </c>
-      <c r="AD6" s="4">
-        <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9359050103471247E-4</v>
-      </c>
-      <c r="AE6" s="4">
-        <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>1.927764770170894E-4</v>
-      </c>
-      <c r="AF6" s="4">
-        <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9166686234518252E-4</v>
-      </c>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="4">
-        <f>B$4*Calculations!$B$31</f>
-        <v>7.4577778587192007E-5</v>
-      </c>
-      <c r="C7" s="4">
-        <f>C$4*Calculations!$B$31</f>
-        <v>7.4346816010955499E-5</v>
-      </c>
-      <c r="D7" s="4">
-        <f>D$4*Calculations!$B$31</f>
-        <v>7.411585343471899E-5</v>
-      </c>
-      <c r="E7" s="4">
-        <f>E$4*Calculations!$B$31</f>
-        <v>7.3884890858482414E-5</v>
-      </c>
-      <c r="F7" s="4">
-        <f>F$4*Calculations!$B$31</f>
-        <v>7.3653928282245906E-5</v>
-      </c>
-      <c r="G7" s="4">
-        <f>G$4*Calculations!$B$31</f>
-        <v>7.3422965706009398E-5</v>
-      </c>
-      <c r="H7" s="4">
-        <f>H$4*Calculations!$B$31</f>
-        <v>7.3192003129772822E-5</v>
-      </c>
-      <c r="I7" s="4">
-        <f>I$4*Calculations!$B$31</f>
-        <v>7.2961040553536313E-5</v>
-      </c>
-      <c r="J7" s="4">
-        <f>J$4*Calculations!$B$31</f>
-        <v>7.2730077977299805E-5</v>
-      </c>
-      <c r="K7" s="4">
-        <f>K$4*Calculations!$B$31</f>
-        <v>7.2499115401063229E-5</v>
-      </c>
-      <c r="L7" s="4">
-        <f>L$4*Calculations!$B$31</f>
-        <v>7.2268152824826721E-5</v>
-      </c>
-      <c r="M7" s="4">
-        <f>M$4*Calculations!$B$31</f>
-        <v>7.2037190248590212E-5</v>
-      </c>
-      <c r="N7" s="4">
-        <f>N$4*Calculations!$B$31</f>
-        <v>7.1806227672353636E-5</v>
-      </c>
-      <c r="O7" s="4">
-        <f>O$4*Calculations!$B$31</f>
-        <v>7.1594597340675587E-5</v>
-      </c>
-      <c r="P7" s="4">
-        <f>P$4*Calculations!$B$31</f>
-        <v>7.1449651176795956E-5</v>
-      </c>
-      <c r="Q7" s="4">
-        <f>Q$4*Calculations!$B$31</f>
-        <v>7.0958304958791341E-5</v>
-      </c>
-      <c r="R7" s="4">
-        <f>R$4*Calculations!$B$31</f>
-        <v>7.0799072388133137E-5</v>
-      </c>
-      <c r="S7" s="4">
-        <f>S$4*Calculations!$B$31</f>
-        <v>7.0765073853824333E-5</v>
-      </c>
-      <c r="T7" s="4">
-        <f>T$4*Calculations!$B$31</f>
-        <v>7.1088644734876226E-5</v>
-      </c>
-      <c r="U7" s="4">
-        <f>U$4*Calculations!$B$31</f>
-        <v>7.1377524857116432E-5</v>
-      </c>
-      <c r="V7" s="4">
-        <f>V$4*Calculations!$B$31</f>
-        <v>7.1536480812639338E-5</v>
-      </c>
-      <c r="W7" s="4">
-        <f>W$4*Calculations!$B$31</f>
-        <v>7.1005977015678866E-5</v>
-      </c>
-      <c r="X7" s="4">
-        <f>X$4*Calculations!$B$31</f>
-        <v>7.0778319302561529E-5</v>
-      </c>
-      <c r="Y7" s="4">
-        <f>Y$4*Calculations!$B$31</f>
-        <v>7.0483194712135693E-5</v>
-      </c>
-      <c r="Z7" s="4">
-        <f>Z$4*Calculations!$B$31</f>
-        <v>7.0060760639982536E-5</v>
-      </c>
-      <c r="AA7" s="4">
-        <f>AA$4*Calculations!$B$31</f>
-        <v>6.9578618708064752E-5</v>
-      </c>
-      <c r="AB7" s="4">
-        <f>AB$4*Calculations!$B$31</f>
-        <v>6.9096364415880491E-5</v>
-      </c>
-      <c r="AC7" s="4">
-        <f>AC$4*Calculations!$B$31</f>
-        <v>6.8689538329474157E-5</v>
-      </c>
-      <c r="AD7" s="4">
-        <f>AD$4*Calculations!$B$31</f>
-        <v>6.8155890681079293E-5</v>
-      </c>
-      <c r="AE7" s="4">
-        <f>AE$4*Calculations!$B$31</f>
-        <v>6.7869303624067942E-5</v>
-      </c>
-      <c r="AF7" s="4">
-        <f>AF$4*Calculations!$B$31</f>
-        <v>6.747865028171699E-5</v>
-      </c>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="4">
-        <f>B$4*Calculations!$B$27</f>
-        <v>2.8868817517622704E-4</v>
-      </c>
-      <c r="C8" s="4">
-        <f>C$4*Calculations!$B$27</f>
-        <v>2.8779412649402122E-4</v>
-      </c>
-      <c r="D8" s="4">
-        <f>D$4*Calculations!$B$27</f>
-        <v>2.869000778118154E-4</v>
-      </c>
-      <c r="E8" s="4">
-        <f>E$4*Calculations!$B$27</f>
-        <v>2.8600602912960926E-4</v>
-      </c>
-      <c r="F8" s="4">
-        <f>F$4*Calculations!$B$27</f>
-        <v>2.8511198044740344E-4</v>
-      </c>
-      <c r="G8" s="4">
-        <f>G$4*Calculations!$B$27</f>
-        <v>2.8421793176519762E-4</v>
-      </c>
-      <c r="H8" s="4">
-        <f>H$4*Calculations!$B$27</f>
-        <v>2.8332388308299148E-4</v>
-      </c>
-      <c r="I8" s="4">
-        <f>I$4*Calculations!$B$27</f>
-        <v>2.8242983440078566E-4</v>
-      </c>
-      <c r="J8" s="4">
-        <f>J$4*Calculations!$B$27</f>
-        <v>2.8153578571857985E-4</v>
-      </c>
-      <c r="K8" s="4">
-        <f>K$4*Calculations!$B$27</f>
-        <v>2.806417370363737E-4</v>
-      </c>
-      <c r="L8" s="4">
-        <f>L$4*Calculations!$B$27</f>
-        <v>2.7974768835416789E-4</v>
-      </c>
-      <c r="M8" s="4">
-        <f>M$4*Calculations!$B$27</f>
-        <v>2.7885363967196207E-4</v>
-      </c>
-      <c r="N8" s="4">
-        <f>N$4*Calculations!$B$27</f>
-        <v>2.7795959098975593E-4</v>
-      </c>
-      <c r="O8" s="4">
-        <f>O$4*Calculations!$B$27</f>
-        <v>2.7714037680261514E-4</v>
-      </c>
-      <c r="P8" s="4">
-        <f>P$4*Calculations!$B$27</f>
-        <v>2.7657929487791977E-4</v>
-      </c>
-      <c r="Q8" s="4">
-        <f>Q$4*Calculations!$B$27</f>
-        <v>2.7467730951790195E-4</v>
-      </c>
-      <c r="R8" s="4">
-        <f>R$4*Calculations!$B$27</f>
-        <v>2.7406092537341859E-4</v>
-      </c>
-      <c r="S8" s="4">
-        <f>S$4*Calculations!$B$27</f>
-        <v>2.739293181438361E-4</v>
-      </c>
-      <c r="T8" s="4">
-        <f>T$4*Calculations!$B$27</f>
-        <v>2.7518185058661763E-4</v>
-      </c>
-      <c r="U8" s="4">
-        <f>U$4*Calculations!$B$27</f>
-        <v>2.7630009622109581E-4</v>
-      </c>
-      <c r="V8" s="4">
-        <f>V$4*Calculations!$B$27</f>
-        <v>2.7691540959731351E-4</v>
-      </c>
-      <c r="W8" s="4">
-        <f>W$4*Calculations!$B$27</f>
-        <v>2.7486184651230524E-4</v>
-      </c>
-      <c r="X8" s="4">
-        <f>X$4*Calculations!$B$27</f>
-        <v>2.7398059084862524E-4</v>
-      </c>
-      <c r="Y8" s="4">
-        <f>Y$4*Calculations!$B$27</f>
-        <v>2.7283817307923488E-4</v>
-      </c>
-      <c r="Z8" s="4">
-        <f>Z$4*Calculations!$B$27</f>
-        <v>2.712029444128356E-4</v>
-      </c>
-      <c r="AA8" s="4">
-        <f>AA$4*Calculations!$B$27</f>
-        <v>2.6933658854734737E-4</v>
-      </c>
-      <c r="AB8" s="4">
-        <f>AB$4*Calculations!$B$27</f>
-        <v>2.6746979773889214E-4</v>
-      </c>
-      <c r="AC8" s="4">
-        <f>AC$4*Calculations!$B$27</f>
-        <v>2.658949870818354E-4</v>
-      </c>
-      <c r="AD8" s="4">
-        <f>AD$4*Calculations!$B$27</f>
-        <v>2.6382925424933912E-4</v>
-      </c>
-      <c r="AE8" s="4">
-        <f>AE$4*Calculations!$B$27</f>
-        <v>2.62719884996392E-4</v>
-      </c>
-      <c r="AF8" s="4">
-        <f>AF$4*Calculations!$B$27</f>
-        <v>2.6120767850987221E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -22864,17 +23416,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
@@ -22982,128 +23534,128 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>B$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0839302271754693E-4</v>
       </c>
       <c r="C2" s="4">
-        <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>C$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0743794939182517E-4</v>
       </c>
       <c r="D2" s="4">
-        <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>D$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0648287606610335E-4</v>
       </c>
       <c r="E2" s="4">
-        <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>E$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0552780274038159E-4</v>
       </c>
       <c r="F2" s="4">
-        <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>F$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0457272941465983E-4</v>
       </c>
       <c r="G2" s="4">
-        <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>G$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0361765608893768E-4</v>
       </c>
       <c r="H2" s="4">
-        <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>H$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0266258276321592E-4</v>
       </c>
       <c r="I2" s="4">
-        <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>I$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0170750943749416E-4</v>
       </c>
       <c r="J2" s="4">
-        <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>J$4/(1-'Other Values'!$B$2)</f>
+        <v>3.0075243611177234E-4</v>
       </c>
       <c r="K2" s="4">
-        <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>K$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9979736278605058E-4</v>
       </c>
       <c r="L2" s="4">
-        <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <f>L$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9884228946032882E-4</v>
       </c>
       <c r="M2" s="4">
-        <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5229974399358832E-3</v>
+        <f>M$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9788721613460667E-4</v>
       </c>
       <c r="N2" s="4">
-        <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5465870266869152E-3</v>
+        <f>N$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9693214280888491E-4</v>
       </c>
       <c r="O2" s="4">
-        <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5701766134379475E-3</v>
+        <f>O$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9605701191974721E-4</v>
       </c>
       <c r="P2" s="4">
-        <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5937662001889795E-3</v>
+        <f>P$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9545763250060967E-4</v>
       </c>
       <c r="Q2" s="4">
-        <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>2.617355786940011E-3</v>
+        <f>Q$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9342582425636015E-4</v>
       </c>
       <c r="R2" s="4">
-        <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>2.640945373691043E-3</v>
+        <f>R$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9276736788087348E-4</v>
       </c>
       <c r="S2" s="4">
-        <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6645349604420749E-3</v>
+        <f>S$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9262677760100614E-4</v>
       </c>
       <c r="T2" s="4">
-        <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6881245471931069E-3</v>
+        <f>T$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9396480353797213E-4</v>
       </c>
       <c r="U2" s="4">
-        <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7117141339441393E-3</v>
+        <f>U$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9515937671765612E-4</v>
       </c>
       <c r="V2" s="4">
-        <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7353037206951712E-3</v>
+        <f>V$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9581668923797151E-4</v>
       </c>
       <c r="W2" s="4">
-        <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7588933074462032E-3</v>
+        <f>W$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9362295710211149E-4</v>
       </c>
       <c r="X2" s="4">
-        <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7824828941972355E-3</v>
+        <f>X$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9268155000172248E-4</v>
       </c>
       <c r="Y2" s="4">
-        <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8060724809482675E-3</v>
+        <f>Y$4/(1-'Other Values'!$B$2)</f>
+        <v>2.9146115478153911E-4</v>
       </c>
       <c r="Z2" s="4">
-        <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8296620676992994E-3</v>
+        <f>Z$4/(1-'Other Values'!$B$2)</f>
+        <v>2.89714311112042E-4</v>
       </c>
       <c r="AA2" s="4">
-        <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8532516544503318E-3</v>
+        <f>AA$4/(1-'Other Values'!$B$2)</f>
+        <v>2.8772056430729955E-4</v>
       </c>
       <c r="AB2" s="4">
-        <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8768412412013638E-3</v>
+        <f>AB$4/(1-'Other Values'!$B$2)</f>
+        <v>2.8572635287190079E-4</v>
       </c>
       <c r="AC2" s="4">
-        <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9004308279523957E-3</v>
+        <f>AC$4/(1-'Other Values'!$B$2)</f>
+        <v>2.8404405113425228E-4</v>
       </c>
       <c r="AD2" s="4">
-        <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9476100014544583E-3</v>
+        <f>AD$4/(1-'Other Values'!$B$2)</f>
+        <v>2.8183731858640368E-4</v>
       </c>
       <c r="AE2" s="4">
-        <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9473807273476581E-3</v>
+        <f>AE$4/(1-'Other Values'!$B$2)</f>
+        <v>2.8065222765908245E-4</v>
       </c>
       <c r="AF2" s="4">
-        <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9364046024518958E-3</v>
+        <f>AF$4/(1-'Other Values'!$B$2)</f>
+        <v>2.7903680323421208E-4</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -23113,128 +23665,128 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="C3" s="4">
-        <f>C$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="D3" s="4">
-        <f>D$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="E3" s="4">
-        <f>E$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="F3" s="4">
-        <f>F$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="G3" s="4">
-        <f>G$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="H3" s="4">
-        <f>H$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="I3" s="4">
-        <f>I$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="J3" s="4">
-        <f>J$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="K3" s="4">
-        <f>K$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="L3" s="4">
-        <f>L$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="M3" s="4">
-        <f>M$5</f>
-        <v>7.8513065209783318E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="N3" s="4">
-        <f>N$5</f>
-        <v>7.924714869854924E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="O3" s="4">
-        <f>O$5</f>
-        <v>7.9981232187315162E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="P3" s="4">
-        <f>P$5</f>
-        <v>8.0715315676081084E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$5</f>
-        <v>8.1449399164846995E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="R3" s="4">
-        <f>R$5</f>
-        <v>8.2183482653612906E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="S3" s="4">
-        <f>S$5</f>
-        <v>8.2917566142378827E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="T3" s="4">
-        <f>T$5</f>
-        <v>8.3651649631144749E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="U3" s="4">
-        <f>U$5</f>
-        <v>8.4385733119910671E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="V3" s="4">
-        <f>V$5</f>
-        <v>8.5119816608676593E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="W3" s="4">
-        <f>W$5</f>
-        <v>8.5853900097442514E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="X3" s="4">
-        <f>X$5</f>
-        <v>8.6587983586208436E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$5</f>
-        <v>8.7322067074974358E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$5</f>
-        <v>8.805615056374028E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$5</f>
-        <v>8.8790234052506202E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$5</f>
-        <v>8.9524317541272123E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$5</f>
-        <v>9.0258401030038045E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$5</f>
-        <v>9.1726568007569835E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$5</f>
-        <v>9.171943323501193E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$5</f>
-        <v>9.1377867605157937E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$11</f>
+        <v>2.7797562958068832E-5</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -23244,128 +23796,128 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>B$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AA3</f>
+        <v>9.6850701349312281E-5</v>
       </c>
       <c r="C4" s="4">
-        <f>C$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AB3</f>
+        <v>9.6550760966027755E-5</v>
       </c>
       <c r="D4" s="4">
-        <f>D$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AC3</f>
+        <v>9.6250820582743229E-5</v>
       </c>
       <c r="E4" s="4">
-        <f>E$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AD3</f>
+        <v>9.5950880199458704E-5</v>
       </c>
       <c r="F4" s="4">
-        <f>F$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AE3</f>
+        <v>9.5650939816174178E-5</v>
       </c>
       <c r="G4" s="4">
-        <f>G$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AF3</f>
+        <v>9.5350999432889543E-5</v>
       </c>
       <c r="H4" s="4">
-        <f>H$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AG3</f>
+        <v>9.5051059049605017E-5</v>
       </c>
       <c r="I4" s="4">
-        <f>I$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AH3</f>
+        <v>9.4751118666320491E-5</v>
       </c>
       <c r="J4" s="4">
-        <f>J$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AI3</f>
+        <v>9.4451178283035966E-5</v>
       </c>
       <c r="K4" s="4">
-        <f>K$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AJ3</f>
+        <v>9.415123789975144E-5</v>
       </c>
       <c r="L4" s="4">
-        <f>L$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f>Extrapolations!AK3</f>
+        <v>9.3851297516466914E-5</v>
       </c>
       <c r="M4" s="4">
-        <f>M$5</f>
-        <v>7.8513065209783318E-4</v>
+        <f>Extrapolations!AL3</f>
+        <v>9.3551357133182279E-5</v>
       </c>
       <c r="N4" s="4">
-        <f>N$5</f>
-        <v>7.924714869854924E-4</v>
+        <f>Extrapolations!AM3</f>
+        <v>9.3251416749897753E-5</v>
       </c>
       <c r="O4" s="4">
-        <f>O$5</f>
-        <v>7.9981232187315162E-4</v>
+        <f>Extrapolations!AN3</f>
+        <v>9.2976582255788396E-5</v>
       </c>
       <c r="P4" s="4">
-        <f>P$5</f>
-        <v>8.0715315676081084E-4</v>
+        <f>Extrapolations!AO3</f>
+        <v>9.2788347396885706E-5</v>
       </c>
       <c r="Q4" s="4">
-        <f>Q$5</f>
-        <v>8.1449399164846995E-4</v>
+        <f>Extrapolations!AP3</f>
+        <v>9.2150258857369327E-5</v>
       </c>
       <c r="R4" s="4">
-        <f>R$5</f>
-        <v>8.2183482653612906E-4</v>
+        <f>Extrapolations!AQ3</f>
+        <v>9.1943470904737144E-5</v>
       </c>
       <c r="S4" s="4">
-        <f>S$5</f>
-        <v>8.2917566142378827E-4</v>
+        <f>Extrapolations!AR3</f>
+        <v>9.1899318585439966E-5</v>
       </c>
       <c r="T4" s="4">
-        <f>T$5</f>
-        <v>8.3651649631144749E-4</v>
+        <f>Extrapolations!AS3</f>
+        <v>9.2319525078040856E-5</v>
       </c>
       <c r="U4" s="4">
-        <f>U$5</f>
-        <v>8.4385733119910671E-4</v>
+        <f>Extrapolations!AT3</f>
+        <v>9.2694680291495327E-5</v>
       </c>
       <c r="V4" s="4">
-        <f>V$5</f>
-        <v>8.5119816608676593E-4</v>
+        <f>Extrapolations!AU3</f>
+        <v>9.2901109016883625E-5</v>
       </c>
       <c r="W4" s="4">
-        <f>W$5</f>
-        <v>8.5853900097442514E-4</v>
+        <f>Extrapolations!AV3</f>
+        <v>9.2212168346117676E-5</v>
       </c>
       <c r="X4" s="4">
-        <f>X$5</f>
-        <v>8.6587983586208436E-4</v>
+        <f>Extrapolations!AW3</f>
+        <v>9.19165198352517E-5</v>
       </c>
       <c r="Y4" s="4">
-        <f>Y$5</f>
-        <v>8.7322067074974358E-4</v>
+        <f>Extrapolations!AX3</f>
+        <v>9.1533255220648671E-5</v>
       </c>
       <c r="Z4" s="4">
-        <f>Z$5</f>
-        <v>8.805615056374028E-4</v>
+        <f>Extrapolations!AY3</f>
+        <v>9.0984659688079332E-5</v>
       </c>
       <c r="AA4" s="4">
-        <f>AA$5</f>
-        <v>8.8790234052506202E-4</v>
+        <f>Extrapolations!AZ3</f>
+        <v>9.0358524327912283E-5</v>
       </c>
       <c r="AB4" s="4">
-        <f>AB$5</f>
-        <v>8.9524317541272123E-4</v>
+        <f>Extrapolations!BA3</f>
+        <v>8.97322430506796E-5</v>
       </c>
       <c r="AC4" s="4">
-        <f>AC$5</f>
-        <v>9.0258401030038045E-4</v>
+        <f>Extrapolations!BB3</f>
+        <v>8.9203916885137102E-5</v>
       </c>
       <c r="AD4" s="4">
-        <f>AD$5</f>
-        <v>9.1726568007569835E-4</v>
+        <f>Extrapolations!BC3</f>
+        <v>8.85108934403582E-5</v>
       </c>
       <c r="AE4" s="4">
-        <f>AE$5</f>
-        <v>9.171943323501193E-4</v>
+        <f>Extrapolations!BD3</f>
+        <v>8.8138716124339965E-5</v>
       </c>
       <c r="AF4" s="4">
-        <f>AF$5</f>
-        <v>9.1377867605157937E-4</v>
+        <f>Extrapolations!BE3</f>
+        <v>8.7631392751240183E-5</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -23375,128 +23927,128 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>Extrapolations!L4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" ref="B5:AF5" si="0">B$4</f>
+        <v>9.6850701349312281E-5</v>
       </c>
       <c r="C5" s="4">
-        <f>Extrapolations!M4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.6550760966027755E-5</v>
       </c>
       <c r="D5" s="4">
-        <f>Extrapolations!N4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.6250820582743229E-5</v>
       </c>
       <c r="E5" s="4">
-        <f>Extrapolations!O4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.5950880199458704E-5</v>
       </c>
       <c r="F5" s="4">
-        <f>Extrapolations!P4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.5650939816174178E-5</v>
       </c>
       <c r="G5" s="4">
-        <f>Extrapolations!Q4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.5350999432889543E-5</v>
       </c>
       <c r="H5" s="4">
-        <f>Extrapolations!R4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.5051059049605017E-5</v>
       </c>
       <c r="I5" s="4">
-        <f>Extrapolations!S4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.4751118666320491E-5</v>
       </c>
       <c r="J5" s="4">
-        <f>Extrapolations!T4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.4451178283035966E-5</v>
       </c>
       <c r="K5" s="4">
-        <f>Extrapolations!U4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.415123789975144E-5</v>
       </c>
       <c r="L5" s="4">
-        <f>Extrapolations!V4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.3851297516466914E-5</v>
       </c>
       <c r="M5" s="4">
-        <f>Extrapolations!W4</f>
-        <v>7.8513065209783318E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.3551357133182279E-5</v>
       </c>
       <c r="N5" s="4">
-        <f>Extrapolations!X4</f>
-        <v>7.924714869854924E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.3251416749897753E-5</v>
       </c>
       <c r="O5" s="4">
-        <f>Extrapolations!Y4</f>
-        <v>7.9981232187315162E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.2976582255788396E-5</v>
       </c>
       <c r="P5" s="4">
-        <f>Extrapolations!Z4</f>
-        <v>8.0715315676081084E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.2788347396885706E-5</v>
       </c>
       <c r="Q5" s="4">
-        <f>Extrapolations!AA4</f>
-        <v>8.1449399164846995E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.2150258857369327E-5</v>
       </c>
       <c r="R5" s="4">
-        <f>Extrapolations!AB4</f>
-        <v>8.2183482653612906E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.1943470904737144E-5</v>
       </c>
       <c r="S5" s="4">
-        <f>Extrapolations!AC4</f>
-        <v>8.2917566142378827E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.1899318585439966E-5</v>
       </c>
       <c r="T5" s="4">
-        <f>Extrapolations!AD4</f>
-        <v>8.3651649631144749E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.2319525078040856E-5</v>
       </c>
       <c r="U5" s="4">
-        <f>Extrapolations!AE4</f>
-        <v>8.4385733119910671E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.2694680291495327E-5</v>
       </c>
       <c r="V5" s="4">
-        <f>Extrapolations!AF4</f>
-        <v>8.5119816608676593E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.2901109016883625E-5</v>
       </c>
       <c r="W5" s="4">
-        <f>Extrapolations!AG4</f>
-        <v>8.5853900097442514E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.2212168346117676E-5</v>
       </c>
       <c r="X5" s="4">
-        <f>Extrapolations!AH4</f>
-        <v>8.6587983586208436E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.19165198352517E-5</v>
       </c>
       <c r="Y5" s="4">
-        <f>Extrapolations!AI4</f>
-        <v>8.7322067074974358E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.1533255220648671E-5</v>
       </c>
       <c r="Z5" s="4">
-        <f>Extrapolations!AJ4</f>
-        <v>8.805615056374028E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.0984659688079332E-5</v>
       </c>
       <c r="AA5" s="4">
-        <f>Extrapolations!AK4</f>
-        <v>8.8790234052506202E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.0358524327912283E-5</v>
       </c>
       <c r="AB5" s="4">
-        <f>Extrapolations!AL4</f>
-        <v>8.9524317541272123E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.97322430506796E-5</v>
       </c>
       <c r="AC5" s="4">
-        <f>Extrapolations!AM4</f>
-        <v>9.0258401030038045E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.9203916885137102E-5</v>
       </c>
       <c r="AD5" s="4">
-        <f>Extrapolations!AN4</f>
-        <v>9.1726568007569835E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.85108934403582E-5</v>
       </c>
       <c r="AE5" s="4">
-        <f>Extrapolations!AO4</f>
-        <v>9.171943323501193E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.8138716124339965E-5</v>
       </c>
       <c r="AF5" s="4">
-        <f>Extrapolations!AP4</f>
-        <v>9.1377867605157937E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.7631392751240183E-5</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -23506,128 +24058,128 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <f>B$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+B$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
+        <v>2.1319897810184136E-4</v>
       </c>
       <c r="C6" s="4">
-        <f>C$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+C$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
+        <v>2.1253871460021634E-4</v>
       </c>
       <c r="D6" s="4">
-        <f>D$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+D$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
+        <v>2.1187845109859132E-4</v>
       </c>
       <c r="E6" s="4">
-        <f>E$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+E$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
+        <v>2.112181875969663E-4</v>
       </c>
       <c r="F6" s="4">
-        <f>F$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+F$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
+        <v>2.1055792409534129E-4</v>
       </c>
       <c r="G6" s="4">
-        <f>G$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+G$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0989766059371603E-4</v>
       </c>
       <c r="H6" s="4">
-        <f>H$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+H$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0923739709209101E-4</v>
       </c>
       <c r="I6" s="4">
-        <f>I$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+I$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0857713359046602E-4</v>
       </c>
       <c r="J6" s="4">
-        <f>J$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+J$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0791687008884098E-4</v>
       </c>
       <c r="K6" s="4">
-        <f>K$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+K$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0725660658721599E-4</v>
       </c>
       <c r="L6" s="4">
-        <f>L$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+L$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0659634308559097E-4</v>
       </c>
       <c r="M6" s="4">
-        <f>M$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+M$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7409573854087609E-3</v>
+        <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0593607958396571E-4</v>
       </c>
       <c r="N6" s="4">
-        <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
-        <v>1.757235033821275E-3</v>
+        <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0527581608234069E-4</v>
       </c>
       <c r="O6" s="4">
-        <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7735126822337895E-3</v>
+        <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0467081857096576E-4</v>
       </c>
       <c r="P6" s="4">
-        <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7897903306463036E-3</v>
+        <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0425645420393389E-4</v>
       </c>
       <c r="Q6" s="4">
-        <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8060679790588177E-3</v>
+        <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
+        <v>2.028518198268143E-4</v>
       </c>
       <c r="R6" s="4">
-        <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8223456274713318E-3</v>
+        <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0239661424161214E-4</v>
       </c>
       <c r="S6" s="4">
-        <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8386232758838459E-3</v>
+        <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0229942104400139E-4</v>
       </c>
       <c r="T6" s="4">
-        <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8549009242963604E-3</v>
+        <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0322442823100304E-4</v>
       </c>
       <c r="U6" s="4">
-        <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8711785727088747E-3</v>
+        <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0405026332588378E-4</v>
       </c>
       <c r="V6" s="4">
-        <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8874562211213888E-3</v>
+        <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0450467813848199E-4</v>
       </c>
       <c r="W6" s="4">
-        <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9037338695339031E-3</v>
+        <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0298810216191427E-4</v>
       </c>
       <c r="X6" s="4">
-        <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9200115179464176E-3</v>
+        <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0233728642681063E-4</v>
       </c>
       <c r="Y6" s="4">
-        <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9362891663589317E-3</v>
+        <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0149359997913841E-4</v>
       </c>
       <c r="Z6" s="4">
-        <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
-        <v>1.952566814771446E-3</v>
+        <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
+        <v>2.0028596797125881E-4</v>
       </c>
       <c r="AA6" s="4">
-        <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9688444631839603E-3</v>
+        <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
+        <v>1.989076463165753E-4</v>
       </c>
       <c r="AB6" s="4">
-        <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9851221115964749E-3</v>
+        <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
+        <v>1.9752900345235125E-4</v>
       </c>
       <c r="AC6" s="4">
-        <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
-        <v>2.001399760008989E-3</v>
+        <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
+        <v>1.9636599072215047E-4</v>
       </c>
       <c r="AD6" s="4">
-        <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0339550568340167E-3</v>
+        <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
+        <v>1.9484042727068324E-4</v>
       </c>
       <c r="AE6" s="4">
-        <f>AE$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AE$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0337968495987659E-3</v>
+        <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
+        <v>1.9402114746844835E-4</v>
       </c>
       <c r="AF6" s="4">
-        <f>AF$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AF$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0262229355717536E-3</v>
+        <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
+        <v>1.9290436851687471E-4</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -23638,127 +24190,127 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.5059293545717018E-5</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.482683974867151E-5</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.4594385951626003E-5</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.4361932154580495E-5</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.4129478357534988E-5</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.3897024560489399E-5</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.3664570763443891E-5</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.3432116966398384E-5</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.3199663169352876E-5</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.2967209372307368E-5</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.2734755575261861E-5</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>6.0847625537582069E-4</v>
+        <v>7.2502301778216272E-5</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>6.1416540241375668E-4</v>
+        <v>7.2269847981170764E-5</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>6.1985454945169256E-4</v>
+        <v>7.2056851248236006E-5</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>6.2554369648962845E-4</v>
+        <v>7.1910969232586423E-5</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>6.3123284352756422E-4</v>
+        <v>7.1416450614461227E-5</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>6.369219905655E-4</v>
+        <v>7.1256189951171285E-5</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>6.4261113760343588E-4</v>
+        <v>7.1221971903715969E-5</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>6.4830028464137187E-4</v>
+        <v>7.154763193548167E-5</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>6.5398943167930775E-4</v>
+        <v>7.1838377225908875E-5</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>6.5967857871724364E-4</v>
+        <v>7.1998359488084805E-5</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>6.6536772575517952E-4</v>
+        <v>7.1464430468241204E-5</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>6.710568727931154E-4</v>
+        <v>7.123530287232007E-5</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>6.7674601983105129E-4</v>
+        <v>7.0938272796002724E-5</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>6.8243516686898717E-4</v>
+        <v>7.0513111258261482E-5</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>6.8812431390692305E-4</v>
+        <v>7.0027856354132028E-5</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>6.9381346094485893E-4</v>
+        <v>6.9542488364276691E-5</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>6.9950260798279482E-4</v>
+        <v>6.9133035585981255E-5</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>7.1088090205866626E-4</v>
+        <v>6.8595942416277601E-5</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>7.1082560757134252E-4</v>
+        <v>6.8307504996363474E-5</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>7.0817847393997403E-4</v>
+        <v>6.791432938221115E-5</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -23769,127 +24321,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.9055210404793679E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8965228289808321E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8875246174822963E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8785264059837606E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8695281944852248E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8605299829866858E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.85153177148815E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8425335599896142E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8335353484910784E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8245371369925426E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.8155389254940069E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.3553919562934993E-3</v>
+        <v>2.8065407139954678E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.377414460956477E-3</v>
+        <v>2.7975425024969321E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.3994369656194546E-3</v>
+        <v>2.7892974676736515E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.4214594702824323E-3</v>
+        <v>2.7836504219065709E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.4434819749454095E-3</v>
+        <v>2.7645077657210791E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.4655044796083867E-3</v>
+        <v>2.7583041271421141E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.4875269842713644E-3</v>
+        <v>2.7569795575631983E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.509549488934342E-3</v>
+        <v>2.7695857523412254E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.5315719935973197E-3</v>
+        <v>2.7808404087448593E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.5535944982602973E-3</v>
+        <v>2.7870332705065082E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.575617002923275E-3</v>
+        <v>2.7663650503835296E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.5976395075862527E-3</v>
+        <v>2.7574955950575503E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.6196620122492303E-3</v>
+        <v>2.74599765661946E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.641684516912208E-3</v>
+        <v>2.7295397906423798E-4</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.6637070215751856E-3</v>
+        <v>2.7107557298373681E-4</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.6857295262381633E-3</v>
+        <v>2.6919672915203874E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.7077520309011409E-3</v>
+        <v>2.6761175065541127E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>2.7517970402270945E-3</v>
+        <v>2.6553268032107456E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>2.7515829970503575E-3</v>
+        <v>2.6441614837301988E-4</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>2.7413360281547377E-3</v>
+        <v>2.6289417825372049E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -23900,15 +24452,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
@@ -24017,127 +24571,127 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.3372371986829488E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.3372371986829488E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.3372371986829488E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.3372371986829488E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.3372371986829488E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.3372371986829488E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.3372371986829488E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.3372371986829488E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.3372371986829488E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.3372371986829488E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5078109440964031E-3</v>
+        <v>2.3372371986829488E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5314798398092687E-3</v>
+        <v>2.3693620830393444E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5551487355221342E-3</v>
+        <v>2.4014869673957395E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5788176312350002E-3</v>
+        <v>2.433611851752135E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6024865269478658E-3</v>
+        <v>2.4657367361085301E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6261554226607313E-3</v>
+        <v>2.4978616204649256E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6498243183735969E-3</v>
+        <v>2.5299865048213212E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6734932140864624E-3</v>
+        <v>2.5621113891777163E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6971621097993284E-3</v>
+        <v>2.5942362735341118E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7208310055121939E-3</v>
+        <v>2.6263611578905073E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7444999012250595E-3</v>
+        <v>2.6584860422469024E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>2.768168796937925E-3</v>
+        <v>2.690610926603298E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7918376926507906E-3</v>
+        <v>2.7227358109596935E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8155065883636566E-3</v>
+        <v>2.7548606953160886E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8391754840765221E-3</v>
+        <v>2.7869855796724841E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8628443797893877E-3</v>
+        <v>2.8191104640288797E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8865132755022532E-3</v>
+        <v>2.8512353483852748E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9101821712151188E-3</v>
+        <v>2.8833602327416703E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9575199626408486E-3</v>
+        <v>2.9476100014544583E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0140739481425614E-3</v>
+        <v>2.9473807273476581E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0046053551631979E-3</v>
+        <v>2.9364046024518958E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -24147,128 +24701,128 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="C3" s="4">
-        <f>C$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="D3" s="4">
-        <f>D$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="E3" s="4">
-        <f>E$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="F3" s="4">
-        <f>F$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="G3" s="4">
-        <f>G$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="H3" s="4">
-        <f>H$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="I3" s="4">
-        <f>I$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="J3" s="4">
-        <f>J$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="K3" s="4">
-        <f>K$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="L3" s="4">
-        <f>L$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="M3" s="4">
-        <f>M$5</f>
-        <v>7.8777028701720712E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="N3" s="4">
-        <f>N$5</f>
-        <v>7.9513580203174081E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="O3" s="4">
-        <f>O$5</f>
-        <v>8.0250131704627449E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="P3" s="4">
-        <f>P$5</f>
-        <v>8.0986683206080818E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$5</f>
-        <v>8.1723234707534187E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="R3" s="4">
-        <f>R$5</f>
-        <v>8.2459786208987555E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="S3" s="4">
-        <f>S$5</f>
-        <v>8.3196337710440924E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="T3" s="4">
-        <f>T$5</f>
-        <v>8.3932889211894293E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="U3" s="4">
-        <f>U$5</f>
-        <v>8.4669440713347661E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="V3" s="4">
-        <f>V$5</f>
-        <v>8.540599221480103E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="W3" s="4">
-        <f>W$5</f>
-        <v>8.6142543716254398E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="X3" s="4">
-        <f>X$5</f>
-        <v>8.6879095217707767E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$5</f>
-        <v>8.7615646719161136E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$5</f>
-        <v>8.8352198220614504E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$5</f>
-        <v>8.9088749722067873E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$5</f>
-        <v>8.9825301223521242E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$5</f>
-        <v>9.056185272497461E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$5</f>
-        <v>9.2034955727881304E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$5</f>
-        <v>9.3794857137722578E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$5</f>
-        <v>9.3500204338529676E-4</v>
+        <f>'SYFAFE (for NG vehicles)'!$C$4</f>
+        <v>2.6928817015314281E-6</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -24278,128 +24832,128 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>B$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" ref="B4:K4" si="0">B$5</f>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="C4" s="4">
-        <f>C$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="D4" s="4">
-        <f>D$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="E4" s="4">
-        <f>E$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="F4" s="4">
-        <f>F$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="G4" s="4">
-        <f>G$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="H4" s="4">
-        <f>H$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="I4" s="4">
-        <f>I$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="J4" s="4">
-        <f>J$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="K4" s="4">
-        <f>K$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="L4" s="4">
-        <f>L$5</f>
-        <v>7.8040477200267344E-4</v>
+        <f t="shared" ref="L4:U4" si="1">L$5</f>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="M4" s="4">
-        <f>M$5</f>
-        <v>7.8777028701720712E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.373209214829149E-4</v>
       </c>
       <c r="N4" s="4">
-        <f>N$5</f>
-        <v>7.9513580203174081E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.4731785251584736E-4</v>
       </c>
       <c r="O4" s="4">
-        <f>O$5</f>
-        <v>8.0250131704627449E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.5731478354877982E-4</v>
       </c>
       <c r="P4" s="4">
-        <f>P$5</f>
-        <v>8.0986683206080818E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.6731171458171228E-4</v>
       </c>
       <c r="Q4" s="4">
-        <f>Q$5</f>
-        <v>8.1723234707534187E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.7730864561464475E-4</v>
       </c>
       <c r="R4" s="4">
-        <f>R$5</f>
-        <v>8.2459786208987555E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.8730557664757721E-4</v>
       </c>
       <c r="S4" s="4">
-        <f>S$5</f>
-        <v>8.3196337710440924E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.9730250768050967E-4</v>
       </c>
       <c r="T4" s="4">
-        <f>T$5</f>
-        <v>8.3932889211894293E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.0729943871344213E-4</v>
       </c>
       <c r="U4" s="4">
-        <f>U$5</f>
-        <v>8.4669440713347661E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.1729636974637459E-4</v>
       </c>
       <c r="V4" s="4">
-        <f>V$5</f>
-        <v>8.540599221480103E-4</v>
+        <f t="shared" ref="V4:AF4" si="2">V$5</f>
+        <v>8.2729330077930706E-4</v>
       </c>
       <c r="W4" s="4">
-        <f>W$5</f>
-        <v>8.6142543716254398E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.3729023181223952E-4</v>
       </c>
       <c r="X4" s="4">
-        <f>X$5</f>
-        <v>8.6879095217707767E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.4728716284517198E-4</v>
       </c>
       <c r="Y4" s="4">
-        <f>Y$5</f>
-        <v>8.7615646719161136E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.5728409387810444E-4</v>
       </c>
       <c r="Z4" s="4">
-        <f>Z$5</f>
-        <v>8.8352198220614504E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.672810249110369E-4</v>
       </c>
       <c r="AA4" s="4">
-        <f>AA$5</f>
-        <v>8.9088749722067873E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.7727795594396937E-4</v>
       </c>
       <c r="AB4" s="4">
-        <f>AB$5</f>
-        <v>8.9825301223521242E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.8727488697690183E-4</v>
       </c>
       <c r="AC4" s="4">
-        <f>AC$5</f>
-        <v>9.056185272497461E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.9727181800983429E-4</v>
       </c>
       <c r="AD4" s="4">
-        <f>AD$5</f>
-        <v>9.2034955727881304E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.1726568007569835E-4</v>
       </c>
       <c r="AE4" s="4">
-        <f>AE$5</f>
-        <v>9.3794857137722578E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.171943323501193E-4</v>
       </c>
       <c r="AF4" s="4">
-        <f>AF$5</f>
-        <v>9.3500204338529676E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.1377867605157937E-4</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -24409,128 +24963,128 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>Extrapolations!L5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!L4</f>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="C5" s="4">
-        <f>Extrapolations!M5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!M4</f>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="D5" s="4">
-        <f>Extrapolations!N5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!N4</f>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="E5" s="4">
-        <f>Extrapolations!O5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!O4</f>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="F5" s="4">
-        <f>Extrapolations!P5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!P4</f>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="G5" s="4">
-        <f>Extrapolations!Q5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!Q4</f>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="H5" s="4">
-        <f>Extrapolations!R5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!R4</f>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="I5" s="4">
-        <f>Extrapolations!S5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!S4</f>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="J5" s="4">
-        <f>Extrapolations!T5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!T4</f>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="K5" s="4">
-        <f>Extrapolations!U5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!U4</f>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="L5" s="4">
-        <f>Extrapolations!V5</f>
-        <v>7.8040477200267344E-4</v>
+        <f>Extrapolations!V4</f>
+        <v>7.2732399044998244E-4</v>
       </c>
       <c r="M5" s="4">
-        <f>Extrapolations!W5</f>
-        <v>7.8777028701720712E-4</v>
+        <f>Extrapolations!W4</f>
+        <v>7.373209214829149E-4</v>
       </c>
       <c r="N5" s="4">
-        <f>Extrapolations!X5</f>
-        <v>7.9513580203174081E-4</v>
+        <f>Extrapolations!X4</f>
+        <v>7.4731785251584736E-4</v>
       </c>
       <c r="O5" s="4">
-        <f>Extrapolations!Y5</f>
-        <v>8.0250131704627449E-4</v>
+        <f>Extrapolations!Y4</f>
+        <v>7.5731478354877982E-4</v>
       </c>
       <c r="P5" s="4">
-        <f>Extrapolations!Z5</f>
-        <v>8.0986683206080818E-4</v>
+        <f>Extrapolations!Z4</f>
+        <v>7.6731171458171228E-4</v>
       </c>
       <c r="Q5" s="4">
-        <f>Extrapolations!AA5</f>
-        <v>8.1723234707534187E-4</v>
+        <f>Extrapolations!AA4</f>
+        <v>7.7730864561464475E-4</v>
       </c>
       <c r="R5" s="4">
-        <f>Extrapolations!AB5</f>
-        <v>8.2459786208987555E-4</v>
+        <f>Extrapolations!AB4</f>
+        <v>7.8730557664757721E-4</v>
       </c>
       <c r="S5" s="4">
-        <f>Extrapolations!AC5</f>
-        <v>8.3196337710440924E-4</v>
+        <f>Extrapolations!AC4</f>
+        <v>7.9730250768050967E-4</v>
       </c>
       <c r="T5" s="4">
-        <f>Extrapolations!AD5</f>
-        <v>8.3932889211894293E-4</v>
+        <f>Extrapolations!AD4</f>
+        <v>8.0729943871344213E-4</v>
       </c>
       <c r="U5" s="4">
-        <f>Extrapolations!AE5</f>
-        <v>8.4669440713347661E-4</v>
+        <f>Extrapolations!AE4</f>
+        <v>8.1729636974637459E-4</v>
       </c>
       <c r="V5" s="4">
-        <f>Extrapolations!AF5</f>
-        <v>8.540599221480103E-4</v>
+        <f>Extrapolations!AF4</f>
+        <v>8.2729330077930706E-4</v>
       </c>
       <c r="W5" s="4">
-        <f>Extrapolations!AG5</f>
-        <v>8.6142543716254398E-4</v>
+        <f>Extrapolations!AG4</f>
+        <v>8.3729023181223952E-4</v>
       </c>
       <c r="X5" s="4">
-        <f>Extrapolations!AH5</f>
-        <v>8.6879095217707767E-4</v>
+        <f>Extrapolations!AH4</f>
+        <v>8.4728716284517198E-4</v>
       </c>
       <c r="Y5" s="4">
-        <f>Extrapolations!AI5</f>
-        <v>8.7615646719161136E-4</v>
+        <f>Extrapolations!AI4</f>
+        <v>8.5728409387810444E-4</v>
       </c>
       <c r="Z5" s="4">
-        <f>Extrapolations!AJ5</f>
-        <v>8.8352198220614504E-4</v>
+        <f>Extrapolations!AJ4</f>
+        <v>8.672810249110369E-4</v>
       </c>
       <c r="AA5" s="4">
-        <f>Extrapolations!AK5</f>
-        <v>8.9088749722067873E-4</v>
+        <f>Extrapolations!AK4</f>
+        <v>8.7727795594396937E-4</v>
       </c>
       <c r="AB5" s="4">
-        <f>Extrapolations!AL5</f>
-        <v>8.9825301223521242E-4</v>
+        <f>Extrapolations!AL4</f>
+        <v>8.8727488697690183E-4</v>
       </c>
       <c r="AC5" s="4">
-        <f>Extrapolations!AM5</f>
-        <v>9.056185272497461E-4</v>
+        <f>Extrapolations!AM4</f>
+        <v>8.9727181800983429E-4</v>
       </c>
       <c r="AD5" s="4">
-        <f>Extrapolations!AN5</f>
-        <v>9.2034955727881304E-4</v>
+        <f>Extrapolations!AN4</f>
+        <v>9.1726568007569835E-4</v>
       </c>
       <c r="AE5" s="4">
-        <f>Extrapolations!AO5</f>
-        <v>9.3794857137722578E-4</v>
+        <f>Extrapolations!AO4</f>
+        <v>9.171943323501193E-4</v>
       </c>
       <c r="AF5" s="4">
-        <f>Extrapolations!AP5</f>
-        <v>9.3500204338529676E-4</v>
+        <f>Extrapolations!AP4</f>
+        <v>9.1377867605157937E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -24541,127 +25095,127 @@
       </c>
       <c r="B6" s="4">
         <f>B$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+B$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.6127762549781139E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+C$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.6127762549781139E-3</v>
       </c>
       <c r="D6" s="4">
         <f>D$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+D$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.6127762549781139E-3</v>
       </c>
       <c r="E6" s="4">
         <f>E$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+E$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.6127762549781139E-3</v>
       </c>
       <c r="F6" s="4">
         <f>F$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+F$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.6127762549781139E-3</v>
       </c>
       <c r="G6" s="4">
         <f>G$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+G$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.6127762549781139E-3</v>
       </c>
       <c r="H6" s="4">
         <f>H$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+H$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.6127762549781139E-3</v>
       </c>
       <c r="I6" s="4">
         <f>I$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+I$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.6127762549781139E-3</v>
       </c>
       <c r="J6" s="4">
         <f>J$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+J$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.6127762549781139E-3</v>
       </c>
       <c r="K6" s="4">
         <f>K$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+K$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.6127762549781139E-3</v>
       </c>
       <c r="L6" s="4">
         <f>L$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+L$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7304781666542248E-3</v>
+        <v>1.6127762549781139E-3</v>
       </c>
       <c r="M6" s="4">
         <f>M$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+M$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7468105410528411E-3</v>
+        <v>1.6349435603389511E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7631429154514574E-3</v>
+        <v>1.6571108656997879E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7794752898500738E-3</v>
+        <v>1.6792781710606253E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7958076642486899E-3</v>
+        <v>1.7014454764214622E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8121400386473061E-3</v>
+        <v>1.7236127817822993E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8284724130459224E-3</v>
+        <v>1.7457800871431366E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8448047874445384E-3</v>
+        <v>1.7679473925039735E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8611371618431549E-3</v>
+        <v>1.7901146978648104E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8774695362417711E-3</v>
+        <v>1.8122820032256475E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8938019106403874E-3</v>
+        <v>1.8344493085864846E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9101342850390036E-3</v>
+        <v>1.8566166139473218E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9264666594376199E-3</v>
+        <v>1.8787839193081589E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9427990338362364E-3</v>
+        <v>1.9009512246689958E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9591314082348524E-3</v>
+        <v>1.9231185300298331E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9754637826334687E-3</v>
+        <v>1.94528583539067E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9917961570320849E-3</v>
+        <v>1.9674531407515069E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0081285314307012E-3</v>
+        <v>1.9896204461123442E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0407932802279328E-3</v>
+        <v>2.0339550568340167E-3</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AE$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0798175285981603E-3</v>
+        <v>2.0337968495987659E-3</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AF$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0732838648631425E-3</v>
+        <v>2.0262229355717536E-3</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -24672,127 +25226,127 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>5.6367609259873645E-4</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>5.6367609259873645E-4</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>5.6367609259873645E-4</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>5.6367609259873645E-4</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>5.6367609259873645E-4</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>5.6367609259873645E-4</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>5.6367609259873645E-4</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>5.6367609259873645E-4</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>5.6367609259873645E-4</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>5.6367609259873645E-4</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>6.0481369830207193E-4</v>
+        <v>5.6367609259873645E-4</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>6.1052197243833552E-4</v>
+        <v>5.7142371414925909E-4</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>6.1623024657459912E-4</v>
+        <v>5.7917133569978174E-4</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>6.2193852071086271E-4</v>
+        <v>5.8691895725030438E-4</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>6.2764679484712631E-4</v>
+        <v>5.9466657880082702E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>6.3335506898339001E-4</v>
+        <v>6.0241420035134967E-4</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>6.3906334311965361E-4</v>
+        <v>6.1016182190187231E-4</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>6.4477161725591721E-4</v>
+        <v>6.1790944345239496E-4</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>6.504798913921808E-4</v>
+        <v>6.2565706500291771E-4</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>6.561881655284444E-4</v>
+        <v>6.3340468655344036E-4</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>6.6189643966470799E-4</v>
+        <v>6.41152308103963E-4</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>6.6760471380097159E-4</v>
+        <v>6.4889992965448564E-4</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>6.7331298793723519E-4</v>
+        <v>6.5664755120500829E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>6.7902126207349878E-4</v>
+        <v>6.6439517275553093E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>6.8472953620976238E-4</v>
+        <v>6.7214279430605358E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>6.9043781034602608E-4</v>
+        <v>6.7989041585657633E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>6.9614608448228968E-4</v>
+        <v>6.8763803740709898E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>7.0185435861855328E-4</v>
+        <v>6.9538565895762162E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>7.1327090689108014E-4</v>
+        <v>7.1088090205866626E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>7.2691014281734995E-4</v>
+        <v>7.1082560757134252E-4</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>7.2462658362360498E-4</v>
+        <v>7.0817847393997403E-4</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -24803,127 +25357,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.1819719713499471E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.1819719713499471E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.1819719713499471E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.1819719713499471E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.1819719713499471E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.1819719713499471E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.1819719713499471E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.1819719713499471E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.1819719713499471E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.1819719713499471E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>2.34121431600802E-3</v>
+        <v>2.1819719713499471E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.363310861051621E-3</v>
+        <v>2.2119627644487444E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.3854074060952221E-3</v>
+        <v>2.2419535575475416E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.4075039511388232E-3</v>
+        <v>2.2719443506463389E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.4296004961824242E-3</v>
+        <v>2.3019351437451366E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.4516970412260253E-3</v>
+        <v>2.3319259368439339E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.4737935862696263E-3</v>
+        <v>2.3619167299427312E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.4958901313132274E-3</v>
+        <v>2.3919075230415285E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.5179866763568285E-3</v>
+        <v>2.4218983161403262E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.5400832214004295E-3</v>
+        <v>2.4518891092391235E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.5621797664440306E-3</v>
+        <v>2.4818799023379207E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.5842763114876316E-3</v>
+        <v>2.511870695436718E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.6063728565312327E-3</v>
+        <v>2.5418614885355157E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.6284694015748337E-3</v>
+        <v>2.571852281634313E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.6505659466184348E-3</v>
+        <v>2.6018430747331103E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.6726624916620359E-3</v>
+        <v>2.6318338678319076E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.6947590367056369E-3</v>
+        <v>2.6618246609307053E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.716855581749238E-3</v>
+        <v>2.6918154540295025E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>2.7610486718364388E-3</v>
+        <v>2.7517970402270945E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>2.8138457141316771E-3</v>
+        <v>2.7515829970503575E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>2.8050061301558901E-3</v>
+        <v>2.7413360281547377E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\LA\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{655A8284-E16E-4841-8604-DEC8AFA282CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C13FAFD-2D0B-43B5-9E43-F1CFC13D9FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="555" windowWidth="19605" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="9800" windowHeight="10070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1777,133 +1777,133 @@
                   <c:v>3.142498616321923E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.170827862483609E-4</c:v>
+                  <c:v>3.1934654476143933E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.199157108645295E-4</c:v>
+                  <c:v>3.2444322789068635E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.227486354806981E-4</c:v>
+                  <c:v>3.2953991101993338E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.255815600968667E-4</c:v>
+                  <c:v>3.346365941491804E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.284144847130353E-4</c:v>
+                  <c:v>3.3973327727842743E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.312474093292039E-4</c:v>
+                  <c:v>3.4482996040767445E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.3408033394537249E-4</c:v>
+                  <c:v>3.4992664353692148E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.3691325856154109E-4</c:v>
+                  <c:v>3.550233266661685E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.3974618317770969E-4</c:v>
+                  <c:v>3.6012000979541552E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.4257910779387829E-4</c:v>
+                  <c:v>3.6521669292466255E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.4541203241004689E-4</c:v>
+                  <c:v>3.7031337605390957E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.4824495702621549E-4</c:v>
+                  <c:v>3.754100591831566E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.5107788164238408E-4</c:v>
+                  <c:v>3.8050674231240362E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.5391080625855263E-4</c:v>
+                  <c:v>3.8560342544165043E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.6152338546126896E-4</c:v>
+                  <c:v>3.938977091004229E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.6806778318324615E-4</c:v>
+                  <c:v>4.0102815590911211E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.7326311577328699E-4</c:v>
+                  <c:v>4.0668872915977704E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.8684273091170592E-4</c:v>
+                  <c:v>4.2148439524556525E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.9133628030331842E-4</c:v>
+                  <c:v>4.2638034079782157E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.9460271712590122E-4</c:v>
+                  <c:v>4.2993928617474374E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.0654622240144441E-4</c:v>
+                  <c:v>4.4295232919176118E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.0753465089361259E-4</c:v>
+                  <c:v>4.4402927119422075E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.0771889354095417E-4</c:v>
+                  <c:v>4.4423001272194757E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.0791884576015625E-4</c:v>
+                  <c:v>4.4444787060954387E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.0852284515353123E-4</c:v>
+                  <c:v>4.4510595798899477E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.09583671112226E-4</c:v>
+                  <c:v>4.4626178063197816E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.1078673798239525E-4</c:v>
+                  <c:v>4.4757258182247277E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.122748024320864E-4</c:v>
+                  <c:v>4.4919390205042781E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.1373149805260076E-4</c:v>
+                  <c:v>4.5078104437884211E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.1495700440447459E-4</c:v>
+                  <c:v>4.5211629450069859E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.1601549646964788E-4</c:v>
+                  <c:v>4.5326957425061224E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.1779365223495714E-4</c:v>
+                  <c:v>4.5520696339484528E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.1809544457369974E-4</c:v>
+                  <c:v>4.5553578115777672E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.1838332983416382E-4</c:v>
+                  <c:v>4.5584944646724456E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.1848122624012197E-4</c:v>
+                  <c:v>4.559561094704881E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.1826563698301188E-4</c:v>
+                  <c:v>4.5572121425237108E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.1769414168042572E-4</c:v>
+                  <c:v>4.550985416964502E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.1714393092982577E-4</c:v>
+                  <c:v>4.5449905971852166E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.1708664938544884E-4</c:v>
+                  <c:v>4.5443664862698183E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.165029094218215E-4</c:v>
+                  <c:v>4.5380063490385911E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.1616572999280917E-4</c:v>
+                  <c:v>4.5343326114607497E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.1755377409260071E-4</c:v>
+                  <c:v>4.5494560422822621E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.1711981834238049E-4</c:v>
+                  <c:v>4.5447278785524218E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3236,136 +3236,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.5108389563240119E-5</c:v>
+                  <c:v>5.0412726378568952E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.7552820431472588E-5</c:v>
+                  <c:v>5.4271492176534604E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.9997251299705058E-5</c:v>
+                  <c:v>5.8130257974500256E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.2441682167937527E-5</c:v>
+                  <c:v>6.1989023772465041E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.4886113036169997E-5</c:v>
+                  <c:v>6.5847789570430693E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.7330543904402466E-5</c:v>
+                  <c:v>6.9706555368396345E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.9774974772634936E-5</c:v>
+                  <c:v>7.3565321166361129E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>9.2219405640867405E-5</c:v>
+                  <c:v>7.7424086964326781E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>9.4663836509099875E-5</c:v>
+                  <c:v>8.1282852762291566E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>9.7108267377332344E-5</c:v>
+                  <c:v>8.5141618560257218E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>9.9552698245564814E-5</c:v>
+                  <c:v>8.900038435822287E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.0199712911379728E-4</c:v>
+                  <c:v>9.2859150156187655E-5</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.0444155998202975E-4</c:v>
+                  <c:v>9.6717915954153307E-5</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.0688599085026222E-4</c:v>
+                  <c:v>1.0057668175211809E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.0748894488887501E-4</c:v>
+                  <c:v>1.0420515928406728E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.1376628742778099E-4</c:v>
+                  <c:v>1.0877081887028839E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.1487084665170681E-4</c:v>
+                  <c:v>1.119228749342E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.1675219072501874E-4</c:v>
+                  <c:v>1.1596328986495364E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.1821814758141852E-4</c:v>
+                  <c:v>1.1990275277656129E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.1769306557695523E-4</c:v>
+                  <c:v>1.2199635295884858E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.1740735707916262E-4</c:v>
+                  <c:v>1.243467097653028E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.1551151797500483E-4</c:v>
+                  <c:v>1.2468075205096364E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.1449785838376007E-4</c:v>
+                  <c:v>1.2577381385553893E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.13287341804607E-4</c:v>
+                  <c:v>1.2646319222836433E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.1212406398402511E-4</c:v>
+                  <c:v>1.2698406877407795E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.1076186329973974E-4</c:v>
+                  <c:v>1.2710494044541212E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.0947685788155618E-4</c:v>
+                  <c:v>1.2713124547346271E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.0833659526703707E-4</c:v>
+                  <c:v>1.2714496314152464E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.0725258337875167E-4</c:v>
+                  <c:v>1.2712313200368365E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.0627237374881068E-4</c:v>
+                  <c:v>1.271005238267318E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.053872190542009E-4</c:v>
+                  <c:v>1.2708001023750603E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.0457070988285631E-4</c:v>
+                  <c:v>1.2705407014004141E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.0382785746559407E-4</c:v>
+                  <c:v>1.2702629811717708E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.0317553743970813E-4</c:v>
+                  <c:v>1.2701194080551808E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.0260660677729319E-4</c:v>
+                  <c:v>1.2701796387221964E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.0212195692865432E-4</c:v>
+                  <c:v>1.2701802056749482E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.0164270384030296E-4</c:v>
+                  <c:v>1.270327910946451E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.0120623842325044E-4</c:v>
+                  <c:v>1.2702817221538397E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.0086620530512349E-4</c:v>
+                  <c:v>1.2698131801807758E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.0054219744424832E-4</c:v>
+                  <c:v>1.2695571200958938E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.9850684341711718E-5</c:v>
+                  <c:v>1.2640538596243631E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.9621972535475967E-5</c:v>
+                  <c:v>1.2643551327178303E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.9483752435656976E-5</c:v>
+                  <c:v>1.2650241733350927E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.9383928406132565E-5</c:v>
+                  <c:v>1.2663654108394285E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3699,91 +3699,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.177387347221569E-3</c:v>
+                  <c:v>1.1604234453908705E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.1740372877780075E-3</c:v>
+                  <c:v>1.1579662228857668E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.1706872283344459E-3</c:v>
+                  <c:v>1.1555090003806633E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.1673371688908844E-3</c:v>
+                  <c:v>1.1530517778755595E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.163987109447323E-3</c:v>
+                  <c:v>1.1505945553704558E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.1606370500037615E-3</c:v>
+                  <c:v>1.1481373328653521E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.1572869905602E-3</c:v>
+                  <c:v>1.1456801103602485E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.1539369311166386E-3</c:v>
+                  <c:v>1.1432228878551448E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.1505868716730771E-3</c:v>
+                  <c:v>1.1407656653500411E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.1472368122295155E-3</c:v>
+                  <c:v>1.1383084428449376E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.143886752785954E-3</c:v>
+                  <c:v>1.1358512203398338E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.1405366933423926E-3</c:v>
+                  <c:v>1.1333939978347303E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.1371866338988309E-3</c:v>
+                  <c:v>1.1309367753296266E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.1338365744552694E-3</c:v>
+                  <c:v>1.1284795528245229E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.130486515011708E-3</c:v>
+                  <c:v>1.1260223303194191E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.1271364555681463E-3</c:v>
+                  <c:v>1.1235651078143154E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.1237863961245848E-3</c:v>
+                  <c:v>1.1211078853092119E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.1204363366810234E-3</c:v>
+                  <c:v>1.1186506628041082E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>1.1137362177939013E-3</c:v>
@@ -3801,34 +3801,34 @@
                   <c:v>1.2984724640643824E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.3325458991476347E-3</c:v>
+                  <c:v>1.3325458991476349E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
                   <c:v>1.3625499159680566E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.3753174198569201E-3</c:v>
+                  <c:v>1.3753174198569197E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
                   <c:v>1.3946841343267524E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.4146533498165595E-3</c:v>
+                  <c:v>1.4146533498165597E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.4334182752321722E-3</c:v>
+                  <c:v>1.433418275232172E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
                   <c:v>1.4445909758303492E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.4455847020325701E-3</c:v>
+                  <c:v>1.4455847020325705E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.4457021763821076E-3</c:v>
+                  <c:v>1.4457021763821074E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.4456854451868699E-3</c:v>
+                  <c:v>1.4456854451868704E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
                   <c:v>1.4457034223221783E-3</c:v>
@@ -3840,22 +3840,22 @@
                   <c:v>1.4455629870770495E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.4452171497116701E-3</c:v>
+                  <c:v>1.4452171497116699E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.4450916657473916E-3</c:v>
+                  <c:v>1.4450916657473914E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
                   <c:v>1.4448529792281048E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.443856049179987E-3</c:v>
+                  <c:v>1.4438560491799872E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.4432142120520614E-3</c:v>
+                  <c:v>1.4432142120520612E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.443266541535037E-3</c:v>
+                  <c:v>1.4432665415350372E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
                   <c:v>1.4434251319069122E-3</c:v>
@@ -4240,148 +4240,148 @@
                   <c:v>7.8040477200267344E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.7819056047563108E-4</c:v>
+                  <c:v>7.7875573937035282E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.7597634894858872E-4</c:v>
+                  <c:v>7.771067067380322E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.7376213742154636E-4</c:v>
+                  <c:v>7.7545767410571158E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>7.71547925894504E-4</c:v>
+                  <c:v>7.7380864147339097E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.6933371436746164E-4</c:v>
+                  <c:v>7.7215960884107035E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.6711950284041929E-4</c:v>
+                  <c:v>7.7051057620874973E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.6490529131337693E-4</c:v>
+                  <c:v>7.6886154357642912E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>7.6269107978633457E-4</c:v>
+                  <c:v>7.672125109441085E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>7.6047686825929221E-4</c:v>
+                  <c:v>7.6556347831178788E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>7.5826265673224985E-4</c:v>
+                  <c:v>7.6391444567946727E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>7.5604844520520749E-4</c:v>
+                  <c:v>7.6226541304714665E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>7.5383423367816514E-4</c:v>
+                  <c:v>7.6061638041482603E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>7.5162002215112278E-4</c:v>
+                  <c:v>7.5896734778250542E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>7.4940581062408042E-4</c:v>
+                  <c:v>7.573183151501848E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>7.4719159909703806E-4</c:v>
+                  <c:v>7.5566928251786418E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>7.449773875699957E-4</c:v>
+                  <c:v>7.5402024988554357E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>7.4276317604295334E-4</c:v>
+                  <c:v>7.5237121725322295E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>7.4054896451591099E-4</c:v>
+                  <c:v>7.5072218462090233E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>7.3612054146182692E-4</c:v>
+                  <c:v>7.4742411935626142E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>7.8447318350072194E-4</c:v>
+                  <c:v>7.9651924557390657E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>8.0913266389472246E-4</c:v>
+                  <c:v>8.2155738726285784E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>8.3445529729440947E-4</c:v>
+                  <c:v>8.4726886507457174E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>8.582213975349269E-4</c:v>
+                  <c:v>8.7139990821531331E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>8.8074213007663328E-4</c:v>
+                  <c:v>8.9426646028002797E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>9.0057319308330108E-4</c:v>
+                  <c:v>9.1440204130079723E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>9.0901183566816969E-4</c:v>
+                  <c:v>9.2297026436659075E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>9.2181220627128113E-4</c:v>
+                  <c:v>9.3596719243283541E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>9.3501079807791388E-4</c:v>
+                  <c:v>9.4936845663098554E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>9.4741341804908898E-4</c:v>
+                  <c:v>9.6196152636282171E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>9.5479798028431191E-4</c:v>
+                  <c:v>9.6945948303515201E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>9.5545478057360543E-4</c:v>
+                  <c:v>9.7012636889170394E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>9.5553242488507497E-4</c:v>
+                  <c:v>9.7020520547872228E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>9.5552136645283517E-4</c:v>
+                  <c:v>9.7019397723754094E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>9.5553324838534815E-4</c:v>
+                  <c:v>9.7020604162434225E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>9.5550160244627959E-4</c:v>
+                  <c:v>9.7017390974266364E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>9.5544042814027313E-4</c:v>
+                  <c:v>9.7011179606804271E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>9.5521184799302321E-4</c:v>
+                  <c:v>9.6987970593383536E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>9.5512890975122625E-4</c:v>
+                  <c:v>9.6979549412497463E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>9.5497115062746795E-4</c:v>
+                  <c:v>9.6963531251407814E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>9.5431223276604333E-4</c:v>
+                  <c:v>9.6896627656878928E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>9.5388801248246955E-4</c:v>
+                  <c:v>9.6853554212517003E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>9.5392259949394229E-4</c:v>
+                  <c:v>9.6857066024120565E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>9.5402741931442593E-4</c:v>
+                  <c:v>9.6867708963368051E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>9.5426270510675759E-4</c:v>
+                  <c:v>9.6891598838222154E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.5454316577121671E-4</c:v>
+                  <c:v>9.6920075569048212E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.5490315303348411E-4</c:v>
+                  <c:v>9.6956627077574963E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.5518761355641295E-4</c:v>
+                  <c:v>9.6985509936273564E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.555246604539279E-4</c:v>
+                  <c:v>9.701973218200204E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7795,10 +7795,10 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.40625" customWidth="1"/>
+    <col min="2" max="2" width="107.40625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7809,7 +7809,7 @@
         <v>99</v>
       </c>
       <c r="C1" s="31">
-        <v>45321</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8032,12 +8032,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9031,12 +9031,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9908,12 +9908,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -10785,14 +10785,14 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="2" max="2" width="10.40625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30">
+    <row r="1" spans="1:32">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -11691,12 +11691,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -12568,12 +12568,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -13559,12 +13559,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -14436,12 +14436,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -15435,12 +15435,12 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30">
+    <row r="1" spans="1:31">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -16210,14 +16210,14 @@
   <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.40625" customWidth="1"/>
+    <col min="2" max="2" width="16.40625" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -16391,94 +16391,94 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>4.1601549646964788E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>4.1779365223495714E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>4.1809544457369974E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>4.1838332983416382E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>4.1848122624012197E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.1826563698301188E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>4.1769414168042572E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.1714393092982577E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.1708664938544884E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>4.165029094218215E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.1616572999280917E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>4.1755377409260071E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.1711981834238049E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -16496,94 +16496,94 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>1.0748894488887501E-4</v>
+        <v>1.0420515928406728E-4</v>
       </c>
       <c r="E9" s="4">
-        <v>1.1376628742778099E-4</v>
+        <v>1.0877081887028839E-4</v>
       </c>
       <c r="F9" s="4">
-        <v>1.1487084665170681E-4</v>
+        <v>1.119228749342E-4</v>
       </c>
       <c r="G9" s="4">
-        <v>1.1675219072501874E-4</v>
+        <v>1.1596328986495364E-4</v>
       </c>
       <c r="H9" s="4">
-        <v>1.1821814758141852E-4</v>
+        <v>1.1990275277656129E-4</v>
       </c>
       <c r="I9" s="4">
-        <v>1.1769306557695523E-4</v>
+        <v>1.2199635295884858E-4</v>
       </c>
       <c r="J9" s="4">
-        <v>1.1740735707916262E-4</v>
+        <v>1.243467097653028E-4</v>
       </c>
       <c r="K9" s="4">
-        <v>1.1551151797500483E-4</v>
+        <v>1.2468075205096364E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>1.1449785838376007E-4</v>
+        <v>1.2577381385553893E-4</v>
       </c>
       <c r="M9" s="4">
-        <v>1.13287341804607E-4</v>
+        <v>1.2646319222836433E-4</v>
       </c>
       <c r="N9" s="4">
-        <v>1.1212406398402511E-4</v>
+        <v>1.2698406877407795E-4</v>
       </c>
       <c r="O9" s="4">
-        <v>1.1076186329973974E-4</v>
+        <v>1.2710494044541212E-4</v>
       </c>
       <c r="P9" s="4">
-        <v>1.0947685788155618E-4</v>
+        <v>1.2713124547346271E-4</v>
       </c>
       <c r="Q9" s="4">
-        <v>1.0833659526703707E-4</v>
+        <v>1.2714496314152464E-4</v>
       </c>
       <c r="R9" s="4">
-        <v>1.0725258337875167E-4</v>
+        <v>1.2712313200368365E-4</v>
       </c>
       <c r="S9" s="4">
-        <v>1.0627237374881068E-4</v>
+        <v>1.271005238267318E-4</v>
       </c>
       <c r="T9" s="4">
-        <v>1.053872190542009E-4</v>
+        <v>1.2708001023750603E-4</v>
       </c>
       <c r="U9" s="4">
-        <v>1.0457070988285631E-4</v>
+        <v>1.2705407014004141E-4</v>
       </c>
       <c r="V9" s="4">
-        <v>1.0382785746559407E-4</v>
+        <v>1.2702629811717708E-4</v>
       </c>
       <c r="W9" s="4">
-        <v>1.0317553743970813E-4</v>
+        <v>1.2701194080551808E-4</v>
       </c>
       <c r="X9" s="4">
-        <v>1.0260660677729319E-4</v>
+        <v>1.2701796387221964E-4</v>
       </c>
       <c r="Y9" s="4">
-        <v>1.0212195692865432E-4</v>
+        <v>1.2701802056749482E-4</v>
       </c>
       <c r="Z9" s="4">
-        <v>1.0164270384030296E-4</v>
+        <v>1.270327910946451E-4</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.0120623842325044E-4</v>
+        <v>1.2702817221538397E-4</v>
       </c>
       <c r="AB9" s="4">
-        <v>1.0086620530512349E-4</v>
+        <v>1.2698131801807758E-4</v>
       </c>
       <c r="AC9" s="4">
-        <v>1.0054219744424832E-4</v>
+        <v>1.2695571200958938E-4</v>
       </c>
       <c r="AD9" s="4">
-        <v>9.9850684341711718E-5</v>
+        <v>1.2640538596243631E-4</v>
       </c>
       <c r="AE9" s="4">
-        <v>9.9621972535475967E-5</v>
+        <v>1.2643551327178303E-4</v>
       </c>
       <c r="AF9" s="4">
-        <v>9.9483752435656976E-5</v>
+        <v>1.2650241733350927E-4</v>
       </c>
       <c r="AG9" s="4">
-        <v>9.9383928406132565E-5</v>
+        <v>1.2663654108394285E-4</v>
       </c>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
@@ -16616,34 +16616,34 @@
         <v>1.2984724640643824E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>1.3325458991476347E-3</v>
+        <v>1.3325458991476349E-3</v>
       </c>
       <c r="J10" s="4">
         <v>1.3625499159680566E-3</v>
       </c>
       <c r="K10" s="4">
-        <v>1.3753174198569201E-3</v>
+        <v>1.3753174198569197E-3</v>
       </c>
       <c r="L10" s="4">
         <v>1.3946841343267524E-3</v>
       </c>
       <c r="M10" s="4">
-        <v>1.4146533498165595E-3</v>
+        <v>1.4146533498165597E-3</v>
       </c>
       <c r="N10" s="4">
-        <v>1.4334182752321722E-3</v>
+        <v>1.433418275232172E-3</v>
       </c>
       <c r="O10" s="4">
         <v>1.4445909758303492E-3</v>
       </c>
       <c r="P10" s="4">
-        <v>1.4455847020325701E-3</v>
+        <v>1.4455847020325705E-3</v>
       </c>
       <c r="Q10" s="4">
-        <v>1.4457021763821076E-3</v>
+        <v>1.4457021763821074E-3</v>
       </c>
       <c r="R10" s="4">
-        <v>1.4456854451868699E-3</v>
+        <v>1.4456854451868704E-3</v>
       </c>
       <c r="S10" s="4">
         <v>1.4457034223221783E-3</v>
@@ -16655,22 +16655,22 @@
         <v>1.4455629870770495E-3</v>
       </c>
       <c r="V10" s="4">
-        <v>1.4452171497116701E-3</v>
+        <v>1.4452171497116699E-3</v>
       </c>
       <c r="W10" s="4">
-        <v>1.4450916657473916E-3</v>
+        <v>1.4450916657473914E-3</v>
       </c>
       <c r="X10" s="4">
         <v>1.4448529792281048E-3</v>
       </c>
       <c r="Y10" s="4">
-        <v>1.443856049179987E-3</v>
+        <v>1.4438560491799872E-3</v>
       </c>
       <c r="Z10" s="4">
-        <v>1.4432142120520614E-3</v>
+        <v>1.4432142120520612E-3</v>
       </c>
       <c r="AA10" s="4">
-        <v>1.443266541535037E-3</v>
+        <v>1.4432665415350372E-3</v>
       </c>
       <c r="AB10" s="4">
         <v>1.4434251319069122E-3</v>
@@ -16706,94 +16706,94 @@
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>7.3612054146182692E-4</v>
+        <v>7.4742411935626142E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>7.8447318350072194E-4</v>
+        <v>7.9651924557390657E-4</v>
       </c>
       <c r="F11" s="4">
-        <v>8.0913266389472246E-4</v>
+        <v>8.2155738726285784E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>8.3445529729440947E-4</v>
+        <v>8.4726886507457174E-4</v>
       </c>
       <c r="H11" s="4">
-        <v>8.582213975349269E-4</v>
+        <v>8.7139990821531331E-4</v>
       </c>
       <c r="I11" s="4">
-        <v>8.8074213007663328E-4</v>
+        <v>8.9426646028002797E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>9.0057319308330108E-4</v>
+        <v>9.1440204130079723E-4</v>
       </c>
       <c r="K11" s="4">
-        <v>9.0901183566816969E-4</v>
+        <v>9.2297026436659075E-4</v>
       </c>
       <c r="L11" s="4">
-        <v>9.2181220627128113E-4</v>
+        <v>9.3596719243283541E-4</v>
       </c>
       <c r="M11" s="4">
-        <v>9.3501079807791388E-4</v>
+        <v>9.4936845663098554E-4</v>
       </c>
       <c r="N11" s="4">
-        <v>9.4741341804908898E-4</v>
+        <v>9.6196152636282171E-4</v>
       </c>
       <c r="O11" s="4">
-        <v>9.5479798028431191E-4</v>
+        <v>9.6945948303515201E-4</v>
       </c>
       <c r="P11" s="4">
-        <v>9.5545478057360543E-4</v>
+        <v>9.7012636889170394E-4</v>
       </c>
       <c r="Q11" s="4">
-        <v>9.5553242488507497E-4</v>
+        <v>9.7020520547872228E-4</v>
       </c>
       <c r="R11" s="4">
-        <v>9.5552136645283517E-4</v>
+        <v>9.7019397723754094E-4</v>
       </c>
       <c r="S11" s="4">
-        <v>9.5553324838534815E-4</v>
+        <v>9.7020604162434225E-4</v>
       </c>
       <c r="T11" s="4">
-        <v>9.5550160244627959E-4</v>
+        <v>9.7017390974266364E-4</v>
       </c>
       <c r="U11" s="4">
-        <v>9.5544042814027313E-4</v>
+        <v>9.7011179606804271E-4</v>
       </c>
       <c r="V11" s="4">
-        <v>9.5521184799302321E-4</v>
+        <v>9.6987970593383536E-4</v>
       </c>
       <c r="W11" s="4">
-        <v>9.5512890975122625E-4</v>
+        <v>9.6979549412497463E-4</v>
       </c>
       <c r="X11" s="4">
-        <v>9.5497115062746795E-4</v>
+        <v>9.6963531251407814E-4</v>
       </c>
       <c r="Y11" s="4">
-        <v>9.5431223276604333E-4</v>
+        <v>9.6896627656878928E-4</v>
       </c>
       <c r="Z11" s="4">
-        <v>9.5388801248246955E-4</v>
+        <v>9.6853554212517003E-4</v>
       </c>
       <c r="AA11" s="4">
-        <v>9.5392259949394229E-4</v>
+        <v>9.6857066024120565E-4</v>
       </c>
       <c r="AB11" s="4">
-        <v>9.5402741931442593E-4</v>
+        <v>9.6867708963368051E-4</v>
       </c>
       <c r="AC11" s="4">
-        <v>9.5426270510675759E-4</v>
+        <v>9.6891598838222154E-4</v>
       </c>
       <c r="AD11" s="4">
-        <v>9.5454316577121671E-4</v>
+        <v>9.6920075569048212E-4</v>
       </c>
       <c r="AE11" s="4">
-        <v>9.5490315303348411E-4</v>
+        <v>9.6956627077574963E-4</v>
       </c>
       <c r="AF11" s="4">
-        <v>9.5518761355641295E-4</v>
+        <v>9.6985509936273564E-4</v>
       </c>
       <c r="AG11" s="4">
-        <v>9.555246604539279E-4</v>
+        <v>9.701973218200204E-4</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -17846,94 +17846,94 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>1.0610370953958444E-3</v>
+        <v>1.1058184387710214E-3</v>
       </c>
       <c r="C24">
-        <v>1.1182929641066262E-3</v>
+        <v>1.1654653618777037E-3</v>
       </c>
       <c r="D24">
-        <v>1.1230378075595187E-3</v>
+        <v>1.1704178038241025E-3</v>
       </c>
       <c r="E24">
-        <v>1.1207737467721995E-3</v>
+        <v>1.1680699023993095E-3</v>
       </c>
       <c r="F24">
-        <v>1.1241462933302886E-3</v>
+        <v>1.1715925157363262E-3</v>
       </c>
       <c r="G24">
-        <v>1.1243227034620279E-3</v>
+        <v>1.1717836975623729E-3</v>
       </c>
       <c r="H24">
-        <v>1.1197764855285623E-3</v>
+        <v>1.1670454732039669E-3</v>
       </c>
       <c r="I24">
-        <v>1.1191149559385343E-3</v>
+        <v>1.1663553647253712E-3</v>
       </c>
       <c r="J24">
-        <v>1.1130469624480827E-3</v>
+        <v>1.1600295837550369E-3</v>
       </c>
       <c r="K24">
-        <v>1.1088287076252618E-3</v>
+        <v>1.1556233631186427E-3</v>
       </c>
       <c r="L24">
-        <v>1.1076057889551705E-3</v>
+        <v>1.1543479301738477E-3</v>
       </c>
       <c r="M24">
-        <v>1.1071053032327867E-3</v>
+        <v>1.1538248111999468E-3</v>
       </c>
       <c r="N24">
-        <v>1.1067724143381994E-3</v>
+        <v>1.1534771013398996E-3</v>
       </c>
       <c r="O24">
-        <v>1.1066615139372906E-3</v>
+        <v>1.153358383316175E-3</v>
       </c>
       <c r="P24">
-        <v>1.1066769292084788E-3</v>
+        <v>1.1533777970732827E-3</v>
       </c>
       <c r="Q24">
-        <v>1.1066795967218581E-3</v>
+        <v>1.1533839998503657E-3</v>
       </c>
       <c r="R24">
-        <v>1.1064406824033406E-3</v>
+        <v>1.1531365054505626E-3</v>
       </c>
       <c r="S24">
-        <v>1.10616658964172E-3</v>
+        <v>1.1528517648706005E-3</v>
       </c>
       <c r="T24">
-        <v>1.1060290826740075E-3</v>
+        <v>1.1527114348871379E-3</v>
       </c>
       <c r="U24">
-        <v>1.1055011555537056E-3</v>
+        <v>1.1521628742468084E-3</v>
       </c>
       <c r="V24">
-        <v>1.1050415873555949E-3</v>
+        <v>1.1516853990217147E-3</v>
       </c>
       <c r="W24">
-        <v>1.1045586465345543E-3</v>
+        <v>1.1511845126241146E-3</v>
       </c>
       <c r="X24">
-        <v>1.1038843213708662E-3</v>
+        <v>1.1504833870552749E-3</v>
       </c>
       <c r="Y24">
-        <v>1.1032661366839319E-3</v>
+        <v>1.1498404422001507E-3</v>
       </c>
       <c r="Z24">
-        <v>1.1026899310228654E-3</v>
+        <v>1.1492400691721339E-3</v>
       </c>
       <c r="AA24">
-        <v>1.1033241851303997E-3</v>
+        <v>1.1499032994117962E-3</v>
       </c>
       <c r="AB24">
-        <v>1.1025809057094401E-3</v>
+        <v>1.1491304009395679E-3</v>
       </c>
       <c r="AC24">
-        <v>1.1023701654874632E-3</v>
+        <v>1.148913547482614E-3</v>
       </c>
       <c r="AD24">
-        <v>1.1025099635140992E-3</v>
+        <v>1.1490606826052038E-3</v>
       </c>
       <c r="AE24">
-        <v>1.1022449653531074E-3</v>
+        <v>1.1487858957225897E-3</v>
       </c>
     </row>
     <row r="25" spans="1:37">
@@ -17941,94 +17941,94 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>3.9757641638912632E-4</v>
+        <v>4.1435623124899391E-4</v>
       </c>
       <c r="C25">
-        <v>3.9900747239960505E-4</v>
+        <v>4.1583860682125711E-4</v>
       </c>
       <c r="D25">
-        <v>4.094728037527083E-4</v>
+        <v>4.2674810809389702E-4</v>
       </c>
       <c r="E25">
-        <v>4.1042134222259559E-4</v>
+        <v>4.2774094105362768E-4</v>
       </c>
       <c r="F25">
-        <v>4.2303467685595353E-4</v>
+        <v>4.4088946807188358E-4</v>
       </c>
       <c r="G25">
-        <v>4.2712563186039055E-4</v>
+        <v>4.4515587089355332E-4</v>
       </c>
       <c r="H25">
-        <v>4.2901230740863917E-4</v>
+        <v>4.4712215141194824E-4</v>
       </c>
       <c r="I25">
-        <v>4.4013468861937947E-4</v>
+        <v>4.5871378319881849E-4</v>
       </c>
       <c r="J25">
-        <v>4.4145313646605977E-4</v>
+        <v>4.60087233889707E-4</v>
       </c>
       <c r="K25">
-        <v>4.4134933786440692E-4</v>
+        <v>4.5997510943360454E-4</v>
       </c>
       <c r="L25">
-        <v>4.4091962109341271E-4</v>
+        <v>4.5952689761791997E-4</v>
       </c>
       <c r="M25">
-        <v>4.4021823423990848E-4</v>
+        <v>4.5879531018905696E-4</v>
       </c>
       <c r="N25">
-        <v>4.4027827540505136E-4</v>
+        <v>4.5885757750912214E-4</v>
       </c>
       <c r="O25">
-        <v>4.4040955993276986E-4</v>
+        <v>4.5899315341134275E-4</v>
       </c>
       <c r="P25">
-        <v>4.4116372836744042E-4</v>
+        <v>4.5978047950904734E-4</v>
       </c>
       <c r="Q25">
-        <v>4.4149861084351322E-4</v>
+        <v>4.6013085920391559E-4</v>
       </c>
       <c r="R25">
-        <v>4.4225600784943527E-4</v>
+        <v>4.6092082071518263E-4</v>
       </c>
       <c r="S25">
-        <v>4.4285604557792939E-4</v>
+        <v>4.615465505005841E-4</v>
       </c>
       <c r="T25">
-        <v>4.4414588143789507E-4</v>
+        <v>4.6289202003053275E-4</v>
       </c>
       <c r="U25">
-        <v>4.4411604405746724E-4</v>
+        <v>4.6286158567069468E-4</v>
       </c>
       <c r="V25">
-        <v>4.4420971921594975E-4</v>
+        <v>4.6295981398202245E-4</v>
       </c>
       <c r="W25">
-        <v>4.4397500702864155E-4</v>
+        <v>4.6271617508682986E-4</v>
       </c>
       <c r="X25">
-        <v>4.4370861117360116E-4</v>
+        <v>4.6243920306310218E-4</v>
       </c>
       <c r="Y25">
-        <v>4.424879140459794E-4</v>
+        <v>4.6116751148015295E-4</v>
       </c>
       <c r="Z25">
-        <v>4.4177355237873966E-4</v>
+        <v>4.6042305602918797E-4</v>
       </c>
       <c r="AA25">
-        <v>4.4054153352135982E-4</v>
+        <v>4.591399062500133E-4</v>
       </c>
       <c r="AB25">
-        <v>4.3982519474178468E-4</v>
+        <v>4.5839402783031833E-4</v>
       </c>
       <c r="AC25">
-        <v>4.3880580213641828E-4</v>
+        <v>4.573327059931574E-4</v>
       </c>
       <c r="AD25">
-        <v>4.4035893908705087E-4</v>
+        <v>4.5895199125989522E-4</v>
       </c>
       <c r="AE25">
-        <v>4.3940968502460365E-4</v>
+        <v>4.579632154985259E-4</v>
       </c>
     </row>
     <row r="26" spans="1:37">
@@ -18036,94 +18036,94 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>3.4525981498377545E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="C26">
-        <v>3.5982944807231638E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="D26">
-        <v>3.6710644959195353E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="E26">
-        <v>3.7373493890990666E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="F26">
-        <v>3.9582578415611009E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="G26">
-        <v>4.3494713071778808E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="H26">
-        <v>4.4227847691112512E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="I26">
-        <v>4.5901794912486538E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="J26">
-        <v>4.6412939868974872E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="K26">
-        <v>4.6774364798041294E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="L26">
-        <v>4.6966309910348734E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="M26">
-        <v>4.7260846794834008E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="N26">
-        <v>4.7526441798452414E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="O26">
-        <v>4.7788153153438258E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="P26">
-        <v>4.8072409114320114E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="Q26">
-        <v>4.8317943716800202E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="R26">
-        <v>4.8470967915637789E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="S26">
-        <v>4.8594611468298545E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="T26">
-        <v>4.8792763254902827E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="U26">
-        <v>4.8771717870415681E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="V26">
-        <v>4.8811136392356582E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="W26">
-        <v>4.8843918429084768E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="X26">
-        <v>4.8810682276656785E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="Y26">
-        <v>4.8747689393500613E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="Z26">
-        <v>4.8672999513277174E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="AA26">
-        <v>4.8843454079791745E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="AB26">
-        <v>4.8748772875184347E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="AC26">
-        <v>4.8711906355556337E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="AD26">
-        <v>4.8876138897384217E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="AE26">
-        <v>4.8839502633604009E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
     </row>
     <row r="27" spans="1:37">
@@ -18131,94 +18131,94 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>3.8826950759574409E-4</v>
+        <v>4.0465652197743196E-4</v>
       </c>
       <c r="C27">
-        <v>3.989339915927411E-4</v>
+        <v>4.1576202640994142E-4</v>
       </c>
       <c r="D27">
-        <v>4.0175941665032688E-4</v>
+        <v>4.1870929984394776E-4</v>
       </c>
       <c r="E27">
-        <v>4.046076403132251E-4</v>
+        <v>4.2168190349906829E-4</v>
       </c>
       <c r="F27">
-        <v>4.1514273478187707E-4</v>
+        <v>4.3266443515270633E-4</v>
       </c>
       <c r="G27">
-        <v>4.1963901427461011E-4</v>
+        <v>4.3735322098718013E-4</v>
       </c>
       <c r="H27">
-        <v>4.2143164929997338E-4</v>
+        <v>4.3922149191073594E-4</v>
       </c>
       <c r="I27">
-        <v>4.2796953665692094E-4</v>
+        <v>4.4603511227335165E-4</v>
       </c>
       <c r="J27">
-        <v>4.2869137838688967E-4</v>
+        <v>4.4678679157952655E-4</v>
       </c>
       <c r="K27">
-        <v>4.2889294118354267E-4</v>
+        <v>4.4699302940114473E-4</v>
       </c>
       <c r="L27">
-        <v>4.2958514978309507E-4</v>
+        <v>4.4771409957447328E-4</v>
       </c>
       <c r="M27">
-        <v>4.3016225956684587E-4</v>
+        <v>4.4831497643516992E-4</v>
       </c>
       <c r="N27">
-        <v>4.314632453320266E-4</v>
+        <v>4.496705619988588E-4</v>
       </c>
       <c r="O27">
-        <v>4.3270248083989658E-4</v>
+        <v>4.5096086515454705E-4</v>
       </c>
       <c r="P27">
-        <v>4.3430279078009501E-4</v>
+        <v>4.5263001592613935E-4</v>
       </c>
       <c r="Q27">
-        <v>4.3530324098676928E-4</v>
+        <v>4.5367403060863823E-4</v>
       </c>
       <c r="R27">
-        <v>4.3666804491927715E-4</v>
+        <v>4.5509702541521833E-4</v>
       </c>
       <c r="S27">
-        <v>4.3784695384923824E-4</v>
+        <v>4.5632605270766956E-4</v>
       </c>
       <c r="T27">
-        <v>4.3919387063071915E-4</v>
+        <v>4.5773099888512522E-4</v>
       </c>
       <c r="U27">
-        <v>4.3965998782187011E-4</v>
+        <v>4.5821744528746784E-4</v>
       </c>
       <c r="V27">
-        <v>4.4023054662472997E-4</v>
+        <v>4.5881268049317148E-4</v>
       </c>
       <c r="W27">
-        <v>4.4040065556194612E-4</v>
+        <v>4.5899094233070158E-4</v>
       </c>
       <c r="X27">
-        <v>4.4071018775672388E-4</v>
+        <v>4.5931420503415025E-4</v>
       </c>
       <c r="Y27">
-        <v>4.4012557028617579E-4</v>
+        <v>4.5870544153793057E-4</v>
       </c>
       <c r="Z27">
-        <v>4.3984103857540357E-4</v>
+        <v>4.584089610106891E-4</v>
       </c>
       <c r="AA27">
-        <v>4.3927502996579274E-4</v>
+        <v>4.5781993462527175E-4</v>
       </c>
       <c r="AB27">
-        <v>4.3896293494925283E-4</v>
+        <v>4.5749536457941731E-4</v>
       </c>
       <c r="AC27">
-        <v>4.3836887632577525E-4</v>
+        <v>4.5687733265413878E-4</v>
       </c>
       <c r="AD27">
-        <v>4.3967475364455565E-4</v>
+        <v>4.5823891780242144E-4</v>
       </c>
       <c r="AE27">
-        <v>4.3902895392029714E-4</v>
+        <v>4.5756640849424067E-4</v>
       </c>
     </row>
     <row r="28" spans="1:37">
@@ -18226,94 +18226,94 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>6.2864085446168573E-4</v>
+        <v>6.5517280333083554E-4</v>
       </c>
       <c r="C28">
-        <v>5.8065173143116884E-4</v>
+        <v>6.0514507559113824E-4</v>
       </c>
       <c r="D28">
-        <v>5.7715727565658991E-4</v>
+        <v>6.0150704320725845E-4</v>
       </c>
       <c r="E28">
-        <v>5.8939802003144003E-4</v>
+        <v>6.1427035538190694E-4</v>
       </c>
       <c r="F28">
-        <v>6.1132283966645277E-4</v>
+        <v>6.3712460549070139E-4</v>
       </c>
       <c r="G28">
-        <v>6.2116495269514782E-4</v>
+        <v>6.4738616664415639E-4</v>
       </c>
       <c r="H28">
-        <v>6.2859863293007745E-4</v>
+        <v>6.5513359005477795E-4</v>
       </c>
       <c r="I28">
-        <v>6.4471041145104213E-4</v>
+        <v>6.7192511645025751E-4</v>
       </c>
       <c r="J28">
-        <v>6.4840312593372079E-4</v>
+        <v>6.7577275142821603E-4</v>
       </c>
       <c r="K28">
-        <v>6.5182617183108646E-4</v>
+        <v>6.7933446138261709E-4</v>
       </c>
       <c r="L28">
-        <v>6.5274851137244263E-4</v>
+        <v>6.8029519215282537E-4</v>
       </c>
       <c r="M28">
-        <v>6.5479808482626608E-4</v>
+        <v>6.8243036537951835E-4</v>
       </c>
       <c r="N28">
-        <v>6.5728685533569657E-4</v>
+        <v>6.8502370209035806E-4</v>
       </c>
       <c r="O28">
-        <v>6.599953694386326E-4</v>
+        <v>6.8784464147818671E-4</v>
       </c>
       <c r="P28">
-        <v>6.6271823685959863E-4</v>
+        <v>6.9068440837210285E-4</v>
       </c>
       <c r="Q28">
-        <v>6.6541147575940635E-4</v>
+        <v>6.9349335772620044E-4</v>
       </c>
       <c r="R28">
-        <v>6.6758238321629323E-4</v>
+        <v>6.9575678906731286E-4</v>
       </c>
       <c r="S28">
-        <v>6.695223998790733E-4</v>
+        <v>6.9777923827096409E-4</v>
       </c>
       <c r="T28">
-        <v>6.7209439570581602E-4</v>
+        <v>7.0046159489822399E-4</v>
       </c>
       <c r="U28">
-        <v>6.7286737744009942E-4</v>
+        <v>7.0126820554068138E-4</v>
       </c>
       <c r="V28">
-        <v>6.7344823507195376E-4</v>
+        <v>7.0187448889172854E-4</v>
       </c>
       <c r="W28">
-        <v>6.73909086850441E-4</v>
+        <v>7.0235628151829209E-4</v>
       </c>
       <c r="X28">
-        <v>6.740064696202369E-4</v>
+        <v>7.0245879124624332E-4</v>
       </c>
       <c r="Y28">
-        <v>6.7364356730673243E-4</v>
+        <v>7.0208138504586923E-4</v>
       </c>
       <c r="Z28">
-        <v>6.7322262507433497E-4</v>
+        <v>7.0164276868927991E-4</v>
       </c>
       <c r="AA28">
-        <v>6.7344500418278937E-4</v>
+        <v>7.0187587901977887E-4</v>
       </c>
       <c r="AB28">
-        <v>6.7281217685356582E-4</v>
+        <v>7.0121740957167211E-4</v>
       </c>
       <c r="AC28">
-        <v>6.7245517568083519E-4</v>
+        <v>7.0084703451029598E-4</v>
       </c>
       <c r="AD28">
-        <v>6.7397575425436052E-4</v>
+        <v>7.0243269074363234E-4</v>
       </c>
       <c r="AE28">
-        <v>6.7349435170381685E-4</v>
+        <v>7.0193181770471214E-4</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -18321,94 +18321,94 @@
         <v>84</v>
       </c>
       <c r="B29">
-        <v>3.4585801076062443E-4</v>
+        <v>3.6045503701553509E-4</v>
       </c>
       <c r="C29">
-        <v>3.4495574783075341E-4</v>
+        <v>3.5950684514816466E-4</v>
       </c>
       <c r="D29">
-        <v>3.6039991749266362E-4</v>
+        <v>3.7560487909735457E-4</v>
       </c>
       <c r="E29">
-        <v>3.6434083049787565E-4</v>
+        <v>3.7971585214712964E-4</v>
       </c>
       <c r="F29">
-        <v>3.7594665871961683E-4</v>
+        <v>3.9181403193273731E-4</v>
       </c>
       <c r="G29">
-        <v>3.8265282942463545E-4</v>
+        <v>3.9880573963794092E-4</v>
       </c>
       <c r="H29">
-        <v>3.8491153807264589E-4</v>
+        <v>4.0115976169978224E-4</v>
       </c>
       <c r="I29">
-        <v>3.948653271158722E-4</v>
+        <v>4.1153349812879397E-4</v>
       </c>
       <c r="J29">
-        <v>3.9594612256427204E-4</v>
+        <v>4.1265933176568687E-4</v>
       </c>
       <c r="K29">
-        <v>3.9619175896624695E-4</v>
+        <v>4.129117958327599E-4</v>
       </c>
       <c r="L29">
-        <v>3.9654376773871745E-4</v>
+        <v>4.1327833609856163E-4</v>
       </c>
       <c r="M29">
-        <v>3.9707573055230652E-4</v>
+        <v>4.1383220593268312E-4</v>
       </c>
       <c r="N29">
-        <v>3.9834863581642401E-4</v>
+        <v>4.1515854913946708E-4</v>
       </c>
       <c r="O29">
-        <v>3.9959695124185265E-4</v>
+        <v>4.1645840924083266E-4</v>
       </c>
       <c r="P29">
-        <v>4.0092020917552979E-4</v>
+        <v>4.1783871648228943E-4</v>
       </c>
       <c r="Q29">
-        <v>4.0164593001903277E-4</v>
+        <v>4.185963043514945E-4</v>
       </c>
       <c r="R29">
-        <v>4.025864972614837E-4</v>
+        <v>4.1957711242621983E-4</v>
       </c>
       <c r="S29">
-        <v>4.0337312378417004E-4</v>
+        <v>4.2039727289771742E-4</v>
       </c>
       <c r="T29">
-        <v>4.0442495213179318E-4</v>
+        <v>4.2149458289914189E-4</v>
       </c>
       <c r="U29">
-        <v>4.0454932437130627E-4</v>
+        <v>4.2162480789881447E-4</v>
       </c>
       <c r="V29">
-        <v>4.0464803339247029E-4</v>
+        <v>4.2172822917568159E-4</v>
       </c>
       <c r="W29">
-        <v>4.0439328301694171E-4</v>
+        <v>4.2146361886612633E-4</v>
       </c>
       <c r="X29">
-        <v>4.040545754555679E-4</v>
+        <v>4.2111122291148745E-4</v>
       </c>
       <c r="Y29">
-        <v>4.0293590438237893E-4</v>
+        <v>4.1994581639741166E-4</v>
       </c>
       <c r="Z29">
-        <v>4.0211529090881346E-4</v>
+        <v>4.190906180766014E-4</v>
       </c>
       <c r="AA29">
-        <v>4.0078697353040108E-4</v>
+        <v>4.1770702521979762E-4</v>
       </c>
       <c r="AB29">
-        <v>4.0014215791000135E-4</v>
+        <v>4.170356261122462E-4</v>
       </c>
       <c r="AC29">
-        <v>3.9916649340924858E-4</v>
+        <v>4.1601977841646405E-4</v>
       </c>
       <c r="AD29">
-        <v>3.9985648048380197E-4</v>
+        <v>4.1673941788640924E-4</v>
       </c>
       <c r="AE29">
-        <v>3.9882869849444967E-4</v>
+        <v>4.1566874700402494E-4</v>
       </c>
     </row>
     <row r="30" spans="1:37">
@@ -18416,94 +18416,94 @@
         <v>85</v>
       </c>
       <c r="B30">
-        <v>5.5949994465194052E-4</v>
+        <v>5.8311378364830837E-4</v>
       </c>
       <c r="C30">
-        <v>5.490709016341414E-4</v>
+        <v>5.7223208730528745E-4</v>
       </c>
       <c r="D30">
-        <v>5.4591562691943185E-4</v>
+        <v>5.6894733626181731E-4</v>
       </c>
       <c r="E30">
-        <v>5.4428202142592678E-4</v>
+        <v>5.6725048162098066E-4</v>
       </c>
       <c r="F30">
-        <v>5.4687829275625965E-4</v>
+        <v>5.6996008314341522E-4</v>
       </c>
       <c r="G30">
-        <v>5.4645085655929157E-4</v>
+        <v>5.6951816703823988E-4</v>
       </c>
       <c r="H30">
-        <v>5.4701855850944456E-4</v>
+        <v>5.7010978594149338E-4</v>
       </c>
       <c r="I30">
-        <v>5.5159545353608997E-4</v>
+        <v>5.7487956261865754E-4</v>
       </c>
       <c r="J30">
-        <v>5.5116986450326347E-4</v>
+        <v>5.7443519462267441E-4</v>
       </c>
       <c r="K30">
-        <v>5.5082515994957833E-4</v>
+        <v>5.7407101696939681E-4</v>
       </c>
       <c r="L30">
-        <v>5.5045116908780244E-4</v>
+        <v>5.7368079332420063E-4</v>
       </c>
       <c r="M30">
-        <v>5.5016894781847396E-4</v>
+        <v>5.7338591052819412E-4</v>
       </c>
       <c r="N30">
-        <v>5.5030632856499669E-4</v>
+        <v>5.7352870427450646E-4</v>
       </c>
       <c r="O30">
-        <v>5.5080345075069956E-4</v>
+        <v>5.7404524281558721E-4</v>
       </c>
       <c r="P30">
-        <v>5.5167571643641449E-4</v>
+        <v>5.7495598374617473E-4</v>
       </c>
       <c r="Q30">
-        <v>5.5236107717376317E-4</v>
+        <v>5.7567197447162301E-4</v>
       </c>
       <c r="R30">
-        <v>5.5273978734272802E-4</v>
+        <v>5.7606741774479436E-4</v>
       </c>
       <c r="S30">
-        <v>5.5274410279881891E-4</v>
+        <v>5.7607237499356242E-4</v>
       </c>
       <c r="T30">
-        <v>5.5289670193281145E-4</v>
+        <v>5.762329043721763E-4</v>
       </c>
       <c r="U30">
-        <v>5.5265714178147211E-4</v>
+        <v>5.7598405732017636E-4</v>
       </c>
       <c r="V30">
-        <v>5.5244896195009953E-4</v>
+        <v>5.7576783576552626E-4</v>
       </c>
       <c r="W30">
-        <v>5.5221137170350255E-4</v>
+        <v>5.7552143636232329E-4</v>
       </c>
       <c r="X30">
-        <v>5.5188530920952062E-4</v>
+        <v>5.7518244213933473E-4</v>
       </c>
       <c r="Y30">
-        <v>5.5130828970691593E-4</v>
+        <v>5.7458173195686134E-4</v>
       </c>
       <c r="Z30">
-        <v>5.5089526377585969E-4</v>
+        <v>5.7415134865799545E-4</v>
       </c>
       <c r="AA30">
-        <v>5.5094868459087108E-4</v>
+        <v>5.7420812373722705E-4</v>
       </c>
       <c r="AB30">
-        <v>5.5070873103541993E-4</v>
+        <v>5.7395891913116653E-4</v>
       </c>
       <c r="AC30">
-        <v>5.5038144396247959E-4</v>
+        <v>5.7361920437307709E-4</v>
       </c>
       <c r="AD30">
-        <v>5.5068737415113456E-4</v>
+        <v>5.7393876788858417E-4</v>
       </c>
       <c r="AE30">
-        <v>5.5020714130888889E-4</v>
+        <v>5.7343895733650446E-4</v>
       </c>
     </row>
   </sheetData>
@@ -18519,7 +18519,7 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -18896,9 +18896,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.40625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19005,11 +19005,11 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.40625" customWidth="1"/>
+    <col min="3" max="3" width="42.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -19153,7 +19153,7 @@
       </c>
       <c r="B16">
         <f>TREND(C16:D16,C13:D13,B13)</f>
-        <v>3.1424986163219263E-4</v>
+        <v>3.142498616321935E-4</v>
       </c>
       <c r="C16">
         <f>C15*$B$2/$B$9</f>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19179,7 +19179,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="29.5">
       <c r="A20" s="13" t="s">
         <v>68</v>
       </c>
@@ -19197,7 +19197,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="29.5">
       <c r="A22" s="13" t="s">
         <v>70</v>
       </c>
@@ -19289,11 +19289,11 @@
       <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="40" max="40" width="8.7109375" style="24"/>
+    <col min="15" max="15" width="11.40625" customWidth="1"/>
+    <col min="40" max="40" width="8.7265625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -19539,175 +19539,175 @@
       </c>
       <c r="AB2" s="4">
         <f>($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AA2</f>
-        <v>3.170827862483609E-4</v>
+        <v>3.1934654476143933E-4</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" ref="AC2:AN2" si="0">($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AB2</f>
-        <v>3.199157108645295E-4</v>
+        <v>3.2444322789068635E-4</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>3.227486354806981E-4</v>
+        <v>3.2953991101993338E-4</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>3.255815600968667E-4</v>
+        <v>3.346365941491804E-4</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>3.284144847130353E-4</v>
+        <v>3.3973327727842743E-4</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>3.312474093292039E-4</v>
+        <v>3.4482996040767445E-4</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3408033394537249E-4</v>
+        <v>3.4992664353692148E-4</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3691325856154109E-4</v>
+        <v>3.550233266661685E-4</v>
       </c>
       <c r="AJ2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3974618317770969E-4</v>
+        <v>3.6012000979541552E-4</v>
       </c>
       <c r="AK2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4257910779387829E-4</v>
+        <v>3.6521669292466255E-4</v>
       </c>
       <c r="AL2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4541203241004689E-4</v>
+        <v>3.7031337605390957E-4</v>
       </c>
       <c r="AM2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4824495702621549E-4</v>
+        <v>3.754100591831566E-4</v>
       </c>
       <c r="AN2" s="26">
         <f t="shared" si="0"/>
-        <v>3.5107788164238408E-4</v>
+        <v>3.8050674231240362E-4</v>
       </c>
       <c r="AO2" s="10">
         <f>BNVFE!D8</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="AP2" s="10">
         <f>BNVFE!E8</f>
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="AQ2" s="10">
         <f>BNVFE!F8</f>
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="AR2" s="10">
         <f>BNVFE!G8</f>
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="AS2" s="10">
         <f>BNVFE!H8</f>
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="AT2" s="10">
         <f>BNVFE!I8</f>
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="AU2" s="10">
         <f>BNVFE!J8</f>
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="AV2" s="10">
         <f>BNVFE!K8</f>
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="AW2" s="10">
         <f>BNVFE!L8</f>
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="AX2" s="10">
         <f>BNVFE!M8</f>
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="AY2" s="10">
         <f>BNVFE!N8</f>
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="AZ2" s="10">
         <f>BNVFE!O8</f>
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="BA2" s="10">
         <f>BNVFE!P8</f>
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="BB2" s="10">
         <f>BNVFE!Q8</f>
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="BC2" s="10">
         <f>BNVFE!R8</f>
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="BD2" s="10">
         <f>BNVFE!S8</f>
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="BE2" s="10">
         <f>BNVFE!T8</f>
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="BF2" s="10">
         <f>BNVFE!U8</f>
-        <v>4.1601549646964788E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="BG2" s="10">
         <f>BNVFE!V8</f>
-        <v>4.1779365223495714E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="BH2" s="10">
         <f>BNVFE!W8</f>
-        <v>4.1809544457369974E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="BI2" s="10">
         <f>BNVFE!X8</f>
-        <v>4.1838332983416382E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="BJ2" s="10">
         <f>BNVFE!Y8</f>
-        <v>4.1848122624012197E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="BK2" s="10">
         <f>BNVFE!Z8</f>
-        <v>4.1826563698301188E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="BL2" s="10">
         <f>BNVFE!AA8</f>
-        <v>4.1769414168042572E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="BM2" s="10">
         <f>BNVFE!AB8</f>
-        <v>4.1714393092982577E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="BN2" s="10">
         <f>BNVFE!AC8</f>
-        <v>4.1708664938544884E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="BO2" s="10">
         <f>BNVFE!AD8</f>
-        <v>4.165029094218215E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="BP2" s="10">
         <f>BNVFE!AE8</f>
-        <v>4.1616572999280917E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="BQ2" s="10">
         <f>BNVFE!AF8</f>
-        <v>4.1755377409260071E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="BR2" s="10">
         <f>BNVFE!AG8</f>
-        <v>4.1711981834238049E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
       <c r="BS2" s="10"/>
       <c r="BT2" s="4"/>
@@ -19745,179 +19745,179 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="4" cm="1">
         <f t="array" ref="AA3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AA1)</f>
-        <v>7.5108389563240119E-5</v>
+        <v>5.0412726378568952E-5</v>
       </c>
       <c r="AB3" s="4" cm="1">
         <f t="array" ref="AB3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AB1)</f>
-        <v>7.7552820431472588E-5</v>
+        <v>5.4271492176534604E-5</v>
       </c>
       <c r="AC3" s="4" cm="1">
         <f t="array" ref="AC3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AC1)</f>
-        <v>7.9997251299705058E-5</v>
+        <v>5.8130257974500256E-5</v>
       </c>
       <c r="AD3" s="4" cm="1">
         <f t="array" ref="AD3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AD1)</f>
-        <v>8.2441682167937527E-5</v>
+        <v>6.1989023772465041E-5</v>
       </c>
       <c r="AE3" s="4" cm="1">
         <f t="array" ref="AE3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AE1)</f>
-        <v>8.4886113036169997E-5</v>
+        <v>6.5847789570430693E-5</v>
       </c>
       <c r="AF3" s="4" cm="1">
         <f t="array" ref="AF3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AF1)</f>
-        <v>8.7330543904402466E-5</v>
+        <v>6.9706555368396345E-5</v>
       </c>
       <c r="AG3" s="4" cm="1">
         <f t="array" ref="AG3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AG1)</f>
-        <v>8.9774974772634936E-5</v>
+        <v>7.3565321166361129E-5</v>
       </c>
       <c r="AH3" s="4" cm="1">
         <f t="array" ref="AH3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AH1)</f>
-        <v>9.2219405640867405E-5</v>
+        <v>7.7424086964326781E-5</v>
       </c>
       <c r="AI3" s="4" cm="1">
         <f t="array" ref="AI3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AI1)</f>
-        <v>9.4663836509099875E-5</v>
+        <v>8.1282852762291566E-5</v>
       </c>
       <c r="AJ3" s="4" cm="1">
         <f t="array" ref="AJ3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AJ1)</f>
-        <v>9.7108267377332344E-5</v>
+        <v>8.5141618560257218E-5</v>
       </c>
       <c r="AK3" s="4" cm="1">
         <f t="array" ref="AK3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AK1)</f>
-        <v>9.9552698245564814E-5</v>
+        <v>8.900038435822287E-5</v>
       </c>
       <c r="AL3" s="4" cm="1">
         <f t="array" ref="AL3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AL1)</f>
-        <v>1.0199712911379728E-4</v>
+        <v>9.2859150156187655E-5</v>
       </c>
       <c r="AM3" s="4" cm="1">
         <f t="array" ref="AM3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AM1)</f>
-        <v>1.0444155998202975E-4</v>
+        <v>9.6717915954153307E-5</v>
       </c>
       <c r="AN3" s="26" cm="1">
         <f t="array" ref="AN3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AN1)</f>
-        <v>1.0688599085026222E-4</v>
+        <v>1.0057668175211809E-4</v>
       </c>
       <c r="AO3" s="10">
         <f>BNVFE!D9</f>
-        <v>1.0748894488887501E-4</v>
+        <v>1.0420515928406728E-4</v>
       </c>
       <c r="AP3" s="10">
         <f>BNVFE!E9</f>
-        <v>1.1376628742778099E-4</v>
+        <v>1.0877081887028839E-4</v>
       </c>
       <c r="AQ3" s="10">
         <f>BNVFE!F9</f>
-        <v>1.1487084665170681E-4</v>
+        <v>1.119228749342E-4</v>
       </c>
       <c r="AR3" s="10">
         <f>BNVFE!G9</f>
-        <v>1.1675219072501874E-4</v>
+        <v>1.1596328986495364E-4</v>
       </c>
       <c r="AS3" s="10">
         <f>BNVFE!H9</f>
-        <v>1.1821814758141852E-4</v>
+        <v>1.1990275277656129E-4</v>
       </c>
       <c r="AT3" s="10">
         <f>BNVFE!I9</f>
-        <v>1.1769306557695523E-4</v>
+        <v>1.2199635295884858E-4</v>
       </c>
       <c r="AU3" s="10">
         <f>BNVFE!J9</f>
-        <v>1.1740735707916262E-4</v>
+        <v>1.243467097653028E-4</v>
       </c>
       <c r="AV3" s="10">
         <f>BNVFE!K9</f>
-        <v>1.1551151797500483E-4</v>
+        <v>1.2468075205096364E-4</v>
       </c>
       <c r="AW3" s="10">
         <f>BNVFE!L9</f>
-        <v>1.1449785838376007E-4</v>
+        <v>1.2577381385553893E-4</v>
       </c>
       <c r="AX3" s="10">
         <f>BNVFE!M9</f>
-        <v>1.13287341804607E-4</v>
+        <v>1.2646319222836433E-4</v>
       </c>
       <c r="AY3" s="10">
         <f>BNVFE!N9</f>
-        <v>1.1212406398402511E-4</v>
+        <v>1.2698406877407795E-4</v>
       </c>
       <c r="AZ3" s="10">
         <f>BNVFE!O9</f>
-        <v>1.1076186329973974E-4</v>
+        <v>1.2710494044541212E-4</v>
       </c>
       <c r="BA3" s="10">
         <f>BNVFE!P9</f>
-        <v>1.0947685788155618E-4</v>
+        <v>1.2713124547346271E-4</v>
       </c>
       <c r="BB3" s="10">
         <f>BNVFE!Q9</f>
-        <v>1.0833659526703707E-4</v>
+        <v>1.2714496314152464E-4</v>
       </c>
       <c r="BC3" s="10">
         <f>BNVFE!R9</f>
-        <v>1.0725258337875167E-4</v>
+        <v>1.2712313200368365E-4</v>
       </c>
       <c r="BD3" s="10">
         <f>BNVFE!S9</f>
-        <v>1.0627237374881068E-4</v>
+        <v>1.271005238267318E-4</v>
       </c>
       <c r="BE3" s="10">
         <f>BNVFE!T9</f>
-        <v>1.053872190542009E-4</v>
+        <v>1.2708001023750603E-4</v>
       </c>
       <c r="BF3" s="10">
         <f>BNVFE!U9</f>
-        <v>1.0457070988285631E-4</v>
+        <v>1.2705407014004141E-4</v>
       </c>
       <c r="BG3" s="10">
         <f>BNVFE!V9</f>
-        <v>1.0382785746559407E-4</v>
+        <v>1.2702629811717708E-4</v>
       </c>
       <c r="BH3" s="10">
         <f>BNVFE!W9</f>
-        <v>1.0317553743970813E-4</v>
+        <v>1.2701194080551808E-4</v>
       </c>
       <c r="BI3" s="10">
         <f>BNVFE!X9</f>
-        <v>1.0260660677729319E-4</v>
+        <v>1.2701796387221964E-4</v>
       </c>
       <c r="BJ3" s="10">
         <f>BNVFE!Y9</f>
-        <v>1.0212195692865432E-4</v>
+        <v>1.2701802056749482E-4</v>
       </c>
       <c r="BK3" s="10">
         <f>BNVFE!Z9</f>
-        <v>1.0164270384030296E-4</v>
+        <v>1.270327910946451E-4</v>
       </c>
       <c r="BL3" s="10">
         <f>BNVFE!AA9</f>
-        <v>1.0120623842325044E-4</v>
+        <v>1.2702817221538397E-4</v>
       </c>
       <c r="BM3" s="10">
         <f>BNVFE!AB9</f>
-        <v>1.0086620530512349E-4</v>
+        <v>1.2698131801807758E-4</v>
       </c>
       <c r="BN3" s="10">
         <f>BNVFE!AC9</f>
-        <v>1.0054219744424832E-4</v>
+        <v>1.2695571200958938E-4</v>
       </c>
       <c r="BO3" s="10">
         <f>BNVFE!AD9</f>
-        <v>9.9850684341711718E-5</v>
+        <v>1.2640538596243631E-4</v>
       </c>
       <c r="BP3" s="10">
         <f>BNVFE!AE9</f>
-        <v>9.9621972535475967E-5</v>
+        <v>1.2643551327178303E-4</v>
       </c>
       <c r="BQ3" s="10">
         <f>BNVFE!AF9</f>
-        <v>9.9483752435656976E-5</v>
+        <v>1.2650241733350927E-4</v>
       </c>
       <c r="BR3" s="10">
         <f>BNVFE!AG9</f>
-        <v>9.9383928406132565E-5</v>
+        <v>1.2663654108394285E-4</v>
       </c>
       <c r="BS3" s="10"/>
       <c r="BT3" s="4"/>
@@ -19940,119 +19940,119 @@
       <c r="K4" s="9"/>
       <c r="L4" s="4">
         <f>L5/M5*M4</f>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="1"/>
-        <v>1.177387347221569E-3</v>
+        <v>1.1604234453908705E-3</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1740372877780075E-3</v>
+        <v>1.1579662228857668E-3</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1706872283344459E-3</v>
+        <v>1.1555090003806633E-3</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1673371688908844E-3</v>
+        <v>1.1530517778755595E-3</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="1"/>
-        <v>1.163987109447323E-3</v>
+        <v>1.1505945553704558E-3</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1606370500037615E-3</v>
+        <v>1.1481373328653521E-3</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1572869905602E-3</v>
+        <v>1.1456801103602485E-3</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1539369311166386E-3</v>
+        <v>1.1432228878551448E-3</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1505868716730771E-3</v>
+        <v>1.1407656653500411E-3</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1472368122295155E-3</v>
+        <v>1.1383084428449376E-3</v>
       </c>
       <c r="AG4" s="4">
         <f>AG5/AH5*AH4</f>
-        <v>1.143886752785954E-3</v>
+        <v>1.1358512203398338E-3</v>
       </c>
       <c r="AH4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1405366933423926E-3</v>
+        <v>1.1333939978347303E-3</v>
       </c>
       <c r="AI4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1371866338988309E-3</v>
+        <v>1.1309367753296266E-3</v>
       </c>
       <c r="AJ4" s="4">
         <f>AJ5/AK5*AK4</f>
-        <v>1.1338365744552694E-3</v>
+        <v>1.1284795528245229E-3</v>
       </c>
       <c r="AK4" s="19">
         <f>AK5/AL5*AL4</f>
-        <v>1.130486515011708E-3</v>
+        <v>1.1260223303194191E-3</v>
       </c>
       <c r="AL4" s="19">
         <f>AL5/AM5*AM4</f>
-        <v>1.1271364555681463E-3</v>
+        <v>1.1235651078143154E-3</v>
       </c>
       <c r="AM4" s="19">
         <f>AM5/AN5*AN4</f>
-        <v>1.1237863961245848E-3</v>
+        <v>1.1211078853092119E-3</v>
       </c>
       <c r="AN4" s="27">
         <f>AN5/AO5*AO4</f>
-        <v>1.1204363366810234E-3</v>
+        <v>1.1186506628041082E-3</v>
       </c>
       <c r="AO4" s="10">
         <f>BNVFE!D10</f>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="AT4" s="10">
         <f>BNVFE!I10</f>
-        <v>1.3325458991476347E-3</v>
+        <v>1.3325458991476349E-3</v>
       </c>
       <c r="AU4" s="10">
         <f>BNVFE!J10</f>
@@ -20084,7 +20084,7 @@
       </c>
       <c r="AV4" s="10">
         <f>BNVFE!K10</f>
-        <v>1.3753174198569201E-3</v>
+        <v>1.3753174198569197E-3</v>
       </c>
       <c r="AW4" s="10">
         <f>BNVFE!L10</f>
@@ -20092,11 +20092,11 @@
       </c>
       <c r="AX4" s="10">
         <f>BNVFE!M10</f>
-        <v>1.4146533498165595E-3</v>
+        <v>1.4146533498165597E-3</v>
       </c>
       <c r="AY4" s="10">
         <f>BNVFE!N10</f>
-        <v>1.4334182752321722E-3</v>
+        <v>1.433418275232172E-3</v>
       </c>
       <c r="AZ4" s="10">
         <f>BNVFE!O10</f>
@@ -20104,15 +20104,15 @@
       </c>
       <c r="BA4" s="10">
         <f>BNVFE!P10</f>
-        <v>1.4455847020325701E-3</v>
+        <v>1.4455847020325705E-3</v>
       </c>
       <c r="BB4" s="10">
         <f>BNVFE!Q10</f>
-        <v>1.4457021763821076E-3</v>
+        <v>1.4457021763821074E-3</v>
       </c>
       <c r="BC4" s="10">
         <f>BNVFE!R10</f>
-        <v>1.4456854451868699E-3</v>
+        <v>1.4456854451868704E-3</v>
       </c>
       <c r="BD4" s="10">
         <f>BNVFE!S10</f>
@@ -20128,11 +20128,11 @@
       </c>
       <c r="BG4" s="10">
         <f>BNVFE!V10</f>
-        <v>1.4452171497116701E-3</v>
+        <v>1.4452171497116699E-3</v>
       </c>
       <c r="BH4" s="10">
         <f>BNVFE!W10</f>
-        <v>1.4450916657473916E-3</v>
+        <v>1.4450916657473914E-3</v>
       </c>
       <c r="BI4" s="10">
         <f>BNVFE!X10</f>
@@ -20140,15 +20140,15 @@
       </c>
       <c r="BJ4" s="10">
         <f>BNVFE!Y10</f>
-        <v>1.443856049179987E-3</v>
+        <v>1.4438560491799872E-3</v>
       </c>
       <c r="BK4" s="10">
         <f>BNVFE!Z10</f>
-        <v>1.4432142120520614E-3</v>
+        <v>1.4432142120520612E-3</v>
       </c>
       <c r="BL4" s="10">
         <f>BNVFE!AA10</f>
-        <v>1.443266541535037E-3</v>
+        <v>1.4432665415350372E-3</v>
       </c>
       <c r="BM4" s="10">
         <f>BNVFE!AB10</f>
@@ -20239,195 +20239,195 @@
       </c>
       <c r="W5" s="4">
         <f>($AO$5-$V$5)/COUNT($V$1:$AO$1)+V5</f>
-        <v>7.7819056047563108E-4</v>
+        <v>7.7875573937035282E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" ref="X5:AN5" si="3">($AO$5-$V$5)/COUNT($V$1:$AO$1)+W5</f>
-        <v>7.7597634894858872E-4</v>
+        <v>7.771067067380322E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="3"/>
-        <v>7.7376213742154636E-4</v>
+        <v>7.7545767410571158E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="3"/>
-        <v>7.71547925894504E-4</v>
+        <v>7.7380864147339097E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6933371436746164E-4</v>
+        <v>7.7215960884107035E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6711950284041929E-4</v>
+        <v>7.7051057620874973E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6490529131337693E-4</v>
+        <v>7.6886154357642912E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6269107978633457E-4</v>
+        <v>7.672125109441085E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6047686825929221E-4</v>
+        <v>7.6556347831178788E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5826265673224985E-4</v>
+        <v>7.6391444567946727E-4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5604844520520749E-4</v>
+        <v>7.6226541304714665E-4</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5383423367816514E-4</v>
+        <v>7.6061638041482603E-4</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5162002215112278E-4</v>
+        <v>7.5896734778250542E-4</v>
       </c>
       <c r="AJ5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4940581062408042E-4</v>
+        <v>7.573183151501848E-4</v>
       </c>
       <c r="AK5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4719159909703806E-4</v>
+        <v>7.5566928251786418E-4</v>
       </c>
       <c r="AL5" s="4">
         <f t="shared" si="3"/>
-        <v>7.449773875699957E-4</v>
+        <v>7.5402024988554357E-4</v>
       </c>
       <c r="AM5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4276317604295334E-4</v>
+        <v>7.5237121725322295E-4</v>
       </c>
       <c r="AN5" s="26">
         <f t="shared" si="3"/>
-        <v>7.4054896451591099E-4</v>
+        <v>7.5072218462090233E-4</v>
       </c>
       <c r="AO5" s="10">
         <f>BNVFE!D11</f>
-        <v>7.3612054146182692E-4</v>
+        <v>7.4742411935626142E-4</v>
       </c>
       <c r="AP5" s="10">
         <f>BNVFE!E11</f>
-        <v>7.8447318350072194E-4</v>
+        <v>7.9651924557390657E-4</v>
       </c>
       <c r="AQ5" s="10">
         <f>BNVFE!F11</f>
-        <v>8.0913266389472246E-4</v>
+        <v>8.2155738726285784E-4</v>
       </c>
       <c r="AR5" s="10">
         <f>BNVFE!G11</f>
-        <v>8.3445529729440947E-4</v>
+        <v>8.4726886507457174E-4</v>
       </c>
       <c r="AS5" s="10">
         <f>BNVFE!H11</f>
-        <v>8.582213975349269E-4</v>
+        <v>8.7139990821531331E-4</v>
       </c>
       <c r="AT5" s="10">
         <f>BNVFE!I11</f>
-        <v>8.8074213007663328E-4</v>
+        <v>8.9426646028002797E-4</v>
       </c>
       <c r="AU5" s="10">
         <f>BNVFE!J11</f>
-        <v>9.0057319308330108E-4</v>
+        <v>9.1440204130079723E-4</v>
       </c>
       <c r="AV5" s="10">
         <f>BNVFE!K11</f>
-        <v>9.0901183566816969E-4</v>
+        <v>9.2297026436659075E-4</v>
       </c>
       <c r="AW5" s="10">
         <f>BNVFE!L11</f>
-        <v>9.2181220627128113E-4</v>
+        <v>9.3596719243283541E-4</v>
       </c>
       <c r="AX5" s="10">
         <f>BNVFE!M11</f>
-        <v>9.3501079807791388E-4</v>
+        <v>9.4936845663098554E-4</v>
       </c>
       <c r="AY5" s="10">
         <f>BNVFE!N11</f>
-        <v>9.4741341804908898E-4</v>
+        <v>9.6196152636282171E-4</v>
       </c>
       <c r="AZ5" s="10">
         <f>BNVFE!O11</f>
-        <v>9.5479798028431191E-4</v>
+        <v>9.6945948303515201E-4</v>
       </c>
       <c r="BA5" s="10">
         <f>BNVFE!P11</f>
-        <v>9.5545478057360543E-4</v>
+        <v>9.7012636889170394E-4</v>
       </c>
       <c r="BB5" s="10">
         <f>BNVFE!Q11</f>
-        <v>9.5553242488507497E-4</v>
+        <v>9.7020520547872228E-4</v>
       </c>
       <c r="BC5" s="10">
         <f>BNVFE!R11</f>
-        <v>9.5552136645283517E-4</v>
+        <v>9.7019397723754094E-4</v>
       </c>
       <c r="BD5" s="10">
         <f>BNVFE!S11</f>
-        <v>9.5553324838534815E-4</v>
+        <v>9.7020604162434225E-4</v>
       </c>
       <c r="BE5" s="10">
         <f>BNVFE!T11</f>
-        <v>9.5550160244627959E-4</v>
+        <v>9.7017390974266364E-4</v>
       </c>
       <c r="BF5" s="10">
         <f>BNVFE!U11</f>
-        <v>9.5544042814027313E-4</v>
+        <v>9.7011179606804271E-4</v>
       </c>
       <c r="BG5" s="10">
         <f>BNVFE!V11</f>
-        <v>9.5521184799302321E-4</v>
+        <v>9.6987970593383536E-4</v>
       </c>
       <c r="BH5" s="10">
         <f>BNVFE!W11</f>
-        <v>9.5512890975122625E-4</v>
+        <v>9.6979549412497463E-4</v>
       </c>
       <c r="BI5" s="10">
         <f>BNVFE!X11</f>
-        <v>9.5497115062746795E-4</v>
+        <v>9.6963531251407814E-4</v>
       </c>
       <c r="BJ5" s="10">
         <f>BNVFE!Y11</f>
-        <v>9.5431223276604333E-4</v>
+        <v>9.6896627656878928E-4</v>
       </c>
       <c r="BK5" s="10">
         <f>BNVFE!Z11</f>
-        <v>9.5388801248246955E-4</v>
+        <v>9.6853554212517003E-4</v>
       </c>
       <c r="BL5" s="10">
         <f>BNVFE!AA11</f>
-        <v>9.5392259949394229E-4</v>
+        <v>9.6857066024120565E-4</v>
       </c>
       <c r="BM5" s="10">
         <f>BNVFE!AB11</f>
-        <v>9.5402741931442593E-4</v>
+        <v>9.6867708963368051E-4</v>
       </c>
       <c r="BN5" s="10">
         <f>BNVFE!AC11</f>
-        <v>9.5426270510675759E-4</v>
+        <v>9.6891598838222154E-4</v>
       </c>
       <c r="BO5" s="10">
         <f>BNVFE!AD11</f>
-        <v>9.5454316577121671E-4</v>
+        <v>9.6920075569048212E-4</v>
       </c>
       <c r="BP5" s="10">
         <f>BNVFE!AE11</f>
-        <v>9.5490315303348411E-4</v>
+        <v>9.6956627077574963E-4</v>
       </c>
       <c r="BQ5" s="10">
         <f>BNVFE!AF11</f>
-        <v>9.5518761355641295E-4</v>
+        <v>9.6985509936273564E-4</v>
       </c>
       <c r="BR5" s="10">
         <f>BNVFE!AG11</f>
-        <v>9.555246604539279E-4</v>
+        <v>9.701973218200204E-4</v>
       </c>
       <c r="BS5" s="10"/>
       <c r="BT5" s="4"/>
@@ -22743,12 +22743,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -22976,123 +22976,123 @@
       </c>
       <c r="B3" s="4">
         <f>BNVFE!B25*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.6512977295439592E-4</v>
+        <v>3.4315885705159878E-4</v>
       </c>
       <c r="C3" s="4">
         <f>BNVFE!C25*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.5474795033263841E-4</v>
+        <v>3.4251537077170018E-4</v>
       </c>
       <c r="D3" s="4">
         <f>BNVFE!D25*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5999582362156076E-4</v>
+        <v>3.5067496258556929E-4</v>
       </c>
       <c r="E3" s="4">
         <f>BNVFE!E25*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.575411527957111E-4</v>
+        <v>3.5195903261955489E-4</v>
       </c>
       <c r="F3" s="4">
         <f>BNVFE!F25*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.5098955393113139E-4</v>
+        <v>3.5537454196456301E-4</v>
       </c>
       <c r="G3" s="4">
         <f>BNVFE!G25*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.2529070551256162E-4</v>
+        <v>3.6001444402488291E-4</v>
       </c>
       <c r="H3" s="4">
         <f>BNVFE!H25*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.2405957424546739E-4</v>
+        <v>3.639117399264578E-4</v>
       </c>
       <c r="I3" s="4">
         <f>BNVFE!I25*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.2305318872919765E-4</v>
+        <v>3.6765602654358315E-4</v>
       </c>
       <c r="J3" s="4">
         <f>BNVFE!J25*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.2314699001954232E-4</v>
+        <v>3.7314346130715945E-4</v>
       </c>
       <c r="K3" s="4">
         <f>BNVFE!K25*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.2324770853401079E-4</v>
+        <v>3.7816127565462235E-4</v>
       </c>
       <c r="L3" s="4">
         <f>BNVFE!L25*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.2427274517001246E-4</v>
+        <v>3.8287720134892478E-4</v>
       </c>
       <c r="M3" s="4">
         <f>BNVFE!M25*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.2437797979064292E-4</v>
+        <v>3.8695589546632644E-4</v>
       </c>
       <c r="N3" s="4">
         <f>BNVFE!N25*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.2523361399085606E-4</v>
+        <v>3.9124659466938441E-4</v>
       </c>
       <c r="O3" s="4">
         <f>BNVFE!O25*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.2615971146515569E-4</v>
+        <v>3.9544274917153121E-4</v>
       </c>
       <c r="P3" s="4">
         <f>BNVFE!P25*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.3177243986842866E-4</v>
+        <v>4.0318106889032553E-4</v>
       </c>
       <c r="Q3" s="4">
         <f>BNVFE!Q25*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3631690935380739E-4</v>
+        <v>4.0934602784305208E-4</v>
       </c>
       <c r="R3" s="4">
         <f>BNVFE!R25*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.4057057772530629E-4</v>
+        <v>4.1460859761082873E-4</v>
       </c>
       <c r="S3" s="4">
         <f>BNVFE!S25*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.5254040910253097E-4</v>
+        <v>4.2918095492519738E-4</v>
       </c>
       <c r="T3" s="4">
         <f>BNVFE!T25*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.5622167214823523E-4</v>
+        <v>4.335787303895307E-4</v>
       </c>
       <c r="U3" s="4">
         <f>BNVFE!U25*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.5932586621187509E-4</v>
+        <v>4.3685345470599412E-4</v>
       </c>
       <c r="V3" s="4">
         <f>BNVFE!V25*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.6998069835868409E-4</v>
+        <v>4.4986152668336464E-4</v>
       </c>
       <c r="W3" s="4">
         <f>BNVFE!W25*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.7043547142435307E-4</v>
+        <v>4.506125079279828E-4</v>
       </c>
       <c r="X3" s="4">
         <f>BNVFE!X25*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.7063277045978053E-4</v>
+        <v>4.5077860462753374E-4</v>
       </c>
       <c r="Y3" s="4">
         <f>BNVFE!Y25*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.7027223527136152E-4</v>
+        <v>4.5037480829452432E-4</v>
       </c>
       <c r="Z3" s="4">
         <f>BNVFE!Z25*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.707899458345789E-4</v>
+        <v>4.5090752346333351E-4</v>
       </c>
       <c r="AA3" s="4">
         <f>BNVFE!AA25*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.6942231456915355E-4</v>
+        <v>4.5088043127990992E-4</v>
       </c>
       <c r="AB3" s="4">
         <f>BNVFE!AB25*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.7062339495815715E-4</v>
+        <v>4.5210293408135845E-4</v>
       </c>
       <c r="AC3" s="4">
         <f>BNVFE!AC25*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.7138471662628673E-4</v>
+        <v>4.5305688916845286E-4</v>
       </c>
       <c r="AD3" s="4">
         <f>BNVFE!AD25*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.7275932113182964E-4</v>
+        <v>4.5475075705116326E-4</v>
       </c>
       <c r="AE3" s="4">
         <f>BNVFE!AE25*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.7333739446942469E-4</v>
+        <v>4.5558862387767087E-4</v>
       </c>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
@@ -23103,123 +23103,123 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!AB2</f>
-        <v>3.170827862483609E-4</v>
+        <v>3.1934654476143933E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AC2</f>
-        <v>3.199157108645295E-4</v>
+        <v>3.2444322789068635E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AD2</f>
-        <v>3.227486354806981E-4</v>
+        <v>3.2953991101993338E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AE2</f>
-        <v>3.255815600968667E-4</v>
+        <v>3.346365941491804E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AF2</f>
-        <v>3.284144847130353E-4</v>
+        <v>3.3973327727842743E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AG2</f>
-        <v>3.312474093292039E-4</v>
+        <v>3.4482996040767445E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AH2</f>
-        <v>3.3408033394537249E-4</v>
+        <v>3.4992664353692148E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AI2</f>
-        <v>3.3691325856154109E-4</v>
+        <v>3.550233266661685E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AJ2</f>
-        <v>3.3974618317770969E-4</v>
+        <v>3.6012000979541552E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AK2</f>
-        <v>3.4257910779387829E-4</v>
+        <v>3.6521669292466255E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AL2</f>
-        <v>3.4541203241004689E-4</v>
+        <v>3.7031337605390957E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AM2</f>
-        <v>3.4824495702621549E-4</v>
+        <v>3.754100591831566E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AN2</f>
-        <v>3.5107788164238408E-4</v>
+        <v>3.8050674231240362E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AO2</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AP2</f>
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AQ2</f>
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AR2</f>
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AS2</f>
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AT2</f>
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AU2</f>
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AV2</f>
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AW2</f>
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AX2</f>
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AY2</f>
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AZ2</f>
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!BA2</f>
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!BB2</f>
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BC2</f>
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BD2</f>
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BE2</f>
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
@@ -23230,123 +23230,123 @@
       </c>
       <c r="B5" s="4">
         <f>BNVFE!B27*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.5658241110255779E-4</v>
+        <v>3.3512581471667653E-4</v>
       </c>
       <c r="C5" s="4">
         <f>BNVFE!C27*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.546826203139623E-4</v>
+        <v>3.4245229349232932E-4</v>
       </c>
       <c r="D5" s="4">
         <f>BNVFE!D27*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5321445226457391E-4</v>
+        <v>3.4406917165453311E-4</v>
       </c>
       <c r="E5" s="4">
         <f>BNVFE!E27*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.524765095404888E-4</v>
+        <v>3.4697346123362365E-4</v>
       </c>
       <c r="F5" s="4">
         <f>BNVFE!F27*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.4444165282567749E-4</v>
+        <v>3.4874483652143026E-4</v>
       </c>
       <c r="G5" s="4">
         <f>BNVFE!G27*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.1958904086234162E-4</v>
+        <v>3.5370414497766343E-4</v>
       </c>
       <c r="H5" s="4">
         <f>BNVFE!H27*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.1833343353394986E-4</v>
+        <v>3.5748141045927891E-4</v>
       </c>
       <c r="I5" s="4">
         <f>BNVFE!I27*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.1412412398046098E-4</v>
+        <v>3.5749415666950872E-4</v>
       </c>
       <c r="J5" s="4">
         <f>BNVFE!J27*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.1380528787726191E-4</v>
+        <v>3.6235643503264504E-4</v>
       </c>
       <c r="K5" s="4">
         <f>BNVFE!K27*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.1412454613579944E-4</v>
+        <v>3.6748826347409249E-4</v>
       </c>
       <c r="L5" s="4">
         <f>BNVFE!L27*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.1593684912226372E-4</v>
+        <v>3.7303479369352893E-4</v>
       </c>
       <c r="M5" s="4">
         <f>BNVFE!M27*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.1696816235110396E-4</v>
+        <v>3.7811660081257293E-4</v>
       </c>
       <c r="N5" s="4">
         <f>BNVFE!N27*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.1872195023581305E-4</v>
+        <v>3.8341325223429322E-4</v>
       </c>
       <c r="O5" s="4">
         <f>BNVFE!O27*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.204519818383183E-4</v>
+        <v>3.8852258026095287E-4</v>
       </c>
       <c r="P5" s="4">
         <f>BNVFE!P27*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.2661274550379422E-4</v>
+        <v>3.9691083411764322E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>BNVFE!Q27*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3159751139569607E-4</v>
+        <v>4.0360184206400415E-4</v>
       </c>
       <c r="R5" s="4">
         <f>BNVFE!R27*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.3626742360268452E-4</v>
+        <v>4.0936996335181616E-4</v>
       </c>
       <c r="S5" s="4">
         <f>BNVFE!S27*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.4855286672866461E-4</v>
+        <v>4.2432654051018792E-4</v>
       </c>
       <c r="T5" s="4">
         <f>BNVFE!T27*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.5224997356011041E-4</v>
+        <v>4.2874453818290829E-4</v>
       </c>
       <c r="U5" s="4">
         <f>BNVFE!U27*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.5572055564458207E-4</v>
+        <v>4.3247026795349556E-4</v>
       </c>
       <c r="V5" s="4">
         <f>BNVFE!V27*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.6666645963201293E-4</v>
+        <v>4.4583172593973757E-4</v>
       </c>
       <c r="W5" s="4">
         <f>BNVFE!W27*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.6745317163350868E-4</v>
+        <v>4.4698471930671959E-4</v>
       </c>
       <c r="X5" s="4">
         <f>BNVFE!X27*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.6812816732604984E-4</v>
+        <v>4.4773240473439335E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>BNVFE!Y27*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.6829543482855682E-4</v>
+        <v>4.4797035817470312E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>BNVFE!Z27*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.6916794586512564E-4</v>
+        <v>4.4893505361214171E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>BNVFE!AA27*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.6836027015493497E-4</v>
+        <v>4.4958420464541509E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>BNVFE!AB27*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.6989680254038607E-4</v>
+        <v>4.5121660426941369E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>BNVFE!AC27*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.7101492304657024E-4</v>
+        <v>4.5260577332722303E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>BNVFE!AD27*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.7218016517873024E-4</v>
+        <v>4.5404421104897877E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>BNVFE!AE27*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.7301391239035468E-4</v>
+        <v>4.5519387436306075E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -23357,123 +23357,123 @@
       </c>
       <c r="B6" s="4">
         <f>BNVFE!B28*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>5.7733679111085859E-4</v>
+        <v>5.4259676434598647E-4</v>
       </c>
       <c r="C6" s="4">
         <f>BNVFE!C28*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>5.1624349374592988E-4</v>
+        <v>4.9844215168280475E-4</v>
       </c>
       <c r="D6" s="4">
         <f>BNVFE!D28*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>5.0741882465691354E-4</v>
+        <v>4.9428094904465346E-4</v>
       </c>
       <c r="E6" s="4">
         <f>BNVFE!E28*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>5.1345781970387209E-4</v>
+        <v>5.0544144667222896E-4</v>
       </c>
       <c r="F6" s="4">
         <f>BNVFE!F28*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>5.0721121114026969E-4</v>
+        <v>5.1354790995754805E-4</v>
       </c>
       <c r="G6" s="4">
         <f>BNVFE!G28*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>4.7306733810797443E-4</v>
+        <v>5.235657577332682E-4</v>
       </c>
       <c r="H6" s="4">
         <f>BNVFE!H28*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>4.7481949081841583E-4</v>
+        <v>5.332117943345761E-4</v>
       </c>
       <c r="I6" s="4">
         <f>BNVFE!I28*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>4.7320913259414843E-4</v>
+        <v>5.3854348287996328E-4</v>
       </c>
       <c r="J6" s="4">
         <f>BNVFE!J28*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>4.7463592657213656E-4</v>
+        <v>5.480703765526247E-4</v>
       </c>
       <c r="K6" s="4">
         <f>BNVFE!K28*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>4.7740258867597427E-4</v>
+        <v>5.5850410433932053E-4</v>
       </c>
       <c r="L6" s="4">
         <f>BNVFE!L28*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>4.8006153857130626E-4</v>
+        <v>5.6682105141791681E-4</v>
       </c>
       <c r="M6" s="4">
         <f>BNVFE!M28*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>4.8249268977570829E-4</v>
+        <v>5.7557356682662623E-4</v>
       </c>
       <c r="N6" s="4">
         <f>BNVFE!N28*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>4.8553787759081645E-4</v>
+        <v>5.8408796944263018E-4</v>
       </c>
       <c r="O6" s="4">
         <f>BNVFE!O28*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>4.8878116836815273E-4</v>
+        <v>5.9260835157877673E-4</v>
       </c>
       <c r="P6" s="4">
         <f>BNVFE!P28*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>4.9839012649989111E-4</v>
+        <v>6.0566050635881105E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>BNVFE!Q28*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>5.0688524375738135E-4</v>
+        <v>6.1695221183796919E-4</v>
       </c>
       <c r="R6" s="4">
         <f>BNVFE!R28*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>5.1408893015787694E-4</v>
+        <v>6.2584880879500203E-4</v>
       </c>
       <c r="S6" s="4">
         <f>BNVFE!S28*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>5.3298064486994104E-4</v>
+        <v>6.4884800781915975E-4</v>
       </c>
       <c r="T6" s="4">
         <f>BNVFE!T28*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>5.3904493880410056E-4</v>
+        <v>6.5610387706092899E-4</v>
       </c>
       <c r="U6" s="4">
         <f>BNVFE!U28*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>5.4440423055981968E-4</v>
+        <v>6.6186403829994044E-4</v>
       </c>
       <c r="V6" s="4">
         <f>BNVFE!V28*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>5.6091264450523141E-4</v>
+        <v>6.8201670982440869E-4</v>
       </c>
       <c r="W6" s="4">
         <f>BNVFE!W28*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>5.6228352121743142E-4</v>
+        <v>6.8398414084949516E-4</v>
       </c>
       <c r="X6" s="4">
         <f>BNVFE!X28*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>5.6300211186441568E-4</v>
+        <v>6.847459982390736E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>BNVFE!Y28*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>5.6370242333199415E-4</v>
+        <v>6.8565057452186899E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>BNVFE!Z28*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>5.6505007903216167E-4</v>
+        <v>6.8714196442322276E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>BNVFE!AA28*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>5.6472680383080583E-4</v>
+        <v>6.892498228308697E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>BNVFE!AB28*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>5.6695236229259763E-4</v>
+        <v>6.9159375787861133E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>BNVFE!AC28*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>5.6913462321645978E-4</v>
+        <v>6.942944886231706E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>BNVFE!AD28*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>5.7051355681803149E-4</v>
+        <v>6.9600264074737327E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>BNVFE!AE28*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>5.7222367877689934E-4</v>
+        <v>6.98292220994049E-4</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
@@ -23484,123 +23484,123 @@
       </c>
       <c r="B7" s="4">
         <f>BNVFE!B29*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.1763216261773128E-4</v>
+        <v>2.9851931548825495E-4</v>
       </c>
       <c r="C7" s="4">
         <f>BNVFE!C29*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.0669186158966625E-4</v>
+        <v>2.9611637385514933E-4</v>
       </c>
       <c r="D7" s="4">
         <f>BNVFE!D29*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.1685245989931227E-4</v>
+        <v>3.0864864876083039E-4</v>
       </c>
       <c r="E7" s="4">
         <f>BNVFE!E29*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.1739782303062078E-4</v>
+        <v>3.1244244159283816E-4</v>
       </c>
       <c r="F7" s="4">
         <f>BNVFE!F29*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.1192088323962313E-4</v>
+        <v>3.1581777796216959E-4</v>
       </c>
       <c r="G7" s="4">
         <f>BNVFE!G29*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>2.9142107044187574E-4</v>
+        <v>3.2252933414421414E-4</v>
       </c>
       <c r="H7" s="4">
         <f>BNVFE!H29*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>2.9074753100539563E-4</v>
+        <v>3.2650305158812983E-4</v>
       </c>
       <c r="I7" s="4">
         <f>BNVFE!I29*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>2.8982606084405671E-4</v>
+        <v>3.298413438909791E-4</v>
       </c>
       <c r="J7" s="4">
         <f>BNVFE!J29*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>2.8983551626977824E-4</v>
+        <v>3.3467812200296891E-4</v>
       </c>
       <c r="K7" s="4">
         <f>BNVFE!K29*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>2.9017394439876564E-4</v>
+        <v>3.3946891525767797E-4</v>
       </c>
       <c r="L7" s="4">
         <f>BNVFE!L29*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>2.9163668386046073E-4</v>
+        <v>3.443429612582203E-4</v>
       </c>
       <c r="M7" s="4">
         <f>BNVFE!M29*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>2.925881148990673E-4</v>
+        <v>3.4903323609280015E-4</v>
       </c>
       <c r="N7" s="4">
         <f>BNVFE!N29*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>2.9426018427939119E-4</v>
+        <v>3.5398645802132289E-4</v>
       </c>
       <c r="O7" s="4">
         <f>BNVFE!O29*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>2.9593459855706646E-4</v>
+        <v>3.5879720000574574E-4</v>
       </c>
       <c r="P7" s="4">
         <f>BNVFE!P29*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.0150773383604229E-4</v>
+        <v>3.6640237644490118E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>BNVFE!Q29*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.0595864748126056E-4</v>
+        <v>3.7239565881871939E-4</v>
       </c>
       <c r="R7" s="4">
         <f>BNVFE!R29*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.1002205402131999E-4</v>
+        <v>3.774190063766538E-4</v>
       </c>
       <c r="S7" s="4">
         <f>BNVFE!S29*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.2110959644743808E-4</v>
+        <v>3.9091723865015179E-4</v>
       </c>
       <c r="T7" s="4">
         <f>BNVFE!T29*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.2436399554231139E-4</v>
+        <v>3.9480284431652184E-4</v>
       </c>
       <c r="U7" s="4">
         <f>BNVFE!U29*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.2731318390816493E-4</v>
+        <v>3.9793376599498131E-4</v>
       </c>
       <c r="V7" s="4">
         <f>BNVFE!V29*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.3702991066531066E-4</v>
+        <v>4.0979648620174003E-4</v>
       </c>
       <c r="W7" s="4">
         <f>BNVFE!W29*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.3741002097795717E-4</v>
+        <v>4.1043903049645998E-4</v>
       </c>
       <c r="X7" s="4">
         <f>BNVFE!X29*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.3750948921623593E-4</v>
+        <v>4.1049272682690713E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>BNVFE!Y29*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.3717526117842833E-4</v>
+        <v>4.1011782453415828E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>BNVFE!Z29*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.375039228412405E-4</v>
+        <v>4.1042930024698523E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>BNVFE!AA29*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.3608556774951192E-4</v>
+        <v>4.1019288699596694E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>BNVFE!AB29*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.3718406040280117E-4</v>
+        <v>4.1131214355959064E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>BNVFE!AC29*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.378358588691025E-4</v>
+        <v>4.1213021542511836E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>BNVFE!AD29*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.3847440572982264E-4</v>
+        <v>4.1292459644126167E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>BNVFE!AE29*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.3885840983958386E-4</v>
+        <v>4.135134570368764E-4</v>
       </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
@@ -23782,12 +23782,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -24781,12 +24781,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
